--- a/Full-stack-development-engineer.xlsx
+++ b/Full-stack-development-engineer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Gitee\Full-stack-development-engineer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78557772-A956-445C-82E4-6C549691DA49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58932886-A4A6-45EB-9243-3AF9E119D7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{E3B634D7-B615-4A49-884A-554A3ABF371D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{E3B634D7-B615-4A49-884A-554A3ABF371D}"/>
   </bookViews>
   <sheets>
     <sheet name="用户前端" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">数据库!$A$1:$G$1493</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5">需求!$A$1:$N$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3415" uniqueCount="1585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3430" uniqueCount="1600">
   <si>
     <t>技术选型</t>
   </si>
@@ -6016,34 +6017,6 @@
     <t>查询公海销售组 组下的用户</t>
   </si>
   <si>
-    <t>小程序id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇付</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信小程序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据用户的支付方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按量还是包年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端，run</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发vue2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sport-compony</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6092,6 +6065,94 @@
   </si>
   <si>
     <t>WxOpenAuthorizerDao</t>
+  </si>
+  <si>
+    <t>增加公司类型下拉选择框，默认选中按量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加支付类型，下拉框，默认选中汇付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果是汇付，那么用户填入汇付商户ID和汇付订场ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果是微信,填入微信支付ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现有的小程序支付ID不要了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加两个字段brand_log,brand_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统前端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端模块编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端模块编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端Controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端Service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端ServiceImpl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端Mapper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6228,7 +6289,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6244,6 +6305,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6319,7 +6386,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6412,6 +6479,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7584,8 +7663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B1634ED-A1AD-47DE-88E5-E4875C6236F5}">
   <dimension ref="A1:L208"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F215" sqref="F215"/>
     </sheetView>
   </sheetViews>
@@ -10198,10 +10277,10 @@
     </row>
     <row r="206" spans="3:9">
       <c r="C206" s="19" t="s">
-        <v>1578</v>
+        <v>1571</v>
       </c>
       <c r="E206" s="17" t="s">
-        <v>1577</v>
+        <v>1570</v>
       </c>
       <c r="F206" s="18" t="s">
         <v>1568</v>
@@ -10215,10 +10294,10 @@
     </row>
     <row r="207" spans="3:9">
       <c r="E207" s="17" t="s">
-        <v>1580</v>
+        <v>1573</v>
       </c>
       <c r="F207" s="18" t="s">
-        <v>1579</v>
+        <v>1572</v>
       </c>
       <c r="I207" s="7">
         <v>61</v>
@@ -10226,16 +10305,16 @@
     </row>
     <row r="208" spans="3:9">
       <c r="C208" s="19" t="s">
-        <v>1584</v>
+        <v>1577</v>
       </c>
       <c r="E208" s="17" t="s">
-        <v>1583</v>
+        <v>1576</v>
       </c>
       <c r="F208" s="18" t="s">
-        <v>1582</v>
+        <v>1575</v>
       </c>
       <c r="H208" s="26" t="s">
-        <v>1581</v>
+        <v>1574</v>
       </c>
       <c r="I208" s="8">
         <v>62</v>
@@ -10253,8 +10332,8 @@
   <dimension ref="A1:P1493"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A701" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G363" sqref="G363"/>
+      <pane ySplit="1" topLeftCell="A313" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D453" sqref="D453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -26080,55 +26159,238 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A00E24-6DD1-43AF-9C88-B7AD9E73140E}">
-  <dimension ref="B4:C11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="20.375" customWidth="1"/>
+    <col min="1" max="1" width="4.875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="10" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="35.375" style="32" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="10" customWidth="1"/>
+    <col min="6" max="6" width="10" style="10" customWidth="1"/>
+    <col min="7" max="7" width="13" style="10" customWidth="1"/>
+    <col min="8" max="8" width="12.625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="23.375" style="7" customWidth="1"/>
+    <col min="10" max="12" width="19.125" style="10" customWidth="1"/>
+    <col min="13" max="13" width="10" style="10" customWidth="1"/>
+    <col min="14" max="14" width="24.5" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:3">
-      <c r="B4" t="s">
-        <v>1574</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5" t="s">
+    <row r="1" spans="1:14" s="34" customFormat="1">
+      <c r="A1" s="9" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>1585</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>1592</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>1591</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>1593</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>1595</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>1596</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>1597</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>1598</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>1590</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="31">
+        <f ca="1">TODAY()</f>
+        <v>45792</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>1578</v>
+      </c>
+      <c r="E2" s="10">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>1588</v>
+      </c>
+      <c r="G2" s="10">
+        <v>1</v>
+      </c>
+      <c r="M2" s="10">
+        <v>1</v>
+      </c>
+      <c r="N2" s="10" t="s">
         <v>1569</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
-      <c r="B6" t="s">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" t="s">
-        <v>1571</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9" t="s">
-        <v>1572</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" t="s">
-        <v>1573</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1576</v>
-      </c>
+    <row r="3" spans="1:14">
+      <c r="D3" s="32" t="s">
+        <v>1579</v>
+      </c>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="B4" s="31"/>
+      <c r="D4" s="32" t="s">
+        <v>1580</v>
+      </c>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="B5" s="31"/>
+      <c r="D5" s="32" t="s">
+        <v>1581</v>
+      </c>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="B6" s="31"/>
+      <c r="D6" s="32" t="s">
+        <v>1582</v>
+      </c>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="B7" s="31"/>
+      <c r="D7" s="32" t="s">
+        <v>1583</v>
+      </c>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="B8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="B9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="B10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="B11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="B12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N25" xr:uid="{43A00E24-6DD1-43AF-9C88-B7AD9E73140E}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Full-stack-development-engineer.xlsx
+++ b/Full-stack-development-engineer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Gitee\Full-stack-development-engineer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Coding\Gitee\Full-stack-development-engineer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F206A1D-C4BA-4AC8-9F1D-23463B94EE7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB4CD2A-49CE-46B0-85A9-225A1467BC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{E3B634D7-B615-4A49-884A-554A3ABF371D}"/>
   </bookViews>
@@ -24,28 +24,19 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">数据库!$A$1:$G$1493</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5">需求!$A$1:$R$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5">需求!$A$1:$S$25</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3542" uniqueCount="1697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3547" uniqueCount="1701">
   <si>
     <t>技术选型</t>
   </si>
@@ -6458,34 +6449,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OrderServiceImpl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sport_sys_config</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1.修改小程序公司的配置描述
-2.修改取消的配置表的描述sport_sys_config
-cancel_booking_days
-订场订单提前取消天数---小时数
-3.修改订场订单取消的时间比较逻辑，改成小时比较 OrderServiceImpl
-4.修改异常提示语
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sport-server</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">coral-enroll-manager-mini-app
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OrderService</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6943,6 +6916,50 @@
   </si>
   <si>
     <t>Dao层MapperService及方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE `h_sport`.`sport_sys_config` SET  name = '订场订单提前取消小时数' WHERE id = 14;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL语句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderServiceImpl中实现cancelOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用OrderService中定义cancelOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.修改小程序公司的配置描述
+2.修改取消的配置表的描述sport_sys_config
+cancel_booking_days
+订场订单提前取消天数---小时数
+3.修改订场订单取消的时间比较逻辑，改成小时比较 OrderServiceImpl
+4.修改异常提示语
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">修改一个Java方法中的取消订单逻辑，将原来的天数限制改为小时数。
+cancelOrder方法中有关于订场订单取消的逻辑。代码中检查用户权限，确定订单状态，然后处理不同情况下的取消操作。在订场分类的处理中，获取了StoreConfig中的cancel_booking_days配置，并计算允许取消的天数限制。现在需要将天数转换为小时，这意味着需要修改配置的获取和计算逻辑。
+在代码中，首先从StoreConfig获取配置项cancel_booking_days，并将其转换为整数cancelBookingDays。然后使用DateUtils.addDays来增加天数，与订单的最早开始时间比较，判断是否允许取消。
+用户的需求是将天数改为小时，所以我需要：
+1.替换所有cancel_booking_days为cancel_booking_hours。
+2.将DateUtils.addDays改为DateUtils.addHours。
+3.变量重命名，如cancelBookingDays改为cancelBookingHours。
+4.调整异常消息中的天数提示为小时。
+5.处理配置不存在时的默认值，如默认24小时。
+6.更新相关日志和注释。
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7493,12 +7510,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -7526,28 +7537,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7557,6 +7574,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -8385,7 +8470,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -27274,10 +27359,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A00E24-6DD1-43AF-9C88-B7AD9E73140E}">
-  <dimension ref="A1:R30"/>
+  <dimension ref="A1:U30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="M5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -27286,23 +27374,24 @@
     <col min="2" max="3" width="19.375" style="10" customWidth="1"/>
     <col min="4" max="4" width="10.875" style="10" customWidth="1"/>
     <col min="5" max="5" width="41" style="50" customWidth="1"/>
-    <col min="6" max="6" width="7.875" style="48" customWidth="1"/>
-    <col min="7" max="7" width="29.25" style="50" customWidth="1"/>
-    <col min="8" max="8" width="13" style="48" customWidth="1"/>
-    <col min="9" max="9" width="19.25" style="48" customWidth="1"/>
-    <col min="10" max="10" width="29.125" style="48" customWidth="1"/>
-    <col min="11" max="11" width="48.375" style="51" customWidth="1"/>
-    <col min="12" max="12" width="44.75" style="48" customWidth="1"/>
-    <col min="13" max="13" width="43.5" style="48" customWidth="1"/>
-    <col min="14" max="14" width="58" style="48" customWidth="1"/>
-    <col min="15" max="15" width="63.875" style="48" customWidth="1"/>
-    <col min="16" max="16" width="19.125" style="48" customWidth="1"/>
-    <col min="17" max="17" width="10" style="48" customWidth="1"/>
-    <col min="18" max="18" width="24.5" style="48" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="52"/>
+    <col min="6" max="6" width="43.875" style="50" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="48" customWidth="1"/>
+    <col min="8" max="8" width="29.25" style="50" customWidth="1"/>
+    <col min="9" max="9" width="13" style="48" customWidth="1"/>
+    <col min="10" max="10" width="19.25" style="48" customWidth="1"/>
+    <col min="11" max="11" width="29.125" style="48" customWidth="1"/>
+    <col min="12" max="12" width="48.375" style="51" customWidth="1"/>
+    <col min="13" max="13" width="44.75" style="48" customWidth="1"/>
+    <col min="14" max="14" width="43.5" style="48" customWidth="1"/>
+    <col min="15" max="15" width="58" style="48" customWidth="1"/>
+    <col min="16" max="16" width="63.875" style="48" customWidth="1"/>
+    <col min="17" max="17" width="19.125" style="48" customWidth="1"/>
+    <col min="18" max="18" width="10" style="48" customWidth="1"/>
+    <col min="19" max="21" width="24.5" style="48" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="47" customFormat="1">
+    <row r="1" spans="1:21" s="47" customFormat="1">
       <c r="A1" s="9" t="s">
         <v>1571</v>
       </c>
@@ -27315,50 +27404,57 @@
       <c r="D1" s="9" t="s">
         <v>1572</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="55" t="s">
         <v>1570</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="55" t="s">
+        <v>1699</v>
+      </c>
+      <c r="G1" s="46" t="s">
         <v>1576</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="H1" s="46" t="s">
         <v>1575</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="I1" s="55" t="s">
         <v>1577</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="J1" s="55" t="s">
         <v>1578</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="K1" s="55" t="s">
+        <v>1689</v>
+      </c>
+      <c r="L1" s="55" t="s">
+        <v>1688</v>
+      </c>
+      <c r="M1" s="55" t="s">
+        <v>1690</v>
+      </c>
+      <c r="N1" s="55" t="s">
+        <v>1691</v>
+      </c>
+      <c r="O1" s="55" t="s">
+        <v>1693</v>
+      </c>
+      <c r="P1" s="55" t="s">
         <v>1692</v>
       </c>
-      <c r="K1" s="57" t="s">
-        <v>1691</v>
-      </c>
-      <c r="L1" s="57" t="s">
-        <v>1693</v>
-      </c>
-      <c r="M1" s="57" t="s">
-        <v>1694</v>
-      </c>
-      <c r="N1" s="57" t="s">
-        <v>1696</v>
-      </c>
-      <c r="O1" s="57" t="s">
+      <c r="Q1" s="55" t="s">
+        <v>1579</v>
+      </c>
+      <c r="R1" s="55" t="s">
+        <v>1574</v>
+      </c>
+      <c r="S1" s="55" t="s">
+        <v>1573</v>
+      </c>
+      <c r="T1" s="55" t="s">
         <v>1695</v>
       </c>
-      <c r="P1" s="57" t="s">
-        <v>1579</v>
-      </c>
-      <c r="Q1" s="57" t="s">
-        <v>1574</v>
-      </c>
-      <c r="R1" s="57" t="s">
-        <v>1573</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="30">
+      <c r="U1" s="55"/>
+    </row>
+    <row r="2" spans="1:21" ht="30">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -27368,47 +27464,50 @@
       <c r="C2" s="31">
         <v>45787</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="64" t="s">
         <v>1620</v>
       </c>
       <c r="E2" s="49" t="s">
         <v>1618</v>
       </c>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50" t="s">
-        <v>1682</v>
-      </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50" t="s">
-        <v>1627</v>
-      </c>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50" t="s">
+        <v>1679</v>
+      </c>
+      <c r="I2" s="50"/>
       <c r="J2" s="50" t="s">
-        <v>1689</v>
+        <v>1625</v>
       </c>
       <c r="K2" s="50" t="s">
-        <v>1690</v>
-      </c>
-      <c r="L2" s="49" t="s">
+        <v>1686</v>
+      </c>
+      <c r="L2" s="50" t="s">
         <v>1687</v>
       </c>
       <c r="M2" s="49" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="N2" s="49" t="s">
-        <v>1688</v>
+        <v>1683</v>
       </c>
       <c r="O2" s="49" t="s">
         <v>1685</v>
       </c>
-      <c r="P2" s="58" t="s">
+      <c r="P2" s="49" t="s">
+        <v>1682</v>
+      </c>
+      <c r="Q2" s="56" t="s">
         <v>1622</v>
       </c>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="49" t="s">
+      <c r="R2" s="50"/>
+      <c r="S2" s="49" t="s">
         <v>1623</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="28.5">
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+    </row>
+    <row r="3" spans="1:21" ht="28.5">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -27422,11 +27521,11 @@
       <c r="E3" s="49" t="s">
         <v>1619</v>
       </c>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50" t="s">
-        <v>1684</v>
-      </c>
-      <c r="H3" s="50"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50" t="s">
+        <v>1681</v>
+      </c>
       <c r="I3" s="50"/>
       <c r="J3" s="50"/>
       <c r="K3" s="50"/>
@@ -27434,11 +27533,14 @@
       <c r="M3" s="50"/>
       <c r="N3" s="50"/>
       <c r="O3" s="50"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="56"/>
       <c r="R3" s="50"/>
-    </row>
-    <row r="4" spans="1:18" ht="114">
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+    </row>
+    <row r="4" spans="1:21" ht="114">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -27448,41 +27550,44 @@
       <c r="C4" s="31">
         <v>45793</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="64" t="s">
         <v>1590</v>
       </c>
       <c r="E4" s="49" t="s">
         <v>1614</v>
       </c>
-      <c r="F4" s="50">
+      <c r="F4" s="49"/>
+      <c r="G4" s="50">
         <v>1</v>
       </c>
-      <c r="G4" s="50" t="s">
-        <v>1682</v>
-      </c>
-      <c r="H4" s="50">
+      <c r="H4" s="50" t="s">
+        <v>1679</v>
+      </c>
+      <c r="I4" s="50">
         <v>1</v>
       </c>
-      <c r="I4" s="50" t="s">
-        <v>1683</v>
-      </c>
-      <c r="J4" s="50"/>
+      <c r="J4" s="50" t="s">
+        <v>1680</v>
+      </c>
       <c r="K4" s="50"/>
       <c r="L4" s="50"/>
       <c r="M4" s="50"/>
       <c r="N4" s="50"/>
       <c r="O4" s="50"/>
-      <c r="P4" s="58" t="s">
+      <c r="P4" s="50"/>
+      <c r="Q4" s="56" t="s">
         <v>1615</v>
       </c>
-      <c r="Q4" s="50">
+      <c r="R4" s="50">
         <v>1</v>
       </c>
-      <c r="R4" s="50" t="s">
+      <c r="S4" s="50" t="s">
         <v>1561</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="128.25">
+      <c r="T4" s="50"/>
+      <c r="U4" s="50"/>
+    </row>
+    <row r="5" spans="1:21" ht="384.75">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -27490,182 +27595,202 @@
         <v>45793</v>
       </c>
       <c r="C5" s="31"/>
-      <c r="E5" s="53" t="s">
+      <c r="D5" s="10" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>1698</v>
+      </c>
+      <c r="F5" s="49" t="s">
+        <v>1700</v>
+      </c>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45" t="s">
         <v>1626</v>
       </c>
-      <c r="F5" s="44"/>
-      <c r="G5" s="45" t="s">
-        <v>1628</v>
-      </c>
-      <c r="H5" s="50"/>
-      <c r="I5" s="44" t="s">
-        <v>1627</v>
-      </c>
-      <c r="J5" s="44"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="44" t="s">
-        <v>1629</v>
-      </c>
-      <c r="M5" s="44" t="s">
+      <c r="I5" s="50"/>
+      <c r="J5" s="44" t="s">
+        <v>1625</v>
+      </c>
+      <c r="K5" s="44"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="45" t="s">
+        <v>1697</v>
+      </c>
+      <c r="N5" s="44" t="s">
+        <v>1696</v>
+      </c>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44" t="s">
         <v>1624</v>
       </c>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="44" t="s">
-        <v>1625</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="15">
+      <c r="T5" s="45" t="s">
+        <v>1694</v>
+      </c>
+      <c r="U5" s="44"/>
+    </row>
+    <row r="6" spans="1:21" ht="15">
       <c r="A6" s="10">
         <v>5</v>
       </c>
       <c r="B6" s="31"/>
       <c r="C6" s="31"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="44"/>
       <c r="G6" s="44"/>
       <c r="H6" s="44"/>
       <c r="I6" s="44"/>
       <c r="J6" s="44"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="50"/>
       <c r="M6" s="44"/>
       <c r="N6" s="44"/>
       <c r="O6" s="44"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="57"/>
       <c r="R6" s="44"/>
-    </row>
-    <row r="7" spans="1:18" ht="15">
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="44"/>
+    </row>
+    <row r="7" spans="1:21" ht="15">
       <c r="A7" s="10">
         <v>6</v>
       </c>
       <c r="B7" s="31"/>
       <c r="C7" s="31"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="44"/>
       <c r="G7" s="44"/>
       <c r="H7" s="44"/>
       <c r="I7" s="44"/>
       <c r="J7" s="44"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="50"/>
       <c r="M7" s="44"/>
       <c r="N7" s="44"/>
       <c r="O7" s="44"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="57"/>
       <c r="R7" s="44"/>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7" s="44"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="44"/>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="10">
         <v>7</v>
       </c>
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="44"/>
       <c r="G8" s="44"/>
       <c r="H8" s="44"/>
       <c r="I8" s="44"/>
       <c r="J8" s="44"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="50"/>
       <c r="M8" s="44"/>
       <c r="N8" s="44"/>
       <c r="O8" s="44"/>
       <c r="P8" s="44"/>
       <c r="Q8" s="44"/>
       <c r="R8" s="44"/>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="S8" s="44"/>
+      <c r="T8" s="44"/>
+      <c r="U8" s="44"/>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="10">
         <v>8</v>
       </c>
       <c r="B9" s="31"/>
       <c r="C9" s="31"/>
-      <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
       <c r="I9" s="44"/>
       <c r="J9" s="44"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="50"/>
       <c r="M9" s="44"/>
       <c r="N9" s="44"/>
       <c r="O9" s="44"/>
       <c r="P9" s="44"/>
       <c r="Q9" s="44"/>
       <c r="R9" s="44"/>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="S9" s="44"/>
+      <c r="T9" s="44"/>
+      <c r="U9" s="44"/>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="10">
         <v>9</v>
       </c>
       <c r="B10" s="31"/>
       <c r="C10" s="31"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="44"/>
+      <c r="G10" s="50"/>
       <c r="H10" s="44"/>
       <c r="I10" s="44"/>
       <c r="J10" s="44"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="50"/>
       <c r="M10" s="44"/>
       <c r="N10" s="44"/>
       <c r="O10" s="44"/>
       <c r="P10" s="44"/>
       <c r="Q10" s="44"/>
       <c r="R10" s="44"/>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10" s="44"/>
+      <c r="T10" s="44"/>
+      <c r="U10" s="44"/>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="10">
         <v>10</v>
       </c>
       <c r="B11" s="31"/>
       <c r="C11" s="31"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="44"/>
+      <c r="G11" s="50"/>
       <c r="H11" s="44"/>
       <c r="I11" s="44"/>
       <c r="J11" s="44"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="50"/>
       <c r="M11" s="44"/>
       <c r="N11" s="44"/>
       <c r="O11" s="44"/>
       <c r="P11" s="44"/>
       <c r="Q11" s="44"/>
       <c r="R11" s="44"/>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="S11" s="44"/>
+      <c r="T11" s="44"/>
+      <c r="U11" s="44"/>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="10">
         <v>11</v>
       </c>
       <c r="B12" s="31"/>
       <c r="C12" s="31"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="44"/>
+      <c r="G12" s="50"/>
       <c r="H12" s="44"/>
       <c r="I12" s="44"/>
       <c r="J12" s="44"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="50"/>
       <c r="M12" s="44"/>
       <c r="N12" s="44"/>
       <c r="O12" s="44"/>
       <c r="P12" s="44"/>
       <c r="Q12" s="44"/>
       <c r="R12" s="44"/>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12" s="44"/>
+      <c r="T12" s="44"/>
+      <c r="U12" s="44"/>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="10">
         <v>12</v>
       </c>
-      <c r="F13" s="50"/>
-      <c r="H13" s="50"/>
+      <c r="G13" s="50"/>
       <c r="I13" s="50"/>
       <c r="J13" s="50"/>
       <c r="K13" s="50"/>
@@ -27676,13 +27801,15 @@
       <c r="P13" s="50"/>
       <c r="Q13" s="50"/>
       <c r="R13" s="50"/>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="S13" s="50"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="50"/>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="10">
         <v>13</v>
       </c>
-      <c r="F14" s="50"/>
-      <c r="H14" s="50"/>
+      <c r="G14" s="50"/>
       <c r="I14" s="50"/>
       <c r="J14" s="50"/>
       <c r="K14" s="50"/>
@@ -27693,13 +27820,15 @@
       <c r="P14" s="50"/>
       <c r="Q14" s="50"/>
       <c r="R14" s="50"/>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="S14" s="50"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="50"/>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="10">
         <v>14</v>
       </c>
-      <c r="F15" s="50"/>
-      <c r="H15" s="50"/>
+      <c r="G15" s="50"/>
       <c r="I15" s="50"/>
       <c r="J15" s="50"/>
       <c r="K15" s="50"/>
@@ -27710,13 +27839,15 @@
       <c r="P15" s="50"/>
       <c r="Q15" s="50"/>
       <c r="R15" s="50"/>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="S15" s="50"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="50"/>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="10">
         <v>15</v>
       </c>
-      <c r="F16" s="50"/>
-      <c r="H16" s="50"/>
+      <c r="G16" s="50"/>
       <c r="I16" s="50"/>
       <c r="J16" s="50"/>
       <c r="K16" s="50"/>
@@ -27727,25 +27858,32 @@
       <c r="P16" s="50"/>
       <c r="Q16" s="50"/>
       <c r="R16" s="50"/>
-    </row>
-    <row r="20" spans="5:7" ht="15">
-      <c r="E20" s="55"/>
-      <c r="G20" s="56"/>
-    </row>
-    <row r="21" spans="5:7" ht="15">
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="56"/>
-    </row>
-    <row r="27" spans="5:7" ht="15">
-      <c r="F27" s="55"/>
-    </row>
-    <row r="30" spans="5:7" ht="15">
-      <c r="F30" s="55"/>
-      <c r="G30" s="56"/>
+      <c r="S16" s="50"/>
+      <c r="T16" s="50"/>
+      <c r="U16" s="50"/>
+    </row>
+    <row r="20" spans="5:8" ht="15">
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="H20" s="54"/>
+    </row>
+    <row r="21" spans="5:8" ht="15">
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="54"/>
+    </row>
+    <row r="27" spans="5:8" ht="15">
+      <c r="F27" s="65"/>
+      <c r="G27" s="53"/>
+    </row>
+    <row r="30" spans="5:8" ht="15">
+      <c r="F30" s="65"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="54"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R25" xr:uid="{43A00E24-6DD1-43AF-9C88-B7AD9E73140E}"/>
+  <autoFilter ref="A1:S25" xr:uid="{43A00E24-6DD1-43AF-9C88-B7AD9E73140E}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -28008,10 +28146,10 @@
     <row r="1" spans="1:5">
       <c r="A1" s="7"/>
       <c r="B1" s="8" t="s">
-        <v>1634</v>
-      </c>
-      <c r="C1" s="60" t="s">
-        <v>1681</v>
+        <v>1631</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>1678</v>
       </c>
       <c r="D1" s="8"/>
       <c r="E1" s="7"/>
@@ -28019,66 +28157,66 @@
     <row r="2" spans="1:5">
       <c r="A2" s="7"/>
       <c r="B2" s="7" t="s">
-        <v>1680</v>
-      </c>
-      <c r="C2" s="61" t="s">
-        <v>1679</v>
+        <v>1677</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>1676</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="7"/>
       <c r="B3" s="7" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>1676</v>
+        <v>1673</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="7"/>
       <c r="B4" s="7" t="s">
-        <v>1659</v>
-      </c>
-      <c r="C4" s="61" t="s">
-        <v>1673</v>
+        <v>1656</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>1670</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="7"/>
       <c r="B5" s="7" t="s">
-        <v>1656</v>
-      </c>
-      <c r="C5" s="61" t="s">
-        <v>1671</v>
+        <v>1653</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>1668</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>1670</v>
+        <v>1667</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>1669</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="7"/>
       <c r="B6" s="7" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>1668</v>
+        <v>1665</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -28086,94 +28224,94 @@
     <row r="7" spans="1:5">
       <c r="A7" s="7"/>
       <c r="B7" s="7" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="7"/>
-      <c r="B8" s="65" t="s">
-        <v>1649</v>
-      </c>
-      <c r="C8" s="71" t="s">
-        <v>1667</v>
+      <c r="B8" s="66" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C8" s="70" t="s">
+        <v>1664</v>
       </c>
       <c r="D8" t="s">
         <v>45</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1646</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="7"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="63"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="68"/>
       <c r="D9" s="7" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="7"/>
-      <c r="B10" s="65" t="s">
-        <v>1644</v>
+      <c r="B10" s="66" t="s">
+        <v>1641</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="7"/>
-      <c r="B11" s="63"/>
+      <c r="B11" s="68"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7" t="s">
-        <v>1638</v>
-      </c>
-      <c r="E11" s="62" t="s">
-        <v>1665</v>
+        <v>1635</v>
+      </c>
+      <c r="E11" s="60" t="s">
+        <v>1662</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="7"/>
-      <c r="B12" s="70"/>
+      <c r="B12" s="61"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7" t="s">
-        <v>1664</v>
-      </c>
-      <c r="E12" s="69" t="s">
-        <v>1663</v>
+        <v>1661</v>
+      </c>
+      <c r="E12" s="63" t="s">
+        <v>1660</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="7"/>
-      <c r="B13" s="70"/>
+      <c r="B13" s="61"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7" t="s">
-        <v>1662</v>
-      </c>
-      <c r="E13" s="69" t="s">
-        <v>1661</v>
+        <v>1659</v>
+      </c>
+      <c r="E13" s="63" t="s">
+        <v>1658</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="7"/>
       <c r="B14" s="7" t="s">
-        <v>1636</v>
-      </c>
-      <c r="C14" s="61" t="s">
-        <v>1660</v>
+        <v>1633</v>
+      </c>
+      <c r="C14" s="59" t="s">
+        <v>1657</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:5" s="68" customFormat="1">
+    <row r="15" spans="1:5" s="62" customFormat="1">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="D15" s="8"/>
@@ -28182,36 +28320,36 @@
     <row r="16" spans="1:5">
       <c r="A16" s="7"/>
       <c r="B16" s="7" t="s">
-        <v>1659</v>
-      </c>
-      <c r="C16" s="61" t="s">
-        <v>1658</v>
+        <v>1656</v>
+      </c>
+      <c r="C16" s="59" t="s">
+        <v>1655</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>1657</v>
+        <v>1654</v>
       </c>
       <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="7"/>
       <c r="B17" s="7" t="s">
-        <v>1656</v>
-      </c>
-      <c r="C17" s="61" t="s">
-        <v>1655</v>
+        <v>1653</v>
+      </c>
+      <c r="C17" s="59" t="s">
+        <v>1652</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>1654</v>
+        <v>1651</v>
       </c>
       <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="7"/>
       <c r="B18" s="7" t="s">
-        <v>1653</v>
-      </c>
-      <c r="C18" s="61" t="s">
-        <v>1652</v>
+        <v>1650</v>
+      </c>
+      <c r="C18" s="59" t="s">
+        <v>1649</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -28219,33 +28357,33 @@
     <row r="19" spans="1:5">
       <c r="A19" s="7"/>
       <c r="B19" s="7" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
       <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="7"/>
-      <c r="B20" s="66" t="s">
-        <v>1649</v>
-      </c>
-      <c r="C20" s="67" t="s">
-        <v>1648</v>
+      <c r="B20" s="69" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C20" s="71" t="s">
+        <v>1645</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>1646</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="7"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
       <c r="D21" s="33" t="s">
         <v>370</v>
       </c>
@@ -28253,64 +28391,64 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="7"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
       <c r="D22" s="33" t="s">
-        <v>1645</v>
+        <v>1642</v>
       </c>
       <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="7"/>
-      <c r="B23" s="65" t="s">
-        <v>1644</v>
+      <c r="B23" s="66" t="s">
+        <v>1641</v>
       </c>
       <c r="C23" s="32"/>
       <c r="D23" s="33" t="s">
-        <v>1643</v>
+        <v>1640</v>
       </c>
       <c r="E23" s="7"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="7"/>
-      <c r="B24" s="64"/>
+      <c r="B24" s="67"/>
       <c r="C24" s="32"/>
       <c r="D24" s="33" t="s">
-        <v>1642</v>
-      </c>
-      <c r="E24" s="62" t="s">
-        <v>1641</v>
+        <v>1639</v>
+      </c>
+      <c r="E24" s="60" t="s">
+        <v>1638</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="7"/>
-      <c r="B25" s="64"/>
+      <c r="B25" s="67"/>
       <c r="C25" s="32"/>
       <c r="D25" s="33" t="s">
-        <v>1640</v>
-      </c>
-      <c r="E25" s="62" t="s">
-        <v>1639</v>
+        <v>1637</v>
+      </c>
+      <c r="E25" s="60" t="s">
+        <v>1636</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="7"/>
-      <c r="B26" s="63"/>
+      <c r="B26" s="68"/>
       <c r="C26" s="7"/>
       <c r="D26" s="33" t="s">
-        <v>1638</v>
-      </c>
-      <c r="E26" s="62" t="s">
-        <v>1637</v>
+        <v>1635</v>
+      </c>
+      <c r="E26" s="60" t="s">
+        <v>1634</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="7"/>
       <c r="B27" s="7" t="s">
-        <v>1636</v>
-      </c>
-      <c r="C27" s="61" t="s">
-        <v>1635</v>
+        <v>1633</v>
+      </c>
+      <c r="C27" s="59" t="s">
+        <v>1632</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -28331,26 +28469,26 @@
     </row>
     <row r="31" spans="1:5">
       <c r="B31" s="8" t="s">
-        <v>1634</v>
-      </c>
-      <c r="C31" s="60" t="s">
-        <v>1633</v>
+        <v>1631</v>
+      </c>
+      <c r="C31" s="58" t="s">
+        <v>1630</v>
       </c>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:5">
       <c r="C32" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
     </row>
   </sheetData>
@@ -28364,5 +28502,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Full-stack-development-engineer.xlsx
+++ b/Full-stack-development-engineer.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Coding\Gitee\Full-stack-development-engineer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Coding\Git\Full-stack-development-engineer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB4CD2A-49CE-46B0-85A9-225A1467BC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A472D1-F673-4CDF-8AC4-FE9501427B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{E3B634D7-B615-4A49-884A-554A3ABF371D}"/>
   </bookViews>
@@ -21,6 +21,7 @@
     <sheet name="需求" sheetId="7" r:id="rId6"/>
     <sheet name="系统全栈" sheetId="6" r:id="rId7"/>
     <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">数据库!$A$1:$G$1493</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3547" uniqueCount="1701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3548" uniqueCount="1702">
   <si>
     <t>技术选型</t>
   </si>
@@ -2845,9 +2846,6 @@
   </si>
   <si>
     <t>消息表</t>
-  </si>
-  <si>
-    <t>sport_message</t>
   </si>
   <si>
     <t>content</t>
@@ -6883,10 +6881,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UserInfoService的方法updateChildNameByPhoneAndCompanyId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PutMapping "/edit-name/{id}"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6927,39 +6921,82 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OrderServiceImpl中实现cancelOrder</t>
+    <t>需求分析</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>调用OrderService中定义cancelOrder</t>
+    <t>sport_message</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1.修改小程序公司的配置描述
+    <t>1.修改小程序公司的配置描述
 2.修改取消的配置表的描述sport_sys_config
 cancel_booking_days
 订场订单提前取消天数---小时数
 3.修改订场订单取消的时间比较逻辑，改成小时比较 OrderServiceImpl
-4.修改异常提示语
-</t>
+4.修改异常提示语</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需求分析</t>
+    <t>修改一个Java方法中的取消订单逻辑，将原来的天数限制改为小时数。
+cancelOrder方法中有关于订场订单取消的逻辑。代码中检查用户权限，确定订单状态，然后处理不同情况下的取消操作。在订场分类的处理中，获取了StoreConfig中的cancel_booking_days配置，并计算允许取消的天数限制。现在需要将天数转换为小时，这意味着需要修改配置的获取和计算逻辑。
+在代码中，首先从StoreConfig获取配置项cancel_booking_days，并将其转换为整数cancelBookingDays。然后使用DateUtils.addDays来增加天数，与订单的最早开始时间比较，判断是否允许取消。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">修改一个Java方法中的取消订单逻辑，将原来的天数限制改为小时数。
-cancelOrder方法中有关于订场订单取消的逻辑。代码中检查用户权限，确定订单状态，然后处理不同情况下的取消操作。在订场分类的处理中，获取了StoreConfig中的cancel_booking_days配置，并计算允许取消的天数限制。现在需要将天数转换为小时，这意味着需要修改配置的获取和计算逻辑。
-在代码中，首先从StoreConfig获取配置项cancel_booking_days，并将其转换为整数cancelBookingDays。然后使用DateUtils.addDays来增加天数，与订单的最早开始时间比较，判断是否允许取消。
-用户的需求是将天数改为小时，所以我需要：
-1.替换所有cancel_booking_days为cancel_booking_hours。
-2.将DateUtils.addDays改为DateUtils.addHours。
-3.变量重命名，如cancelBookingDays改为cancelBookingHours。
-4.调整异常消息中的天数提示为小时。
-5.处理配置不存在时的默认值，如默认24小时。
-6.更新相关日志和注释。
-</t>
+    <t>OrderService中定义cancelOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserInfoService中定义updateChildNameByPhoneAndCompanyId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涉及到用户前端的订单接口Dao层
+OrderServiceImpl中实现cancelOrder，重写逻辑
+涉及到商户前端的公司设置接口Dao层
+CompanyServiceImpl中实现
+getCompanySettingForm，
+updateCompanySetting进行修改cancel_booking_hours</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发环境部署：
+1.确定微信开发者工具-为最新版本1.01.2503290win32-x64，避免编译出错问题
+2.确定微信开发者工具-基础调试库：3.1.5
+3.用户前端：dev，商户前端：dev，系统后端：dev，数据库ip使用通配符定义，
+系统后端不要改成localhost，数据库：一切数据库操作在dev数据库中
+4.用户前端，退出登录：清除缓存实现，登录：使用验证码登录，验证码后端console查看
+5.短信服务异常：后端console打印短信次数已用完，sport_charging_change里会有短信扣费提醒
+6.增加短信次数：sport_store_charging_option，短信的total值重设20
+7.微信支付验证码显示：OpenID参数异常，注册有问题，清除缓存，重新登录注册
+8.本地无法使用微信服务，登录接口失败，用户id，appid,将OpenID插入数据库，sport_user_open_id 
+INSERT INTO sport_user_open_id (user_id, open_id, app_id) VALUES 
+('e339039770dbd688d182e5ec61e39ae0', 'ovqBW7Dhq5MTuSbv3-CG5QhmMFLo', 'wxe267b90015e11ac8');
+9.显示创建订单异常：mini-app模块未启动，未注册到eureka，后台打印Load balancer不支持，启动mini-app模块
+业务逻辑实现：
+1.数据库
+UPDATE `h_sport`.`sport_sys_config` SET  name = '订场订单提前取消小时数',
+                                         code ='cancel_booking_hours',
+                                         value = value * 24,
+                                         default_value = default_value * 24
+                                        WHERE id = 14;
+ UPDATE `h_sport`.`sport_store_config` SET  name = '订场订单提前取消小时数',
+                                          code ='cancel_booking_hours',
+                                          value = value * 24,
+                                          default_value = default_value * 24
+                                         WHERE id = 21;
+2.查找场地，修改对应的订单金额为0.01
+SELECT * FROM `h_sport`.`sport_field_plan` WHERE venue_id = 14 AND  company_id = 126  AND field_day = '2025-05-18';
+3.后端重写逻辑：修改订场订单取消的时间比较逻辑
+涉及到用户前端的订单接口Dao层
+OrderServiceImpl中实现cancelOrder，重写逻辑，订场订单提前取消小时数 -- 枚举类更新
+涉及到商户前端的公司设置接口Dao层
+CompanyServiceImpl中实现
+getCompanySettingForm，
+updateCompanySetting进行修改cancel_booking_hours
+5.商户前端：公司设置，修改取消订场显示及小时
+6.用户前端：购买对应订单，取消订单，查看异常提示语</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7350,7 +7387,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7566,6 +7603,12 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8810,94 +8853,94 @@
     <row r="1" spans="1:11" ht="15">
       <c r="A1" s="8"/>
       <c r="B1" s="39" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="C1" s="40" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D1" s="41" t="s">
         <v>1593</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="E1" s="42" t="s">
         <v>1594</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="F1" s="41" t="s">
         <v>1595</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="G1" s="41" t="s">
         <v>1596</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="H1" s="42" t="s">
         <v>1597</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="I1" s="41" t="s">
         <v>1598</v>
       </c>
-      <c r="I1" s="41" t="s">
-        <v>1599</v>
-      </c>
       <c r="J1" s="8" t="s">
+        <v>1590</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>1591</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>1592</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="71.25">
       <c r="B2" s="43" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="G2" s="43" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="71.25">
       <c r="B3" s="43" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="G3" s="43" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="85.5">
       <c r="B4" s="43" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="G4" s="43" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="270.75">
       <c r="B5" s="43" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="G5" s="43" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="K5" s="34" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="199.5">
       <c r="G6" s="43" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="K6" s="35"/>
     </row>
     <row r="7" spans="1:11" ht="71.25">
       <c r="G7" s="43" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="K7" s="35" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="256.5">
       <c r="G8" s="43" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="K8" s="35"/>
     </row>
     <row r="9" spans="1:11" ht="256.5">
       <c r="G9" s="43" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="K9" s="36"/>
     </row>
@@ -8951,32 +8994,32 @@
     <row r="1" spans="1:12">
       <c r="A1" s="8"/>
       <c r="B1" s="22" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>1081</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>1083</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>1181</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>1183</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>1182</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>1082</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>1084</v>
-      </c>
       <c r="I1" s="8" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="J1" s="8"/>
       <c r="K1" s="8" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="L1" s="8"/>
     </row>
@@ -8984,34 +9027,34 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="24" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F2" s="25" t="s">
         <v>1085</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>1086</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="8" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="I2" s="8">
         <v>1</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="24" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="26" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="I3" s="8">
         <v>2</v>
@@ -9019,10 +9062,10 @@
     </row>
     <row r="4" spans="1:12">
       <c r="E4" s="17" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="I4" s="7">
         <v>2</v>
@@ -9030,10 +9073,10 @@
     </row>
     <row r="5" spans="1:12">
       <c r="E5" s="17" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="I5" s="7">
         <v>2</v>
@@ -9041,10 +9084,10 @@
     </row>
     <row r="6" spans="1:12">
       <c r="E6" s="17" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="I6" s="7">
         <v>2</v>
@@ -9052,10 +9095,10 @@
     </row>
     <row r="7" spans="1:12">
       <c r="E7" s="17" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="I7" s="7">
         <v>2</v>
@@ -9063,10 +9106,10 @@
     </row>
     <row r="8" spans="1:12">
       <c r="E8" s="17" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I8" s="7">
         <v>2</v>
@@ -9074,10 +9117,10 @@
     </row>
     <row r="9" spans="1:12">
       <c r="E9" s="17" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="I9" s="7">
         <v>2</v>
@@ -9085,10 +9128,10 @@
     </row>
     <row r="10" spans="1:12">
       <c r="E10" s="17" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F10" s="18" t="s">
         <v>1104</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>1105</v>
       </c>
       <c r="I10" s="7">
         <v>2</v>
@@ -9096,10 +9139,10 @@
     </row>
     <row r="11" spans="1:12">
       <c r="E11" s="17" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="I11" s="7">
         <v>2</v>
@@ -9107,10 +9150,10 @@
     </row>
     <row r="12" spans="1:12">
       <c r="E12" s="17" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="I12" s="7">
         <v>2</v>
@@ -9118,10 +9161,10 @@
     </row>
     <row r="13" spans="1:12">
       <c r="E13" s="17" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I13" s="7">
         <v>2</v>
@@ -9131,12 +9174,12 @@
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="24" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="26" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="I14" s="8">
         <v>3</v>
@@ -9146,14 +9189,14 @@
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="24" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="26" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="I15" s="8">
         <v>4</v>
@@ -9163,14 +9206,14 @@
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="24" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="26" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="I16" s="8">
         <v>5</v>
@@ -9178,10 +9221,10 @@
     </row>
     <row r="17" spans="3:9">
       <c r="E17" s="17" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="I17" s="7">
         <v>5</v>
@@ -9191,14 +9234,14 @@
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="24" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="26" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="I18" s="8">
         <v>6</v>
@@ -9208,14 +9251,14 @@
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="24" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="26" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="I19" s="8">
         <v>7</v>
@@ -9225,14 +9268,14 @@
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="24" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="26" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="I20" s="8">
         <v>8</v>
@@ -9240,10 +9283,10 @@
     </row>
     <row r="21" spans="3:9">
       <c r="E21" s="17" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="I21" s="7">
         <v>8</v>
@@ -9251,10 +9294,10 @@
     </row>
     <row r="22" spans="3:9">
       <c r="E22" s="17" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="I22" s="7">
         <v>8</v>
@@ -9262,10 +9305,10 @@
     </row>
     <row r="23" spans="3:9">
       <c r="E23" s="17" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="I23" s="7">
         <v>8</v>
@@ -9275,14 +9318,14 @@
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="24" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="26" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="I24" s="8">
         <v>9</v>
@@ -9290,10 +9333,10 @@
     </row>
     <row r="25" spans="3:9">
       <c r="E25" s="17" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="I25" s="7">
         <v>9</v>
@@ -9303,14 +9346,14 @@
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="24" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="26" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="I26" s="8">
         <v>10</v>
@@ -9320,14 +9363,14 @@
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="24" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="26" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="I27" s="8">
         <v>11</v>
@@ -9337,14 +9380,14 @@
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="24" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="26" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="I28" s="8">
         <v>12</v>
@@ -9352,10 +9395,10 @@
     </row>
     <row r="29" spans="3:9">
       <c r="E29" s="17" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="I29" s="7">
         <v>12</v>
@@ -9363,10 +9406,10 @@
     </row>
     <row r="30" spans="3:9">
       <c r="E30" s="17" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="I30" s="7">
         <v>12</v>
@@ -9374,10 +9417,10 @@
     </row>
     <row r="31" spans="3:9">
       <c r="E31" s="17" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="I31" s="7">
         <v>12</v>
@@ -9387,14 +9430,14 @@
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="24" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="26" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="I32" s="8">
         <v>13</v>
@@ -9402,10 +9445,10 @@
     </row>
     <row r="33" spans="3:9">
       <c r="E33" s="17" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="I33" s="7">
         <v>13</v>
@@ -9415,14 +9458,14 @@
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="24" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F34" s="25" t="s">
         <v>1085</v>
-      </c>
-      <c r="F34" s="25" t="s">
-        <v>1086</v>
       </c>
       <c r="G34" s="8"/>
       <c r="H34" s="26" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="I34" s="8">
         <v>14</v>
@@ -9430,18 +9473,18 @@
     </row>
     <row r="35" spans="3:9">
       <c r="C35" s="27" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="D35" s="27"/>
       <c r="E35" s="24" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G35" s="8"/>
       <c r="H35" s="26" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="I35" s="8">
         <v>15</v>
@@ -9449,10 +9492,10 @@
     </row>
     <row r="36" spans="3:9">
       <c r="E36" s="17" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F36" s="18" t="s">
         <v>1166</v>
-      </c>
-      <c r="F36" s="18" t="s">
-        <v>1167</v>
       </c>
       <c r="I36" s="7">
         <v>15</v>
@@ -9460,10 +9503,10 @@
     </row>
     <row r="37" spans="3:9">
       <c r="E37" s="17" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="I37" s="7">
         <v>15</v>
@@ -9471,10 +9514,10 @@
     </row>
     <row r="38" spans="3:9">
       <c r="E38" s="17" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="I38" s="7">
         <v>15</v>
@@ -9482,10 +9525,10 @@
     </row>
     <row r="39" spans="3:9">
       <c r="E39" s="17" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="I39" s="7">
         <v>15</v>
@@ -9493,10 +9536,10 @@
     </row>
     <row r="40" spans="3:9">
       <c r="E40" s="17" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="I40" s="7">
         <v>15</v>
@@ -9504,10 +9547,10 @@
     </row>
     <row r="41" spans="3:9">
       <c r="E41" s="17" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="I41" s="7">
         <v>15</v>
@@ -9515,10 +9558,10 @@
     </row>
     <row r="42" spans="3:9">
       <c r="E42" s="17" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="I42" s="7">
         <v>15</v>
@@ -9526,10 +9569,10 @@
     </row>
     <row r="43" spans="3:9">
       <c r="E43" s="17" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="I43" s="7">
         <v>15</v>
@@ -9537,18 +9580,18 @@
     </row>
     <row r="44" spans="3:9">
       <c r="C44" s="19" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="24" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="G44" s="8"/>
       <c r="H44" s="26" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="I44" s="8">
         <v>16</v>
@@ -9556,10 +9599,10 @@
     </row>
     <row r="45" spans="3:9">
       <c r="E45" s="17" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="I45" s="7">
         <v>16</v>
@@ -9567,18 +9610,18 @@
     </row>
     <row r="46" spans="3:9">
       <c r="C46" s="28" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="24" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F46" s="25" t="s">
         <v>1190</v>
-      </c>
-      <c r="F46" s="25" t="s">
-        <v>1191</v>
       </c>
       <c r="G46" s="8"/>
       <c r="H46" s="26" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="I46" s="8">
         <v>17</v>
@@ -9586,18 +9629,18 @@
     </row>
     <row r="47" spans="3:9">
       <c r="C47" s="19" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="24" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="G47" s="8"/>
       <c r="H47" s="26" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="I47" s="8">
         <v>18</v>
@@ -9605,10 +9648,10 @@
     </row>
     <row r="48" spans="3:9">
       <c r="E48" s="17" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="I48" s="7">
         <v>18</v>
@@ -9616,16 +9659,16 @@
     </row>
     <row r="49" spans="3:9">
       <c r="C49" s="28" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="24" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c r="H49" s="26" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="I49" s="8">
         <v>19</v>
@@ -9633,18 +9676,18 @@
     </row>
     <row r="50" spans="3:9">
       <c r="C50" s="19" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="24" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="G50" s="8"/>
       <c r="H50" s="26" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="I50" s="8">
         <v>20</v>
@@ -9652,7 +9695,7 @@
     </row>
     <row r="51" spans="3:9">
       <c r="E51" s="17" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="I51" s="7">
         <v>20</v>
@@ -9660,7 +9703,7 @@
     </row>
     <row r="52" spans="3:9">
       <c r="E52" s="17" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="I52" s="7">
         <v>20</v>
@@ -9668,7 +9711,7 @@
     </row>
     <row r="53" spans="3:9">
       <c r="E53" s="17" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="I53" s="7">
         <v>20</v>
@@ -9676,7 +9719,7 @@
     </row>
     <row r="54" spans="3:9">
       <c r="E54" s="17" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="I54" s="7">
         <v>20</v>
@@ -9684,7 +9727,7 @@
     </row>
     <row r="55" spans="3:9">
       <c r="E55" s="17" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="I55" s="7">
         <v>20</v>
@@ -9692,10 +9735,10 @@
     </row>
     <row r="56" spans="3:9">
       <c r="E56" s="17" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="I56" s="7">
         <v>20</v>
@@ -9703,10 +9746,10 @@
     </row>
     <row r="57" spans="3:9">
       <c r="E57" s="17" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="I57" s="7">
         <v>20</v>
@@ -9714,13 +9757,13 @@
     </row>
     <row r="58" spans="3:9">
       <c r="C58" s="19" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="H58" s="26" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="I58" s="8">
         <v>21</v>
@@ -9728,16 +9771,16 @@
     </row>
     <row r="59" spans="3:9">
       <c r="C59" s="19" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="H59" s="26" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="I59" s="8">
         <v>22</v>
@@ -9745,10 +9788,10 @@
     </row>
     <row r="60" spans="3:9">
       <c r="E60" s="17" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="I60" s="7">
         <v>22</v>
@@ -9756,10 +9799,10 @@
     </row>
     <row r="61" spans="3:9">
       <c r="E61" s="17" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F61" s="18" t="s">
         <v>1223</v>
-      </c>
-      <c r="F61" s="18" t="s">
-        <v>1224</v>
       </c>
       <c r="I61" s="7">
         <v>22</v>
@@ -9767,16 +9810,16 @@
     </row>
     <row r="62" spans="3:9">
       <c r="C62" s="19" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="E62" s="17" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="H62" s="26" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="I62" s="8">
         <v>23</v>
@@ -9784,10 +9827,10 @@
     </row>
     <row r="63" spans="3:9">
       <c r="E63" s="17" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="I63" s="7">
         <v>23</v>
@@ -9795,10 +9838,10 @@
     </row>
     <row r="64" spans="3:9">
       <c r="E64" s="17" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="F64" s="18" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="I64" s="7">
         <v>23</v>
@@ -9806,10 +9849,10 @@
     </row>
     <row r="65" spans="5:9">
       <c r="E65" s="17" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="I65" s="7">
         <v>23</v>
@@ -9817,10 +9860,10 @@
     </row>
     <row r="66" spans="5:9">
       <c r="E66" s="17" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="I66" s="7">
         <v>23</v>
@@ -9828,10 +9871,10 @@
     </row>
     <row r="67" spans="5:9">
       <c r="E67" s="17" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="F67" s="18" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="I67" s="7">
         <v>23</v>
@@ -9839,10 +9882,10 @@
     </row>
     <row r="68" spans="5:9">
       <c r="E68" s="17" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="F68" s="18" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="I68" s="7">
         <v>23</v>
@@ -9850,10 +9893,10 @@
     </row>
     <row r="69" spans="5:9">
       <c r="E69" s="17" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="I69" s="7">
         <v>23</v>
@@ -9861,10 +9904,10 @@
     </row>
     <row r="70" spans="5:9">
       <c r="E70" s="17" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="I70" s="7">
         <v>23</v>
@@ -9872,10 +9915,10 @@
     </row>
     <row r="71" spans="5:9">
       <c r="E71" s="17" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="F71" s="18" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="I71" s="7">
         <v>23</v>
@@ -9883,10 +9926,10 @@
     </row>
     <row r="72" spans="5:9">
       <c r="E72" s="17" t="s">
+        <v>1243</v>
+      </c>
+      <c r="F72" s="18" t="s">
         <v>1244</v>
-      </c>
-      <c r="F72" s="18" t="s">
-        <v>1245</v>
       </c>
       <c r="I72" s="7">
         <v>23</v>
@@ -9894,10 +9937,10 @@
     </row>
     <row r="73" spans="5:9">
       <c r="E73" s="17" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="F73" s="18" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="I73" s="7">
         <v>23</v>
@@ -9905,10 +9948,10 @@
     </row>
     <row r="74" spans="5:9">
       <c r="E74" s="17" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="F74" s="18" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="I74" s="7">
         <v>23</v>
@@ -9916,10 +9959,10 @@
     </row>
     <row r="75" spans="5:9">
       <c r="E75" s="17" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="I75" s="7">
         <v>23</v>
@@ -9927,10 +9970,10 @@
     </row>
     <row r="76" spans="5:9">
       <c r="E76" s="17" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="F76" s="18" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="I76" s="7">
         <v>23</v>
@@ -9938,10 +9981,10 @@
     </row>
     <row r="77" spans="5:9">
       <c r="E77" s="17" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="F77" s="18" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="I77" s="7">
         <v>23</v>
@@ -9949,10 +9992,10 @@
     </row>
     <row r="78" spans="5:9">
       <c r="E78" s="17" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F78" s="18" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="I78" s="7">
         <v>23</v>
@@ -9960,10 +10003,10 @@
     </row>
     <row r="79" spans="5:9">
       <c r="E79" s="17" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="F79" s="18" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="I79" s="7">
         <v>23</v>
@@ -9971,10 +10014,10 @@
     </row>
     <row r="80" spans="5:9">
       <c r="E80" s="17" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="F80" s="18" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="I80" s="7">
         <v>23</v>
@@ -9982,16 +10025,16 @@
     </row>
     <row r="81" spans="3:9">
       <c r="C81" s="19" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="E81" s="17" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="F81" s="18" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="H81" s="26" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="I81" s="8">
         <v>24</v>
@@ -9999,10 +10042,10 @@
     </row>
     <row r="82" spans="3:9">
       <c r="E82" s="17" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="F82" s="18" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I82" s="7">
         <v>24</v>
@@ -10010,10 +10053,10 @@
     </row>
     <row r="83" spans="3:9">
       <c r="E83" s="17" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="F83" s="18" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="I83" s="7">
         <v>24</v>
@@ -10021,10 +10064,10 @@
     </row>
     <row r="84" spans="3:9">
       <c r="E84" s="17" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="F84" s="18" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="I84" s="7">
         <v>24</v>
@@ -10032,10 +10075,10 @@
     </row>
     <row r="85" spans="3:9">
       <c r="E85" s="17" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="F85" s="18" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="I85" s="7">
         <v>24</v>
@@ -10043,10 +10086,10 @@
     </row>
     <row r="86" spans="3:9">
       <c r="E86" s="17" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="F86" s="18" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="I86" s="7">
         <v>24</v>
@@ -10054,10 +10097,10 @@
     </row>
     <row r="87" spans="3:9">
       <c r="E87" s="17" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="F87" s="18" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="I87" s="7">
         <v>24</v>
@@ -10065,10 +10108,10 @@
     </row>
     <row r="88" spans="3:9">
       <c r="E88" s="17" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="F88" s="18" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="I88" s="7">
         <v>24</v>
@@ -10076,10 +10119,10 @@
     </row>
     <row r="89" spans="3:9">
       <c r="E89" s="17" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="F89" s="18" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="I89" s="7">
         <v>24</v>
@@ -10087,10 +10130,10 @@
     </row>
     <row r="90" spans="3:9">
       <c r="E90" s="17" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="F90" s="18" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="I90" s="7">
         <v>24</v>
@@ -10098,10 +10141,10 @@
     </row>
     <row r="91" spans="3:9">
       <c r="E91" s="17" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="F91" s="18" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="I91" s="7">
         <v>24</v>
@@ -10109,10 +10152,10 @@
     </row>
     <row r="92" spans="3:9">
       <c r="E92" s="17" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="F92" s="18" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="I92" s="7">
         <v>24</v>
@@ -10120,10 +10163,10 @@
     </row>
     <row r="93" spans="3:9">
       <c r="E93" s="17" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="F93" s="18" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="I93" s="7">
         <v>24</v>
@@ -10131,10 +10174,10 @@
     </row>
     <row r="94" spans="3:9">
       <c r="E94" s="17" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="F94" s="18" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="I94" s="7">
         <v>24</v>
@@ -10142,10 +10185,10 @@
     </row>
     <row r="95" spans="3:9">
       <c r="E95" s="17" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="F95" s="18" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="I95" s="7">
         <v>24</v>
@@ -10153,10 +10196,10 @@
     </row>
     <row r="96" spans="3:9">
       <c r="E96" s="17" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="F96" s="18" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="I96" s="7">
         <v>24</v>
@@ -10164,10 +10207,10 @@
     </row>
     <row r="97" spans="3:9">
       <c r="E97" s="17" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="F97" s="18" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="I97" s="7">
         <v>24</v>
@@ -10175,10 +10218,10 @@
     </row>
     <row r="98" spans="3:9">
       <c r="E98" s="17" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="F98" s="18" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="I98" s="7">
         <v>24</v>
@@ -10186,16 +10229,16 @@
     </row>
     <row r="99" spans="3:9">
       <c r="C99" s="19" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E99" s="17" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F99" s="18" t="s">
         <v>1300</v>
       </c>
-      <c r="E99" s="17" t="s">
-        <v>1302</v>
-      </c>
-      <c r="F99" s="18" t="s">
-        <v>1301</v>
-      </c>
       <c r="H99" s="26" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="I99" s="8">
         <v>25</v>
@@ -10203,10 +10246,10 @@
     </row>
     <row r="100" spans="3:9">
       <c r="E100" s="17" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="F100" s="18" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="I100" s="7">
         <v>25</v>
@@ -10214,10 +10257,10 @@
     </row>
     <row r="101" spans="3:9">
       <c r="E101" s="17" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="F101" s="18" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="I101" s="7">
         <v>25</v>
@@ -10225,13 +10268,13 @@
     </row>
     <row r="102" spans="3:9">
       <c r="C102" s="19" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="E102" s="17" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="H102" s="26" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I102" s="8">
         <v>26</v>
@@ -10239,13 +10282,13 @@
     </row>
     <row r="103" spans="3:9">
       <c r="C103" s="19" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E103" s="17" t="s">
         <v>1311</v>
       </c>
-      <c r="E103" s="17" t="s">
-        <v>1312</v>
-      </c>
       <c r="H103" s="26" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="I103" s="8">
         <v>27</v>
@@ -10253,7 +10296,7 @@
     </row>
     <row r="104" spans="3:9">
       <c r="E104" s="17" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I104" s="7">
         <v>27</v>
@@ -10261,16 +10304,16 @@
     </row>
     <row r="105" spans="3:9">
       <c r="C105" s="19" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="E105" s="17" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="F105" s="18" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="H105" s="26" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="I105" s="8">
         <v>28</v>
@@ -10278,16 +10321,16 @@
     </row>
     <row r="106" spans="3:9">
       <c r="C106" s="19" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="E106" s="17" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="F106" s="18" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="H106" s="26" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="I106" s="8">
         <v>29</v>
@@ -10295,10 +10338,10 @@
     </row>
     <row r="107" spans="3:9">
       <c r="E107" s="17" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="F107" s="18" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="I107" s="7">
         <v>29</v>
@@ -10306,16 +10349,16 @@
     </row>
     <row r="108" spans="3:9">
       <c r="C108" s="19" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="E108" s="17" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="F108" s="18" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="H108" s="26" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="I108" s="8">
         <v>30</v>
@@ -10323,10 +10366,10 @@
     </row>
     <row r="109" spans="3:9">
       <c r="E109" s="17" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F109" s="18" t="s">
         <v>1328</v>
-      </c>
-      <c r="F109" s="18" t="s">
-        <v>1329</v>
       </c>
       <c r="I109" s="7">
         <v>30</v>
@@ -10334,10 +10377,10 @@
     </row>
     <row r="110" spans="3:9">
       <c r="E110" s="17" t="s">
+        <v>1329</v>
+      </c>
+      <c r="F110" s="18" t="s">
         <v>1330</v>
-      </c>
-      <c r="F110" s="18" t="s">
-        <v>1331</v>
       </c>
       <c r="I110" s="7">
         <v>30</v>
@@ -10345,10 +10388,10 @@
     </row>
     <row r="111" spans="3:9">
       <c r="E111" s="17" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="F111" s="18" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="I111" s="7">
         <v>30</v>
@@ -10356,16 +10399,16 @@
     </row>
     <row r="112" spans="3:9">
       <c r="C112" s="19" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E112" s="17" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="H112" s="26" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="I112" s="8">
         <v>31</v>
@@ -10373,10 +10416,10 @@
     </row>
     <row r="113" spans="3:9">
       <c r="E113" s="17" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="I113" s="7">
         <v>31</v>
@@ -10384,10 +10427,10 @@
     </row>
     <row r="114" spans="3:9">
       <c r="E114" s="17" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="F114" s="18" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="I114" s="7">
         <v>31</v>
@@ -10395,10 +10438,10 @@
     </row>
     <row r="115" spans="3:9">
       <c r="E115" s="17" t="s">
+        <v>1341</v>
+      </c>
+      <c r="F115" s="18" t="s">
         <v>1342</v>
-      </c>
-      <c r="F115" s="18" t="s">
-        <v>1343</v>
       </c>
       <c r="I115" s="7">
         <v>31</v>
@@ -10406,10 +10449,10 @@
     </row>
     <row r="116" spans="3:9">
       <c r="E116" s="17" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="F116" s="18" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="I116" s="7">
         <v>31</v>
@@ -10417,7 +10460,7 @@
     </row>
     <row r="117" spans="3:9">
       <c r="E117" s="17" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="I117" s="7">
         <v>31</v>
@@ -10425,7 +10468,7 @@
     </row>
     <row r="118" spans="3:9">
       <c r="E118" s="17" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="I118" s="7">
         <v>31</v>
@@ -10433,7 +10476,7 @@
     </row>
     <row r="119" spans="3:9">
       <c r="E119" s="17" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="I119" s="7">
         <v>31</v>
@@ -10441,7 +10484,7 @@
     </row>
     <row r="120" spans="3:9">
       <c r="E120" s="17" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="I120" s="7">
         <v>31</v>
@@ -10449,10 +10492,10 @@
     </row>
     <row r="121" spans="3:9">
       <c r="E121" s="17" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="F121" s="18" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="I121" s="7">
         <v>31</v>
@@ -10460,16 +10503,16 @@
     </row>
     <row r="122" spans="3:9">
       <c r="C122" s="19" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="E122" s="17" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="F122" s="18" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="H122" s="26" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="I122" s="8">
         <v>32</v>
@@ -10477,16 +10520,16 @@
     </row>
     <row r="123" spans="3:9">
       <c r="C123" s="19" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="E123" s="17" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="F123" s="29" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="H123" s="26" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="I123" s="8">
         <v>33</v>
@@ -10494,10 +10537,10 @@
     </row>
     <row r="124" spans="3:9">
       <c r="E124" s="17" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="F124" s="18" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="I124" s="7">
         <v>33</v>
@@ -10505,10 +10548,10 @@
     </row>
     <row r="125" spans="3:9">
       <c r="E125" s="17" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="F125" s="18" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="I125" s="7">
         <v>33</v>
@@ -10516,16 +10559,16 @@
     </row>
     <row r="126" spans="3:9">
       <c r="C126" s="19" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="E126" s="17" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F126" s="18" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="H126" s="26" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="I126" s="8">
         <v>34</v>
@@ -10533,16 +10576,16 @@
     </row>
     <row r="127" spans="3:9">
       <c r="C127" s="19" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="E127" s="17" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="F127" s="18" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="H127" s="26" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="I127" s="8">
         <v>35</v>
@@ -10550,10 +10593,10 @@
     </row>
     <row r="128" spans="3:9">
       <c r="E128" s="17" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="F128" s="18" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="I128" s="7">
         <v>35</v>
@@ -10561,10 +10604,10 @@
     </row>
     <row r="129" spans="3:9">
       <c r="E129" s="17" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="F129" s="18" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="I129" s="7">
         <v>35</v>
@@ -10572,16 +10615,16 @@
     </row>
     <row r="130" spans="3:9">
       <c r="C130" s="19" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="E130" s="17" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="F130" s="18" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="H130" s="26" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="I130" s="8">
         <v>36</v>
@@ -10589,10 +10632,10 @@
     </row>
     <row r="131" spans="3:9">
       <c r="E131" s="17" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="F131" s="18" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="I131" s="7">
         <v>36</v>
@@ -10600,16 +10643,16 @@
     </row>
     <row r="132" spans="3:9">
       <c r="C132" s="19" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="E132" s="17" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="F132" s="29" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="H132" s="26" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="I132" s="8">
         <v>37</v>
@@ -10617,16 +10660,16 @@
     </row>
     <row r="133" spans="3:9">
       <c r="C133" s="19" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="E133" s="17" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="F133" s="18" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="H133" s="26" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="I133" s="8">
         <v>38</v>
@@ -10634,10 +10677,10 @@
     </row>
     <row r="134" spans="3:9">
       <c r="E134" s="17" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="F134" s="18" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="I134" s="7">
         <v>38</v>
@@ -10645,10 +10688,10 @@
     </row>
     <row r="135" spans="3:9">
       <c r="E135" s="17" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="F135" s="18" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I135" s="7">
         <v>38</v>
@@ -10656,16 +10699,16 @@
     </row>
     <row r="136" spans="3:9">
       <c r="C136" s="19" t="s">
+        <v>1394</v>
+      </c>
+      <c r="E136" s="17" t="s">
         <v>1395</v>
       </c>
-      <c r="E136" s="17" t="s">
-        <v>1396</v>
-      </c>
       <c r="F136" s="18" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="H136" s="26" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="I136" s="8">
         <v>39</v>
@@ -10673,10 +10716,10 @@
     </row>
     <row r="137" spans="3:9">
       <c r="E137" s="17" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="F137" s="18" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="I137" s="7">
         <v>39</v>
@@ -10684,16 +10727,16 @@
     </row>
     <row r="138" spans="3:9">
       <c r="C138" s="19" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="E138" s="17" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="F138" s="18" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="H138" s="26" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="I138" s="8">
         <v>40</v>
@@ -10701,16 +10744,16 @@
     </row>
     <row r="139" spans="3:9">
       <c r="C139" s="19" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="E139" s="17" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="F139" s="18" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="H139" s="26" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="I139" s="8">
         <v>41</v>
@@ -10718,10 +10761,10 @@
     </row>
     <row r="140" spans="3:9">
       <c r="E140" s="17" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="F140" s="18" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="I140" s="7">
         <v>41</v>
@@ -10729,7 +10772,7 @@
     </row>
     <row r="141" spans="3:9">
       <c r="E141" s="17" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="I141" s="7">
         <v>41</v>
@@ -10737,16 +10780,16 @@
     </row>
     <row r="142" spans="3:9">
       <c r="C142" s="19" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="E142" s="17" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="F142" s="18" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="H142" s="26" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="I142" s="8">
         <v>42</v>
@@ -10754,10 +10797,10 @@
     </row>
     <row r="143" spans="3:9">
       <c r="E143" s="17" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="F143" s="18" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="I143" s="7">
         <v>42</v>
@@ -10765,10 +10808,10 @@
     </row>
     <row r="144" spans="3:9">
       <c r="E144" s="17" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="F144" s="18" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="I144" s="7">
         <v>42</v>
@@ -10776,10 +10819,10 @@
     </row>
     <row r="145" spans="3:9">
       <c r="E145" s="17" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="F145" s="18" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="I145" s="7">
         <v>42</v>
@@ -10787,10 +10830,10 @@
     </row>
     <row r="146" spans="3:9">
       <c r="E146" s="17" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F146" s="18" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="I146" s="7">
         <v>42</v>
@@ -10798,16 +10841,16 @@
     </row>
     <row r="147" spans="3:9">
       <c r="C147" s="19" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="E147" s="17" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F147" s="18" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="H147" s="26" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="I147" s="8">
         <v>43</v>
@@ -10815,16 +10858,16 @@
     </row>
     <row r="148" spans="3:9">
       <c r="C148" s="19" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="E148" s="17" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="F148" s="18" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="H148" s="26" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="I148" s="8">
         <v>44</v>
@@ -10832,10 +10875,10 @@
     </row>
     <row r="149" spans="3:9">
       <c r="E149" s="17" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="F149" s="18" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="I149" s="7">
         <v>44</v>
@@ -10843,10 +10886,10 @@
     </row>
     <row r="150" spans="3:9">
       <c r="E150" s="17" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="F150" s="18" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="I150" s="7">
         <v>44</v>
@@ -10854,10 +10897,10 @@
     </row>
     <row r="151" spans="3:9">
       <c r="E151" s="17" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="F151" s="18" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="I151" s="7">
         <v>44</v>
@@ -10865,10 +10908,10 @@
     </row>
     <row r="152" spans="3:9">
       <c r="E152" s="17" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="F152" s="18" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="I152" s="7">
         <v>44</v>
@@ -10876,16 +10919,16 @@
     </row>
     <row r="153" spans="3:9">
       <c r="C153" s="19" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="E153" s="17" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="F153" s="18" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="H153" s="26" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="I153" s="8">
         <v>45</v>
@@ -10893,16 +10936,16 @@
     </row>
     <row r="154" spans="3:9">
       <c r="C154" s="19" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="E154" s="17" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="F154" s="18" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="H154" s="26" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="I154" s="8">
         <v>46</v>
@@ -10910,10 +10953,10 @@
     </row>
     <row r="155" spans="3:9">
       <c r="E155" s="17" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="F155" s="18" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="I155" s="7">
         <v>46</v>
@@ -10921,10 +10964,10 @@
     </row>
     <row r="156" spans="3:9">
       <c r="E156" s="17" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="F156" s="18" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="I156" s="7">
         <v>46</v>
@@ -10932,10 +10975,10 @@
     </row>
     <row r="157" spans="3:9">
       <c r="E157" s="17" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="F157" s="18" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I157" s="7">
         <v>46</v>
@@ -10943,10 +10986,10 @@
     </row>
     <row r="158" spans="3:9">
       <c r="E158" s="17" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="F158" s="18" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="I158" s="7">
         <v>46</v>
@@ -10954,10 +10997,10 @@
     </row>
     <row r="159" spans="3:9">
       <c r="E159" s="17" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="F159" s="18" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="I159" s="7">
         <v>46</v>
@@ -10965,10 +11008,10 @@
     </row>
     <row r="160" spans="3:9">
       <c r="E160" s="17" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="F160" s="18" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="I160" s="7">
         <v>46</v>
@@ -10976,16 +11019,16 @@
     </row>
     <row r="161" spans="3:9">
       <c r="C161" s="19" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="E161" s="17" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="F161" s="18" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="H161" s="26" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="I161" s="8">
         <v>47</v>
@@ -10993,10 +11036,10 @@
     </row>
     <row r="162" spans="3:9">
       <c r="E162" s="17" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="F162" s="18" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="I162" s="7">
         <v>47</v>
@@ -11004,10 +11047,10 @@
     </row>
     <row r="163" spans="3:9">
       <c r="E163" s="17" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="F163" s="18" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="I163" s="7">
         <v>47</v>
@@ -11015,13 +11058,13 @@
     </row>
     <row r="164" spans="3:9">
       <c r="C164" s="19" t="s">
+        <v>1458</v>
+      </c>
+      <c r="E164" s="17" t="s">
         <v>1459</v>
       </c>
-      <c r="E164" s="17" t="s">
-        <v>1460</v>
-      </c>
       <c r="H164" s="26" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="I164" s="8">
         <v>48</v>
@@ -11029,7 +11072,7 @@
     </row>
     <row r="165" spans="3:9">
       <c r="E165" s="17" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="I165" s="7">
         <v>48</v>
@@ -11037,10 +11080,10 @@
     </row>
     <row r="166" spans="3:9">
       <c r="E166" s="17" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="F166" s="18" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="I166" s="7">
         <v>48</v>
@@ -11048,13 +11091,13 @@
     </row>
     <row r="167" spans="3:9">
       <c r="C167" s="19" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E167" s="17" t="s">
         <v>1465</v>
       </c>
-      <c r="E167" s="17" t="s">
-        <v>1466</v>
-      </c>
       <c r="H167" s="26" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="I167" s="8">
         <v>49</v>
@@ -11062,10 +11105,10 @@
     </row>
     <row r="168" spans="3:9">
       <c r="E168" s="17" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="F168" s="18" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="I168" s="7">
         <v>49</v>
@@ -11073,10 +11116,10 @@
     </row>
     <row r="169" spans="3:9">
       <c r="E169" s="17" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="F169" s="18" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="I169" s="7">
         <v>49</v>
@@ -11084,10 +11127,10 @@
     </row>
     <row r="170" spans="3:9">
       <c r="E170" s="17" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="F170" s="18" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="I170" s="7">
         <v>49</v>
@@ -11095,10 +11138,10 @@
     </row>
     <row r="171" spans="3:9">
       <c r="E171" s="17" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="F171" s="18" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="I171" s="7">
         <v>49</v>
@@ -11106,16 +11149,16 @@
     </row>
     <row r="172" spans="3:9">
       <c r="C172" s="19" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="E172" s="17" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="F172" s="18" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="H172" s="26" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="I172" s="8">
         <v>50</v>
@@ -11123,10 +11166,10 @@
     </row>
     <row r="173" spans="3:9">
       <c r="E173" s="17" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="F173" s="18" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="I173" s="7">
         <v>50</v>
@@ -11134,10 +11177,10 @@
     </row>
     <row r="174" spans="3:9">
       <c r="E174" s="17" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="F174" s="18" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="I174" s="7">
         <v>50</v>
@@ -11145,16 +11188,16 @@
     </row>
     <row r="175" spans="3:9">
       <c r="C175" s="19" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="E175" s="17" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="F175" s="18" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="H175" s="26" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="I175" s="8">
         <v>51</v>
@@ -11162,10 +11205,10 @@
     </row>
     <row r="176" spans="3:9">
       <c r="E176" s="17" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="F176" s="18" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="I176" s="7">
         <v>51</v>
@@ -11173,10 +11216,10 @@
     </row>
     <row r="177" spans="3:9">
       <c r="E177" s="17" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="F177" s="18" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="I177" s="7">
         <v>51</v>
@@ -11184,7 +11227,7 @@
     </row>
     <row r="178" spans="3:9">
       <c r="E178" s="17" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="I178" s="7">
         <v>51</v>
@@ -11192,10 +11235,10 @@
     </row>
     <row r="179" spans="3:9">
       <c r="E179" s="17" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F179" s="18" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="I179" s="7">
         <v>51</v>
@@ -11203,10 +11246,10 @@
     </row>
     <row r="180" spans="3:9">
       <c r="E180" s="17" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="F180" s="18" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="I180" s="7">
         <v>51</v>
@@ -11214,10 +11257,10 @@
     </row>
     <row r="181" spans="3:9">
       <c r="E181" s="17" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="F181" s="18" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="I181" s="7">
         <v>51</v>
@@ -11225,16 +11268,16 @@
     </row>
     <row r="182" spans="3:9">
       <c r="C182" s="19" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="E182" s="17" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="F182" s="18" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="H182" s="26" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="I182" s="8">
         <v>52</v>
@@ -11242,16 +11285,16 @@
     </row>
     <row r="183" spans="3:9">
       <c r="C183" s="19" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="E183" s="17" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="F183" s="18" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="H183" s="26" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="I183" s="8">
         <v>53</v>
@@ -11259,10 +11302,10 @@
     </row>
     <row r="184" spans="3:9">
       <c r="E184" s="17" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="F184" s="18" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="I184" s="7">
         <v>53</v>
@@ -11270,10 +11313,10 @@
     </row>
     <row r="185" spans="3:9">
       <c r="E185" s="17" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="F185" s="29" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="I185" s="7">
         <v>53</v>
@@ -11281,10 +11324,10 @@
     </row>
     <row r="186" spans="3:9">
       <c r="E186" s="17" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="F186" s="18" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="I186" s="7">
         <v>53</v>
@@ -11292,10 +11335,10 @@
     </row>
     <row r="187" spans="3:9">
       <c r="E187" s="17" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="F187" s="18" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="I187" s="7">
         <v>53</v>
@@ -11303,16 +11346,16 @@
     </row>
     <row r="188" spans="3:9">
       <c r="C188" s="19" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="E188" s="17" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="F188" s="18" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="H188" s="26" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="I188" s="8">
         <v>54</v>
@@ -11320,10 +11363,10 @@
     </row>
     <row r="189" spans="3:9">
       <c r="E189" s="17" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="F189" s="18" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="I189" s="7">
         <v>54</v>
@@ -11331,10 +11374,10 @@
     </row>
     <row r="190" spans="3:9">
       <c r="E190" s="17" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="F190" s="18" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="I190" s="7">
         <v>54</v>
@@ -11342,10 +11385,10 @@
     </row>
     <row r="191" spans="3:9">
       <c r="E191" s="17" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="F191" s="18" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="I191" s="7">
         <v>54</v>
@@ -11353,10 +11396,10 @@
     </row>
     <row r="192" spans="3:9">
       <c r="E192" s="17" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="F192" s="18" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="I192" s="7">
         <v>54</v>
@@ -11364,10 +11407,10 @@
     </row>
     <row r="193" spans="3:9">
       <c r="E193" s="17" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="F193" s="18" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="I193" s="7">
         <v>54</v>
@@ -11375,10 +11418,10 @@
     </row>
     <row r="194" spans="3:9">
       <c r="E194" s="17" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F194" s="18" t="s">
         <v>1190</v>
-      </c>
-      <c r="F194" s="18" t="s">
-        <v>1191</v>
       </c>
       <c r="I194" s="7">
         <v>54</v>
@@ -11386,10 +11429,10 @@
     </row>
     <row r="195" spans="3:9">
       <c r="E195" s="17" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="F195" s="18" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="I195" s="7">
         <v>54</v>
@@ -11397,10 +11440,10 @@
     </row>
     <row r="196" spans="3:9">
       <c r="E196" s="17" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="F196" s="18" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="I196" s="7">
         <v>54</v>
@@ -11408,16 +11451,16 @@
     </row>
     <row r="197" spans="3:9">
       <c r="C197" s="19" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E197" s="17" t="s">
+        <v>1531</v>
+      </c>
+      <c r="F197" s="18" t="s">
         <v>1530</v>
       </c>
-      <c r="E197" s="17" t="s">
-        <v>1532</v>
-      </c>
-      <c r="F197" s="18" t="s">
-        <v>1531</v>
-      </c>
       <c r="H197" s="26" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="I197" s="8">
         <v>55</v>
@@ -11425,16 +11468,16 @@
     </row>
     <row r="198" spans="3:9">
       <c r="C198" s="19" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="E198" s="17" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="F198" s="18" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="H198" s="26" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="I198" s="8">
         <v>56</v>
@@ -11442,10 +11485,10 @@
     </row>
     <row r="199" spans="3:9">
       <c r="E199" s="17" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="F199" s="18" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="I199" s="7">
         <v>56</v>
@@ -11453,16 +11496,16 @@
     </row>
     <row r="200" spans="3:9">
       <c r="C200" s="19" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="E200" s="17" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="F200" s="18" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="H200" s="26" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="I200" s="8">
         <v>57</v>
@@ -11470,10 +11513,10 @@
     </row>
     <row r="201" spans="3:9">
       <c r="E201" s="17" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="F201" s="18" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="I201" s="7">
         <v>57</v>
@@ -11481,16 +11524,16 @@
     </row>
     <row r="202" spans="3:9">
       <c r="C202" s="19" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="E202" s="17" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="F202" s="18" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="H202" s="26" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="I202" s="8">
         <v>58</v>
@@ -11498,10 +11541,10 @@
     </row>
     <row r="203" spans="3:9">
       <c r="E203" s="17" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="F203" s="18" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="I203" s="7">
         <v>58</v>
@@ -11509,16 +11552,16 @@
     </row>
     <row r="204" spans="3:9">
       <c r="C204" s="19" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="E204" s="17" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="F204" s="18" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="H204" s="26" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="I204" s="8">
         <v>59</v>
@@ -11526,16 +11569,16 @@
     </row>
     <row r="205" spans="3:9">
       <c r="C205" s="19" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="E205" s="17" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="F205" s="18" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="H205" s="26" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="I205" s="8">
         <v>60</v>
@@ -11543,16 +11586,16 @@
     </row>
     <row r="206" spans="3:9">
       <c r="C206" s="19" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="E206" s="17" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="F206" s="18" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="H206" s="26" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="I206" s="8">
         <v>61</v>
@@ -11560,10 +11603,10 @@
     </row>
     <row r="207" spans="3:9">
       <c r="E207" s="17" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="F207" s="18" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="I207" s="7">
         <v>61</v>
@@ -11571,16 +11614,16 @@
     </row>
     <row r="208" spans="3:9">
       <c r="C208" s="19" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="E208" s="17" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="F208" s="18" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="H208" s="26" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="I208" s="8">
         <v>62</v>
@@ -11597,8 +11640,8 @@
   <dimension ref="A1:P1493"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+      <pane ySplit="1" topLeftCell="A740" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B759" sqref="B759"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11629,7 +11672,7 @@
         <v>133</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
@@ -11659,7 +11702,7 @@
         <v>69</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -11744,10 +11787,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -11821,10 +11864,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -11832,10 +11875,10 @@
         <v>1</v>
       </c>
       <c r="D18" s="30" t="s">
+        <v>1584</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>1585</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>1586</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -11843,7 +11886,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>83</v>
@@ -11854,7 +11897,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>84</v>
@@ -11879,7 +11922,7 @@
         <v>61</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -11984,7 +12027,7 @@
         <v>69</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -12254,7 +12297,7 @@
         <v>69</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -12367,7 +12410,7 @@
         <v>143</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -12480,7 +12523,7 @@
         <v>72</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -12560,7 +12603,7 @@
         <v>73</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -12651,7 +12694,7 @@
         <v>156</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -12742,7 +12785,7 @@
         <v>113</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -12830,7 +12873,7 @@
         <v>45</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -13028,7 +13071,7 @@
         <v>45</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -13435,7 +13478,7 @@
         <v>45</v>
       </c>
       <c r="F161" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -13559,7 +13602,7 @@
         <v>268</v>
       </c>
       <c r="F175" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -13815,7 +13858,7 @@
         <v>268</v>
       </c>
       <c r="F198" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -13947,7 +13990,7 @@
         <v>268</v>
       </c>
       <c r="F210" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -14082,7 +14125,7 @@
         <v>268</v>
       </c>
       <c r="F222" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -14184,7 +14227,7 @@
         <v>268</v>
       </c>
       <c r="F231" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -14286,7 +14329,7 @@
         <v>268</v>
       </c>
       <c r="F240" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -14393,7 +14436,7 @@
         <v>45</v>
       </c>
       <c r="F250" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -14789,7 +14832,7 @@
         <v>45</v>
       </c>
       <c r="F286" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -15083,7 +15126,7 @@
         <v>381</v>
       </c>
       <c r="F313" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -15118,7 +15161,7 @@
         <v>268</v>
       </c>
       <c r="F317" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="318" spans="1:6">
@@ -15209,7 +15252,7 @@
         <v>268</v>
       </c>
       <c r="F325" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="326" spans="1:6">
@@ -15330,7 +15373,7 @@
         <v>45</v>
       </c>
       <c r="F336" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -15627,7 +15670,7 @@
         <v>45</v>
       </c>
       <c r="F363" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="364" spans="1:6">
@@ -15715,7 +15758,7 @@
         <v>45</v>
       </c>
       <c r="F372" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="373" spans="1:6">
@@ -15792,7 +15835,7 @@
         <v>45</v>
       </c>
       <c r="F379" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="380" spans="1:6">
@@ -16078,7 +16121,7 @@
         <v>45</v>
       </c>
       <c r="F405" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="406" spans="1:6">
@@ -16232,7 +16275,7 @@
         <v>45</v>
       </c>
       <c r="F419" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="420" spans="1:6">
@@ -16364,7 +16407,7 @@
         <v>45</v>
       </c>
       <c r="F431" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="432" spans="1:6">
@@ -16449,7 +16492,7 @@
         <v>45</v>
       </c>
       <c r="F439" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="440" spans="1:6">
@@ -16526,7 +16569,7 @@
         <v>45</v>
       </c>
       <c r="F446" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="447" spans="1:6">
@@ -16600,7 +16643,7 @@
         <v>45</v>
       </c>
       <c r="F453" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="454" spans="1:6">
@@ -16699,7 +16742,7 @@
         <v>45</v>
       </c>
       <c r="F464" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="465" spans="1:6">
@@ -16809,7 +16852,7 @@
         <v>45</v>
       </c>
       <c r="F474" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="475" spans="1:6">
@@ -16952,7 +16995,7 @@
         <v>45</v>
       </c>
       <c r="F487" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="488" spans="1:6">
@@ -17106,7 +17149,7 @@
         <v>45</v>
       </c>
       <c r="F501" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="502" spans="1:6">
@@ -17249,7 +17292,7 @@
         <v>45</v>
       </c>
       <c r="F515" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="516" spans="1:6">
@@ -17392,7 +17435,7 @@
         <v>45</v>
       </c>
       <c r="F529" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="530" spans="1:6">
@@ -17513,7 +17556,7 @@
         <v>45</v>
       </c>
       <c r="F541" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="542" spans="1:6">
@@ -17656,7 +17699,7 @@
         <v>45</v>
       </c>
       <c r="F556" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="557" spans="1:6">
@@ -17755,7 +17798,7 @@
         <v>45</v>
       </c>
       <c r="F567" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="568" spans="1:6">
@@ -17843,7 +17886,7 @@
         <v>45</v>
       </c>
       <c r="F575" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="576" spans="1:6">
@@ -17975,7 +18018,7 @@
         <v>45</v>
       </c>
       <c r="F587" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="588" spans="1:6">
@@ -18063,7 +18106,7 @@
         <v>45</v>
       </c>
       <c r="F595" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="596" spans="1:6">
@@ -18360,7 +18403,7 @@
         <v>45</v>
       </c>
       <c r="F623" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="624" spans="1:6">
@@ -18558,7 +18601,7 @@
         <v>45</v>
       </c>
       <c r="F641" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="642" spans="1:6">
@@ -18646,7 +18689,7 @@
         <v>45</v>
       </c>
       <c r="F650" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="651" spans="1:6">
@@ -18723,7 +18766,7 @@
         <v>45</v>
       </c>
       <c r="F657" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="658" spans="1:6">
@@ -18844,7 +18887,7 @@
         <v>45</v>
       </c>
       <c r="F668" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="669" spans="1:6">
@@ -18998,7 +19041,7 @@
         <v>45</v>
       </c>
       <c r="F682" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="683" spans="1:6">
@@ -19119,7 +19162,7 @@
         <v>45</v>
       </c>
       <c r="F693" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="694" spans="1:6">
@@ -19207,7 +19250,7 @@
         <v>45</v>
       </c>
       <c r="F701" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="702" spans="1:6">
@@ -19306,7 +19349,7 @@
         <v>45</v>
       </c>
       <c r="F710" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="711" spans="1:6">
@@ -19383,7 +19426,7 @@
         <v>45</v>
       </c>
       <c r="F718" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="719" spans="1:6">
@@ -19474,7 +19517,7 @@
         <v>45</v>
       </c>
       <c r="F725" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="726" spans="1:16" s="7" customFormat="1">
@@ -19562,7 +19605,7 @@
         <v>45</v>
       </c>
       <c r="F733" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="734" spans="1:16">
@@ -19653,7 +19696,7 @@
         <v>268</v>
       </c>
       <c r="F741" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="742" spans="1:6">
@@ -19752,7 +19795,7 @@
         <v>45</v>
       </c>
       <c r="F750" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="751" spans="1:6">
@@ -19840,7 +19883,7 @@
         <v>45</v>
       </c>
       <c r="F759" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="760" spans="1:6">
@@ -20038,7 +20081,7 @@
         <v>45</v>
       </c>
       <c r="F778" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="779" spans="1:6">
@@ -20112,7 +20155,7 @@
         <v>661</v>
       </c>
       <c r="F786" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="787" spans="1:6">
@@ -20147,7 +20190,7 @@
         <v>268</v>
       </c>
       <c r="F790" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="791" spans="1:6">
@@ -20320,7 +20363,7 @@
         <v>684</v>
       </c>
       <c r="F806" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="807" spans="1:6">
@@ -20375,7 +20418,7 @@
         <v>143</v>
       </c>
       <c r="F815" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="816" spans="1:6">
@@ -20452,7 +20495,7 @@
         <v>45</v>
       </c>
       <c r="F822" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="823" spans="1:6">
@@ -20642,7 +20685,7 @@
         <v>143</v>
       </c>
       <c r="F840" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="841" spans="1:6">
@@ -20752,7 +20795,7 @@
         <v>45</v>
       </c>
       <c r="F850" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="851" spans="1:6">
@@ -20862,7 +20905,7 @@
         <v>45</v>
       </c>
       <c r="F860" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="861" spans="1:6">
@@ -20972,7 +21015,7 @@
         <v>45</v>
       </c>
       <c r="F870" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="871" spans="1:6">
@@ -21071,7 +21114,7 @@
         <v>45</v>
       </c>
       <c r="F881" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="882" spans="1:6">
@@ -21214,7 +21257,7 @@
         <v>45</v>
       </c>
       <c r="F896" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="897" spans="1:5">
@@ -21434,7 +21477,7 @@
         <v>45</v>
       </c>
       <c r="F917" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="918" spans="1:6">
@@ -21522,7 +21565,7 @@
         <v>45</v>
       </c>
       <c r="F927" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="928" spans="1:6">
@@ -21599,7 +21642,7 @@
         <v>45</v>
       </c>
       <c r="F936" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="937" spans="1:6">
@@ -21676,7 +21719,7 @@
         <v>45</v>
       </c>
       <c r="F944" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="945" spans="1:6">
@@ -21753,7 +21796,7 @@
         <v>45</v>
       </c>
       <c r="F951" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="952" spans="1:6">
@@ -21841,7 +21884,7 @@
         <v>45</v>
       </c>
       <c r="F959" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="960" spans="1:6">
@@ -21918,7 +21961,7 @@
         <v>45</v>
       </c>
       <c r="F966" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="967" spans="1:6">
@@ -22039,7 +22082,7 @@
         <v>45</v>
       </c>
       <c r="F978" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="979" spans="1:6">
@@ -22171,7 +22214,7 @@
         <v>45</v>
       </c>
       <c r="F990" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="991" spans="1:6">
@@ -22259,7 +22302,7 @@
         <v>45</v>
       </c>
       <c r="F998" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="999" spans="1:6">
@@ -22391,7 +22434,7 @@
         <v>45</v>
       </c>
       <c r="F1010" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="1011" spans="1:6">
@@ -22523,7 +22566,7 @@
         <v>45</v>
       </c>
       <c r="F1024" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="1025" spans="1:5">
@@ -22737,7 +22780,7 @@
         <v>788</v>
       </c>
       <c r="F1044" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="1045" spans="1:6">
@@ -22772,7 +22815,7 @@
         <v>795</v>
       </c>
       <c r="F1048" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="1049" spans="1:6">
@@ -23000,7 +23043,7 @@
         <v>45</v>
       </c>
       <c r="F1070" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="1071" spans="1:6">
@@ -23220,7 +23263,7 @@
         <v>45</v>
       </c>
       <c r="F1090" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="1091" spans="1:6">
@@ -23426,7 +23469,7 @@
         <v>45</v>
       </c>
       <c r="F1110" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="1111" spans="1:6">
@@ -23506,7 +23549,7 @@
         <v>69</v>
       </c>
       <c r="F1118" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="1119" spans="1:6">
@@ -23597,7 +23640,7 @@
         <v>69</v>
       </c>
       <c r="F1127" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="1128" spans="1:6">
@@ -23762,7 +23805,7 @@
         <v>45</v>
       </c>
       <c r="F1142" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="1143" spans="1:6">
@@ -23883,7 +23926,7 @@
         <v>45</v>
       </c>
       <c r="F1154" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="1155" spans="1:6">
@@ -24224,7 +24267,7 @@
         <v>45</v>
       </c>
       <c r="F1186" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="1187" spans="1:6">
@@ -24301,7 +24344,7 @@
         <v>45</v>
       </c>
       <c r="F1195" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="1196" spans="1:6">
@@ -24424,7 +24467,7 @@
         <v>96</v>
       </c>
       <c r="B1207" s="11" t="s">
-        <v>880</v>
+        <v>1695</v>
       </c>
       <c r="C1207" s="12" t="s">
         <v>879</v>
@@ -24433,7 +24476,7 @@
         <v>45</v>
       </c>
       <c r="F1207" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="1208" spans="1:6">
@@ -24474,7 +24517,7 @@
         <v>96</v>
       </c>
       <c r="D1211" s="7" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E1211" s="7" t="s">
         <v>740</v>
@@ -24488,7 +24531,7 @@
         <v>666</v>
       </c>
       <c r="E1212" s="7" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="1213" spans="1:6">
@@ -24499,7 +24542,7 @@
         <v>163</v>
       </c>
       <c r="E1213" s="7" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="1214" spans="1:6">
@@ -24510,7 +24553,7 @@
         <v>53</v>
       </c>
       <c r="E1214" s="7" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="1215" spans="1:6">
@@ -24545,16 +24588,16 @@
         <v>97</v>
       </c>
       <c r="B1218" s="11" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C1218" s="12" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D1218" s="7" t="s">
         <v>45</v>
       </c>
       <c r="F1218" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="1219" spans="1:6">
@@ -24584,7 +24627,7 @@
         <v>97</v>
       </c>
       <c r="D1221" s="7" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E1221" s="7" t="s">
         <v>740</v>
@@ -24620,7 +24663,7 @@
         <v>411</v>
       </c>
       <c r="E1224" s="7" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="1225" spans="1:6">
@@ -24642,7 +24685,7 @@
         <v>53</v>
       </c>
       <c r="E1226" s="7" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="1227" spans="1:6">
@@ -24677,16 +24720,16 @@
         <v>98</v>
       </c>
       <c r="B1230" s="11" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C1230" s="12" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D1230" s="7" t="s">
         <v>45</v>
       </c>
       <c r="F1230" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="1231" spans="1:6">
@@ -24754,16 +24797,16 @@
         <v>99</v>
       </c>
       <c r="B1238" s="11" t="s">
+        <v>889</v>
+      </c>
+      <c r="C1238" s="12" t="s">
         <v>890</v>
-      </c>
-      <c r="C1238" s="12" t="s">
-        <v>891</v>
       </c>
       <c r="D1238" s="7" t="s">
         <v>45</v>
       </c>
       <c r="F1238" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="1239" spans="1:6">
@@ -24853,16 +24896,16 @@
         <v>100</v>
       </c>
       <c r="B1247" s="11" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C1247" s="12" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D1247" s="7" t="s">
         <v>45</v>
       </c>
       <c r="F1247" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="1248" spans="1:6">
@@ -24892,10 +24935,10 @@
         <v>100</v>
       </c>
       <c r="D1250" s="7" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E1250" s="7" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="1251" spans="1:6">
@@ -24903,10 +24946,10 @@
         <v>100</v>
       </c>
       <c r="D1251" s="7" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E1251" s="7" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="1252" spans="1:6">
@@ -24914,10 +24957,10 @@
         <v>100</v>
       </c>
       <c r="D1252" s="7" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E1252" s="7" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="1253" spans="1:6">
@@ -24925,10 +24968,10 @@
         <v>100</v>
       </c>
       <c r="D1253" s="7" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E1253" s="7" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="1254" spans="1:6">
@@ -24936,10 +24979,10 @@
         <v>100</v>
       </c>
       <c r="D1254" s="7" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E1254" s="7" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="1255" spans="1:6">
@@ -24947,10 +24990,10 @@
         <v>100</v>
       </c>
       <c r="D1255" s="7" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E1255" s="7" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="1256" spans="1:6">
@@ -24958,10 +25001,10 @@
         <v>100</v>
       </c>
       <c r="D1256" s="7" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E1256" s="7" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="1257" spans="1:6">
@@ -25007,16 +25050,16 @@
         <v>101</v>
       </c>
       <c r="B1262" s="11" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C1262" s="12" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D1262" s="7" t="s">
         <v>45</v>
       </c>
       <c r="F1262" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="1263" spans="1:6">
@@ -25027,7 +25070,7 @@
         <v>46</v>
       </c>
       <c r="E1263" s="7" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="1264" spans="1:6">
@@ -25038,7 +25081,7 @@
         <v>140</v>
       </c>
       <c r="E1264" s="7" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="1265" spans="1:6">
@@ -25057,10 +25100,10 @@
         <v>101</v>
       </c>
       <c r="D1266" s="7" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E1266" s="7" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="1267" spans="1:6">
@@ -25068,10 +25111,10 @@
         <v>101</v>
       </c>
       <c r="D1267" s="7" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E1267" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="1268" spans="1:6">
@@ -25079,10 +25122,10 @@
         <v>101</v>
       </c>
       <c r="D1268" s="7" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E1268" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="1269" spans="1:6">
@@ -25090,10 +25133,10 @@
         <v>101</v>
       </c>
       <c r="D1269" s="7" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E1269" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="1270" spans="1:6">
@@ -25101,7 +25144,7 @@
         <v>101</v>
       </c>
       <c r="D1270" s="7" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E1270" s="7" t="s">
         <v>301</v>
@@ -25150,16 +25193,16 @@
         <v>102</v>
       </c>
       <c r="B1275" s="11" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C1275" s="12" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D1275" s="7" t="s">
         <v>45</v>
       </c>
       <c r="F1275" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="1276" spans="1:6">
@@ -25170,7 +25213,7 @@
         <v>46</v>
       </c>
       <c r="E1276" s="7" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="1277" spans="1:6">
@@ -25181,7 +25224,7 @@
         <v>140</v>
       </c>
       <c r="E1277" s="7" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="1278" spans="1:6">
@@ -25200,10 +25243,10 @@
         <v>102</v>
       </c>
       <c r="D1279" s="7" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E1279" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="1280" spans="1:6">
@@ -25211,10 +25254,10 @@
         <v>102</v>
       </c>
       <c r="D1280" s="7" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E1280" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="1281" spans="1:6">
@@ -25244,10 +25287,10 @@
         <v>102</v>
       </c>
       <c r="D1283" s="7" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E1283" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="1284" spans="1:6">
@@ -25255,7 +25298,7 @@
         <v>102</v>
       </c>
       <c r="D1284" s="7" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E1284" s="7" t="s">
         <v>301</v>
@@ -25315,19 +25358,19 @@
         <v>103</v>
       </c>
       <c r="B1291" s="11" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C1291" s="12" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D1291" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E1291" s="7" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F1291" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="1292" spans="1:6">
@@ -25346,7 +25389,7 @@
         <v>103</v>
       </c>
       <c r="D1293" s="7" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E1293" s="7" t="s">
         <v>740</v>
@@ -25360,7 +25403,7 @@
         <v>53</v>
       </c>
       <c r="E1294" s="7" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="1295" spans="1:6">
@@ -25395,16 +25438,16 @@
         <v>104</v>
       </c>
       <c r="B1298" s="11" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C1298" s="12" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D1298" s="7" t="s">
         <v>45</v>
       </c>
       <c r="F1298" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="1299" spans="1:6">
@@ -25423,10 +25466,10 @@
         <v>104</v>
       </c>
       <c r="D1300" s="7" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E1300" s="7" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="1301" spans="1:6">
@@ -25445,10 +25488,10 @@
         <v>104</v>
       </c>
       <c r="D1302" s="7" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E1302" s="7" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="1303" spans="1:6">
@@ -25494,16 +25537,16 @@
         <v>105</v>
       </c>
       <c r="B1308" s="11" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C1308" s="12" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D1308" s="7" t="s">
         <v>45</v>
       </c>
       <c r="F1308" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="1309" spans="1:6">
@@ -25514,7 +25557,7 @@
         <v>46</v>
       </c>
       <c r="E1309" s="7" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="1310" spans="1:6">
@@ -25536,7 +25579,7 @@
         <v>485</v>
       </c>
       <c r="E1311" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="1312" spans="1:6">
@@ -25544,10 +25587,10 @@
         <v>105</v>
       </c>
       <c r="D1312" s="7" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E1312" s="7" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="1313" spans="1:6">
@@ -25555,10 +25598,10 @@
         <v>105</v>
       </c>
       <c r="D1313" s="7" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E1313" s="7" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="1314" spans="1:6">
@@ -25566,10 +25609,10 @@
         <v>105</v>
       </c>
       <c r="D1314" s="7" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E1314" s="7" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="1315" spans="1:6">
@@ -25621,10 +25664,10 @@
         <v>105</v>
       </c>
       <c r="D1319" s="7" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E1319" s="7" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="1320" spans="1:6">
@@ -25632,10 +25675,10 @@
         <v>105</v>
       </c>
       <c r="D1320" s="7" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E1320" s="7" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="1321" spans="1:6">
@@ -25681,10 +25724,10 @@
         <v>106</v>
       </c>
       <c r="B1327" s="11" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C1327" s="12" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D1327" s="7" t="s">
         <v>45</v>
@@ -25693,7 +25736,7 @@
         <v>45</v>
       </c>
       <c r="F1327" s="7" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="1328" spans="1:6">
@@ -25723,10 +25766,10 @@
         <v>106</v>
       </c>
       <c r="D1330" s="7" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E1330" s="7" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="1331" spans="1:5">
@@ -25734,10 +25777,10 @@
         <v>106</v>
       </c>
       <c r="D1331" s="7" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="E1331" s="7" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="1332" spans="1:5">
@@ -25745,7 +25788,7 @@
         <v>106</v>
       </c>
       <c r="D1332" s="7" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E1332" s="7" t="s">
         <v>220</v>
@@ -25778,10 +25821,10 @@
         <v>106</v>
       </c>
       <c r="D1335" s="7" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E1335" s="7" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="1336" spans="1:5">
@@ -25803,7 +25846,7 @@
         <v>165</v>
       </c>
       <c r="E1337" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="1338" spans="1:5">
@@ -25814,7 +25857,7 @@
         <v>166</v>
       </c>
       <c r="E1338" s="7" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="1339" spans="1:5">
@@ -25825,7 +25868,7 @@
         <v>858</v>
       </c>
       <c r="E1339" s="7" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="1340" spans="1:5">
@@ -25833,10 +25876,10 @@
         <v>106</v>
       </c>
       <c r="D1340" s="7" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="E1340" s="7" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="1341" spans="1:5">
@@ -25847,7 +25890,7 @@
         <v>53</v>
       </c>
       <c r="E1341" s="7" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="1342" spans="1:5">
@@ -25855,10 +25898,10 @@
         <v>106</v>
       </c>
       <c r="D1342" s="7" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="E1342" s="7" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="1343" spans="1:5">
@@ -25866,10 +25909,10 @@
         <v>106</v>
       </c>
       <c r="D1343" s="7" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E1343" s="7" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="1344" spans="1:5">
@@ -25899,10 +25942,10 @@
         <v>106</v>
       </c>
       <c r="D1346" s="7" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E1346" s="7" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="1347" spans="1:6">
@@ -25910,10 +25953,10 @@
         <v>106</v>
       </c>
       <c r="D1347" s="7" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E1347" s="7" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="1348" spans="1:6">
@@ -25921,10 +25964,10 @@
         <v>106</v>
       </c>
       <c r="D1348" s="7" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E1348" s="7" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="1349" spans="1:6">
@@ -25932,10 +25975,10 @@
         <v>106</v>
       </c>
       <c r="D1349" s="7" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E1349" s="7" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="1350" spans="1:6">
@@ -25954,10 +25997,10 @@
         <v>106</v>
       </c>
       <c r="D1351" s="7" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E1351" s="7" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="1352" spans="1:6">
@@ -25965,10 +26008,10 @@
         <v>106</v>
       </c>
       <c r="D1352" s="7" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E1352" s="7" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="1355" spans="1:6">
@@ -25981,13 +26024,13 @@
         <v>107</v>
       </c>
       <c r="B1356" s="11" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C1356" s="12" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F1356" s="7" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="1357" spans="1:6">
@@ -26010,10 +26053,10 @@
         <v>108</v>
       </c>
       <c r="B1362" s="11" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C1362" s="12" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="D1362" s="7" t="s">
         <v>45</v>
@@ -26022,7 +26065,7 @@
         <v>268</v>
       </c>
       <c r="F1362" s="7" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="1363" spans="1:6">
@@ -26055,7 +26098,7 @@
         <v>469</v>
       </c>
       <c r="E1365" s="7" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="1366" spans="1:6">
@@ -26128,10 +26171,10 @@
         <v>109</v>
       </c>
       <c r="B1374" s="11" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C1374" s="12" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="D1374" s="7" t="s">
         <v>45</v>
@@ -26140,7 +26183,7 @@
         <v>268</v>
       </c>
       <c r="F1374" s="7" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="1375" spans="1:6">
@@ -26159,10 +26202,10 @@
         <v>109</v>
       </c>
       <c r="D1376" s="7" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E1376" s="7" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="1377" spans="1:6">
@@ -26242,7 +26285,7 @@
         <v>268</v>
       </c>
       <c r="F1384" s="7" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="1385" spans="1:6">
@@ -26250,10 +26293,10 @@
         <v>110</v>
       </c>
       <c r="D1385" s="7" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E1385" s="7" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="1386" spans="1:6">
@@ -26261,10 +26304,10 @@
         <v>110</v>
       </c>
       <c r="D1386" s="7" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E1386" s="7" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="1387" spans="1:6">
@@ -26305,10 +26348,10 @@
         <v>110</v>
       </c>
       <c r="D1390" s="7" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E1390" s="7" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="1391" spans="1:6">
@@ -26316,10 +26359,10 @@
         <v>110</v>
       </c>
       <c r="D1391" s="7" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E1391" s="7" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="1392" spans="1:6">
@@ -26332,19 +26375,19 @@
         <v>111</v>
       </c>
       <c r="B1393" s="11" t="s">
+        <v>993</v>
+      </c>
+      <c r="C1393" s="8" t="s">
         <v>994</v>
       </c>
-      <c r="C1393" s="8" t="s">
+      <c r="D1393" s="7" t="s">
         <v>995</v>
       </c>
-      <c r="D1393" s="7" t="s">
-        <v>996</v>
-      </c>
       <c r="E1393" s="7" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F1393" s="7" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="1394" spans="1:6">
@@ -26352,10 +26395,10 @@
         <v>111</v>
       </c>
       <c r="D1394" s="7" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="E1394" s="7" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="1395" spans="1:6">
@@ -26363,10 +26406,10 @@
         <v>111</v>
       </c>
       <c r="D1395" s="7" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E1395" s="7" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="1396" spans="1:6">
@@ -26374,10 +26417,10 @@
         <v>111</v>
       </c>
       <c r="D1396" s="7" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E1396" s="7" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="1397" spans="1:6">
@@ -26385,10 +26428,10 @@
         <v>111</v>
       </c>
       <c r="D1397" s="7" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E1397" s="7" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="1398" spans="1:6">
@@ -26396,10 +26439,10 @@
         <v>111</v>
       </c>
       <c r="D1398" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E1398" s="7" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="1399" spans="1:6">
@@ -26407,10 +26450,10 @@
         <v>111</v>
       </c>
       <c r="D1399" s="7" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E1399" s="7" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="1400" spans="1:6">
@@ -26418,10 +26461,10 @@
         <v>111</v>
       </c>
       <c r="D1400" s="7" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E1400" s="7" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="1401" spans="1:6">
@@ -26429,10 +26472,10 @@
         <v>111</v>
       </c>
       <c r="D1401" s="7" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E1401" s="7" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="1402" spans="1:6">
@@ -26440,10 +26483,10 @@
         <v>111</v>
       </c>
       <c r="D1402" s="7" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E1402" s="7" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="1403" spans="1:6">
@@ -26451,10 +26494,10 @@
         <v>111</v>
       </c>
       <c r="D1403" s="7" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E1403" s="7" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="1404" spans="1:6">
@@ -26472,10 +26515,10 @@
         <v>112</v>
       </c>
       <c r="B1406" s="11" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C1406" s="16" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D1406" s="7" t="s">
         <v>45</v>
@@ -26484,7 +26527,7 @@
         <v>795</v>
       </c>
       <c r="F1406" s="7" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="1407" spans="1:6">
@@ -26495,7 +26538,7 @@
         <v>46</v>
       </c>
       <c r="E1407" s="7" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="1408" spans="1:6">
@@ -26506,7 +26549,7 @@
         <v>124</v>
       </c>
       <c r="E1408" s="7" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1409" spans="1:6">
@@ -26514,10 +26557,10 @@
         <v>112</v>
       </c>
       <c r="D1409" s="7" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E1409" s="7" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="1410" spans="1:6">
@@ -26525,10 +26568,10 @@
         <v>112</v>
       </c>
       <c r="D1410" s="7" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E1410" s="7" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="1411" spans="1:6">
@@ -26574,10 +26617,10 @@
         <v>113</v>
       </c>
       <c r="B1415" s="11" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C1415" s="12" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D1415" s="7" t="s">
         <v>45</v>
@@ -26586,7 +26629,7 @@
         <v>795</v>
       </c>
       <c r="F1415" s="7" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="1416" spans="1:6">
@@ -26594,10 +26637,10 @@
         <v>113</v>
       </c>
       <c r="D1416" s="7" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E1416" s="7" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="1417" spans="1:6">
@@ -26605,10 +26648,10 @@
         <v>113</v>
       </c>
       <c r="D1417" s="7" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E1417" s="7" t="s">
         <v>1028</v>
-      </c>
-      <c r="E1417" s="7" t="s">
-        <v>1029</v>
       </c>
     </row>
     <row r="1418" spans="1:6">
@@ -26654,10 +26697,10 @@
         <v>114</v>
       </c>
       <c r="B1423" s="11" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C1423" s="12" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D1423" s="7" t="s">
         <v>45</v>
@@ -26666,7 +26709,7 @@
         <v>795</v>
       </c>
       <c r="F1423" s="7" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="1424" spans="1:6">
@@ -26674,10 +26717,10 @@
         <v>114</v>
       </c>
       <c r="D1424" s="7" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E1424" s="7" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="1425" spans="1:6">
@@ -26685,10 +26728,10 @@
         <v>114</v>
       </c>
       <c r="D1425" s="7" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E1425" s="7" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="1426" spans="1:6">
@@ -26696,10 +26739,10 @@
         <v>114</v>
       </c>
       <c r="D1426" s="7" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E1426" s="7" t="s">
         <v>1028</v>
-      </c>
-      <c r="E1426" s="7" t="s">
-        <v>1029</v>
       </c>
     </row>
     <row r="1427" spans="1:6">
@@ -26745,13 +26788,13 @@
         <v>115</v>
       </c>
       <c r="B1432" s="11" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C1432" s="12" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="F1432" s="7" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="1433" spans="1:6">
@@ -26774,13 +26817,13 @@
         <v>116</v>
       </c>
       <c r="B1436" s="11" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C1436" s="12" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="F1436" s="7" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="1437" spans="1:6">
@@ -26803,13 +26846,13 @@
         <v>117</v>
       </c>
       <c r="B1440" s="11" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C1440" s="12" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F1440" s="7" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="1441" spans="1:6">
@@ -26832,13 +26875,13 @@
         <v>118</v>
       </c>
       <c r="B1444" s="11" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C1444" s="12" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="F1444" s="7" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="1445" spans="1:6">
@@ -26861,10 +26904,10 @@
         <v>119</v>
       </c>
       <c r="B1448" s="11" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C1448" s="12" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="D1448" s="7" t="s">
         <v>45</v>
@@ -26873,7 +26916,7 @@
         <v>268</v>
       </c>
       <c r="F1448" s="7" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="1449" spans="1:6">
@@ -26892,10 +26935,10 @@
         <v>119</v>
       </c>
       <c r="D1450" s="7" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="E1450" s="7" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="1451" spans="1:6">
@@ -26903,10 +26946,10 @@
         <v>119</v>
       </c>
       <c r="D1451" s="7" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="E1451" s="7" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="1452" spans="1:6">
@@ -26925,10 +26968,10 @@
         <v>119</v>
       </c>
       <c r="D1453" s="7" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="E1453" s="7" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="1454" spans="1:6">
@@ -26936,10 +26979,10 @@
         <v>119</v>
       </c>
       <c r="D1454" s="7" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="E1454" s="7" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="1455" spans="1:6">
@@ -26947,10 +26990,10 @@
         <v>119</v>
       </c>
       <c r="D1455" s="7" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="E1455" s="7" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="1456" spans="1:6">
@@ -26985,19 +27028,19 @@
         <v>120</v>
       </c>
       <c r="B1460" s="11" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C1460" s="12" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D1460" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E1460" s="7" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="F1460" s="7" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="1461" spans="1:6">
@@ -27016,10 +27059,10 @@
         <v>120</v>
       </c>
       <c r="D1462" s="7" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="E1462" s="7" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="1463" spans="1:6">
@@ -27065,10 +27108,10 @@
         <v>121</v>
       </c>
       <c r="B1468" s="11" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C1468" s="12" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D1468" s="7" t="s">
         <v>45</v>
@@ -27077,7 +27120,7 @@
         <v>268</v>
       </c>
       <c r="F1468" s="7" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="1469" spans="1:6">
@@ -27085,7 +27128,7 @@
         <v>121</v>
       </c>
       <c r="D1469" s="7" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="E1469" s="7" t="s">
         <v>107</v>
@@ -27096,10 +27139,10 @@
         <v>121</v>
       </c>
       <c r="D1470" s="7" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E1470" s="7" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="1471" spans="1:6">
@@ -27107,10 +27150,10 @@
         <v>121</v>
       </c>
       <c r="D1471" s="7" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="E1471" s="7" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="1472" spans="1:6">
@@ -27118,10 +27161,10 @@
         <v>121</v>
       </c>
       <c r="D1472" s="7" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="E1472" s="7" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="1473" spans="1:6">
@@ -27129,10 +27172,10 @@
         <v>121</v>
       </c>
       <c r="D1473" s="7" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="E1473" s="7" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="1474" spans="1:6">
@@ -27143,7 +27186,7 @@
         <v>166</v>
       </c>
       <c r="E1474" s="7" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="1475" spans="1:6">
@@ -27151,10 +27194,10 @@
         <v>121</v>
       </c>
       <c r="D1475" s="7" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E1475" s="7" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="1476" spans="1:6">
@@ -27200,10 +27243,10 @@
         <v>122</v>
       </c>
       <c r="B1481" s="11" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C1481" s="12" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D1481" s="7" t="s">
         <v>45</v>
@@ -27212,7 +27255,7 @@
         <v>268</v>
       </c>
       <c r="F1481" s="7" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="1482" spans="1:6">
@@ -27223,7 +27266,7 @@
         <v>469</v>
       </c>
       <c r="E1482" s="7" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="1483" spans="1:6">
@@ -27231,10 +27274,10 @@
         <v>122</v>
       </c>
       <c r="D1483" s="7" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E1483" s="7" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="1484" spans="1:6">
@@ -27242,10 +27285,10 @@
         <v>122</v>
       </c>
       <c r="D1484" s="7" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="E1484" s="7" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="1485" spans="1:6">
@@ -27253,10 +27296,10 @@
         <v>122</v>
       </c>
       <c r="D1485" s="7" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E1485" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="1486" spans="1:6">
@@ -27264,10 +27307,10 @@
         <v>122</v>
       </c>
       <c r="D1486" s="7" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="E1486" s="7" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="1487" spans="1:6">
@@ -27275,10 +27318,10 @@
         <v>122</v>
       </c>
       <c r="D1487" s="7" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="E1487" s="7" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="1488" spans="1:6">
@@ -27286,10 +27329,10 @@
         <v>122</v>
       </c>
       <c r="D1488" s="7" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E1488" s="7" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="1489" spans="1:5">
@@ -27297,7 +27340,7 @@
         <v>122</v>
       </c>
       <c r="D1489" s="7" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="E1489" s="7" t="s">
         <v>740</v>
@@ -27308,10 +27351,10 @@
         <v>122</v>
       </c>
       <c r="D1490" s="7" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="E1490" s="7" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="1491" spans="1:5">
@@ -27362,10 +27405,8 @@
   <dimension ref="A1:U30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="M5" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -27393,64 +27434,64 @@
   <sheetData>
     <row r="1" spans="1:21" s="47" customFormat="1">
       <c r="A1" s="9" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>1571</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>1617</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>1616</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="55" t="s">
+        <v>1569</v>
+      </c>
+      <c r="F1" s="55" t="s">
+        <v>1694</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>1575</v>
+      </c>
+      <c r="H1" s="46" t="s">
+        <v>1574</v>
+      </c>
+      <c r="I1" s="55" t="s">
+        <v>1576</v>
+      </c>
+      <c r="J1" s="55" t="s">
+        <v>1577</v>
+      </c>
+      <c r="K1" s="55" t="s">
+        <v>1687</v>
+      </c>
+      <c r="L1" s="55" t="s">
+        <v>1686</v>
+      </c>
+      <c r="M1" s="55" t="s">
+        <v>1688</v>
+      </c>
+      <c r="N1" s="55" t="s">
+        <v>1689</v>
+      </c>
+      <c r="O1" s="55" t="s">
+        <v>1691</v>
+      </c>
+      <c r="P1" s="55" t="s">
+        <v>1690</v>
+      </c>
+      <c r="Q1" s="55" t="s">
+        <v>1578</v>
+      </c>
+      <c r="R1" s="55" t="s">
+        <v>1573</v>
+      </c>
+      <c r="S1" s="55" t="s">
         <v>1572</v>
       </c>
-      <c r="E1" s="55" t="s">
-        <v>1570</v>
-      </c>
-      <c r="F1" s="55" t="s">
-        <v>1699</v>
-      </c>
-      <c r="G1" s="46" t="s">
-        <v>1576</v>
-      </c>
-      <c r="H1" s="46" t="s">
-        <v>1575</v>
-      </c>
-      <c r="I1" s="55" t="s">
-        <v>1577</v>
-      </c>
-      <c r="J1" s="55" t="s">
-        <v>1578</v>
-      </c>
-      <c r="K1" s="55" t="s">
-        <v>1689</v>
-      </c>
-      <c r="L1" s="55" t="s">
-        <v>1688</v>
-      </c>
-      <c r="M1" s="55" t="s">
-        <v>1690</v>
-      </c>
-      <c r="N1" s="55" t="s">
-        <v>1691</v>
-      </c>
-      <c r="O1" s="55" t="s">
+      <c r="T1" s="55" t="s">
         <v>1693</v>
-      </c>
-      <c r="P1" s="55" t="s">
-        <v>1692</v>
-      </c>
-      <c r="Q1" s="55" t="s">
-        <v>1579</v>
-      </c>
-      <c r="R1" s="55" t="s">
-        <v>1574</v>
-      </c>
-      <c r="S1" s="55" t="s">
-        <v>1573</v>
-      </c>
-      <c r="T1" s="55" t="s">
-        <v>1695</v>
       </c>
       <c r="U1" s="55"/>
     </row>
@@ -27465,44 +27506,44 @@
         <v>45787</v>
       </c>
       <c r="D2" s="64" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="E2" s="49" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="F2" s="49"/>
       <c r="G2" s="50"/>
       <c r="H2" s="50" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="I2" s="50"/>
       <c r="J2" s="50" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="K2" s="50" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="L2" s="50" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="M2" s="49" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="N2" s="49" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="O2" s="49" t="s">
-        <v>1685</v>
+        <v>1699</v>
       </c>
       <c r="P2" s="49" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="Q2" s="56" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="R2" s="50"/>
       <c r="S2" s="49" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="T2" s="49"/>
       <c r="U2" s="49"/>
@@ -27516,15 +27557,15 @@
       </c>
       <c r="C3" s="31"/>
       <c r="D3" s="10" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="E3" s="49" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="F3" s="49"/>
       <c r="G3" s="50"/>
       <c r="H3" s="50" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="I3" s="50"/>
       <c r="J3" s="50"/>
@@ -27551,23 +27592,23 @@
         <v>45793</v>
       </c>
       <c r="D4" s="64" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="E4" s="49" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="F4" s="49"/>
       <c r="G4" s="50">
         <v>1</v>
       </c>
       <c r="H4" s="50" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="I4" s="50">
         <v>1</v>
       </c>
       <c r="J4" s="50" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="K4" s="50"/>
       <c r="L4" s="50"/>
@@ -27576,18 +27617,18 @@
       <c r="O4" s="50"/>
       <c r="P4" s="50"/>
       <c r="Q4" s="56" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="R4" s="50">
         <v>1</v>
       </c>
       <c r="S4" s="50" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="T4" s="50"/>
       <c r="U4" s="50"/>
     </row>
-    <row r="5" spans="1:21" ht="384.75">
+    <row r="5" spans="1:21" ht="213.75">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -27596,39 +27637,39 @@
       </c>
       <c r="C5" s="31"/>
       <c r="D5" s="10" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="E5" s="49" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="F5" s="49" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
       <c r="G5" s="44"/>
       <c r="H5" s="45" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="I5" s="50"/>
       <c r="J5" s="44" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="K5" s="44"/>
       <c r="L5" s="50"/>
-      <c r="M5" s="45" t="s">
-        <v>1697</v>
-      </c>
-      <c r="N5" s="44" t="s">
-        <v>1696</v>
-      </c>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="50" t="s">
+        <v>1698</v>
+      </c>
+      <c r="P5" s="45" t="s">
+        <v>1700</v>
+      </c>
       <c r="Q5" s="57"/>
       <c r="R5" s="44"/>
       <c r="S5" s="44" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="T5" s="45" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="U5" s="44"/>
     </row>
@@ -27704,6 +27745,7 @@
       </c>
       <c r="B9" s="31"/>
       <c r="C9" s="31"/>
+      <c r="E9" s="49"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
       <c r="I9" s="44"/>
@@ -28146,10 +28188,10 @@
     <row r="1" spans="1:5">
       <c r="A1" s="7"/>
       <c r="B1" s="8" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="C1" s="58" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="D1" s="8"/>
       <c r="E1" s="7"/>
@@ -28157,66 +28199,66 @@
     <row r="2" spans="1:5">
       <c r="A2" s="7"/>
       <c r="B2" s="7" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="C2" s="59" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="7"/>
       <c r="B3" s="7" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="7"/>
       <c r="B4" s="7" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="C4" s="59" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="7"/>
       <c r="B5" s="7" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="7"/>
       <c r="B6" s="7" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -28224,27 +28266,27 @@
     <row r="7" spans="1:5">
       <c r="A7" s="7"/>
       <c r="B7" s="7" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="7"/>
       <c r="B8" s="66" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="D8" t="s">
         <v>45</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -28252,18 +28294,18 @@
       <c r="B9" s="67"/>
       <c r="C9" s="68"/>
       <c r="D9" s="7" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="7"/>
       <c r="B10" s="66" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="E10" s="7"/>
     </row>
@@ -28272,10 +28314,10 @@
       <c r="B11" s="68"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="E11" s="60" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -28283,10 +28325,10 @@
       <c r="B12" s="61"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="E12" s="63" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -28294,19 +28336,19 @@
       <c r="B13" s="61"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="E13" s="63" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="7"/>
       <c r="B14" s="7" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="C14" s="59" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -28320,36 +28362,36 @@
     <row r="16" spans="1:5">
       <c r="A16" s="7"/>
       <c r="B16" s="7" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="C16" s="59" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="7"/>
       <c r="B17" s="7" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="C17" s="59" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="7"/>
       <c r="B18" s="7" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="C18" s="59" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -28357,27 +28399,27 @@
     <row r="19" spans="1:5">
       <c r="A19" s="7"/>
       <c r="B19" s="7" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="7"/>
       <c r="B20" s="69" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="C20" s="71" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -28394,18 +28436,18 @@
       <c r="B22" s="69"/>
       <c r="C22" s="69"/>
       <c r="D22" s="33" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="7"/>
       <c r="B23" s="66" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="C23" s="32"/>
       <c r="D23" s="33" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="E23" s="7"/>
     </row>
@@ -28414,10 +28456,10 @@
       <c r="B24" s="67"/>
       <c r="C24" s="32"/>
       <c r="D24" s="33" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="E24" s="60" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -28425,10 +28467,10 @@
       <c r="B25" s="67"/>
       <c r="C25" s="32"/>
       <c r="D25" s="33" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="E25" s="60" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -28436,19 +28478,19 @@
       <c r="B26" s="68"/>
       <c r="C26" s="7"/>
       <c r="D26" s="33" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="E26" s="60" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="7"/>
       <c r="B27" s="7" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="C27" s="59" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -28469,26 +28511,26 @@
     </row>
     <row r="31" spans="1:5">
       <c r="B31" s="8" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="C31" s="58" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:5">
       <c r="C32" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
     </row>
   </sheetData>
@@ -28504,4 +28546,32 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7E6CE87-1049-436D-9CE0-C1A75D10BC35}">
+  <dimension ref="A1:W1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:W1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="23" width="9" style="73"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="72" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:W1048576"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Full-stack-development-engineer.xlsx
+++ b/Full-stack-development-engineer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Gitee\Full-stack-development-engineer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06587ED-7F49-4D47-A858-B254897E7D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E826A4-737A-4C8A-BF90-9682A766E631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="9" xr2:uid="{E3B634D7-B615-4A49-884A-554A3ABF371D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="12" xr2:uid="{E3B634D7-B615-4A49-884A-554A3ABF371D}"/>
   </bookViews>
   <sheets>
     <sheet name="用户前端" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,12 @@
     <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
     <sheet name="Sheet2" sheetId="9" r:id="rId9"/>
     <sheet name="接口文档" sheetId="10" r:id="rId10"/>
+    <sheet name="部署上线" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet4" sheetId="12" r:id="rId12"/>
+    <sheet name="添加路由权限" sheetId="13" r:id="rId13"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Sheet4!$A$1:$C$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">接口文档!$A$1:$H$316</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">数据库!$A$1:$G$1493</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5">需求!$A$1:$S$25</definedName>
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4909" uniqueCount="2367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5020" uniqueCount="2438">
   <si>
     <t>技术选型</t>
   </si>
@@ -7546,9 +7550,6 @@
     <t>获取手机号对应公司</t>
   </si>
   <si>
-    <t>/api/api/v1/company/getUserValidCompanys/*</t>
-  </si>
-  <si>
     <t>获取用户扩展信息</t>
   </si>
   <si>
@@ -8110,9 +8111,6 @@
     <t>获取用户授权店铺信息</t>
   </si>
   <si>
-    <t>/api/api/v1/companyStoreUser/userAll</t>
-  </si>
-  <si>
     <t>授权店铺</t>
   </si>
   <si>
@@ -8152,9 +8150,6 @@
     <t>获取公司设置详情</t>
   </si>
   <si>
-    <t>/api/api/v1/company/*</t>
-  </si>
-  <si>
     <t>更新公司设置</t>
   </si>
   <si>
@@ -8807,9 +8802,6 @@
   </si>
   <si>
     <t>获取门店配置</t>
-  </si>
-  <si>
-    <t>/api/api/v1/store-config/category</t>
   </si>
   <si>
     <t>AI项目测试接口</t>
@@ -9272,6 +9264,397 @@
   </si>
   <si>
     <t>/api/api/v1/orderDetail/order/FD17476385274092452?phone=13061656199</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺活动 -教练陪打点进去的详情接口 - 用户报名列表- 地址接口 -即可报名- 确认支付报名支付接口
+体验课  - 课程订单列表接口- - 用户报名列表- 地址接口 -即可报名- 确认支付报名支付接口
+服务课程
+我的订单  - 详情接口 -激活接口 -退款接口
+我的约课 - 即可报名接口 - 店铺列表xx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sport-server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.前端H5对应的接口梳理，Apifox：小程序用户端项目
+2.接口文档整理，Apifox：小程序用户端项目
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部署状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部署上线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部署分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部署负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部署时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订场成功消息</t>
+  </si>
+  <si>
+    <t>订场取消消息</t>
+  </si>
+  <si>
+    <t>用户课券不足消息</t>
+  </si>
+  <si>
+    <t>取消课程审批消息</t>
+  </si>
+  <si>
+    <t>用户约课成功消息</t>
+  </si>
+  <si>
+    <t>用户约课取消消息</t>
+  </si>
+  <si>
+    <t>每周用户课券使用提醒</t>
+  </si>
+  <si>
+    <t>每周已约课上课提醒</t>
+  </si>
+  <si>
+    <t>订场第三方同步到小程序冲突提醒</t>
+  </si>
+  <si>
+    <t>订场同步到第三方失败提醒</t>
+  </si>
+  <si>
+    <t>教练未签到提醒</t>
+  </si>
+  <si>
+    <t>增值服务次数不足提醒</t>
+  </si>
+  <si>
+    <t>field_success_msg</t>
+  </si>
+  <si>
+    <t>field_cancel_msg</t>
+  </si>
+  <si>
+    <t>user_coupon_less_msg</t>
+  </si>
+  <si>
+    <t>cancel_grade_audit_msg</t>
+  </si>
+  <si>
+    <t>grade_enroll_success_msg</t>
+  </si>
+  <si>
+    <t>grade_enroll_cancel_msg</t>
+  </si>
+  <si>
+    <t>week_grade_coupon_msg</t>
+  </si>
+  <si>
+    <t>week_grade_msg</t>
+  </si>
+  <si>
+    <t>field_sync_conflict_msg</t>
+  </si>
+  <si>
+    <t>field_sync_platform_fail</t>
+  </si>
+  <si>
+    <t>un_sign_msg</t>
+  </si>
+  <si>
+    <t>charging_no_value_msg</t>
+  </si>
+  <si>
+    <t>2.企业微信-文档-增值服务表
+每个服务，具体有哪些收费服务，登录验证码
+sport_charging_option
+sport_message_config
+sport_message_option
+助理机器人同步可以先不管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订场同步</t>
+  </si>
+  <si>
+    <t>智能助理</t>
+  </si>
+  <si>
+    <t>短信</t>
+  </si>
+  <si>
+    <t>服务号消息</t>
+  </si>
+  <si>
+    <t>系统经营提醒消息</t>
+  </si>
+  <si>
+    <t>小程序消息</t>
+  </si>
+  <si>
+    <t>FIELD_SYNC</t>
+  </si>
+  <si>
+    <t>AI_ASSISTANT</t>
+  </si>
+  <si>
+    <t>SMS</t>
+  </si>
+  <si>
+    <t>MP_MSG</t>
+  </si>
+  <si>
+    <t>SYSTEM_OPERATE</t>
+  </si>
+  <si>
+    <t>MINI_APP_MSG</t>
+  </si>
+  <si>
+    <t>系统消息</t>
+  </si>
+  <si>
+    <t>微信公众号消息</t>
+  </si>
+  <si>
+    <t>微信小程序消息</t>
+  </si>
+  <si>
+    <t>Axure RP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoreConfigController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoreConfigService
+获取店铺配置getStoreConfig
+获取店铺配置列表getStoreConfigList
+保存或者更新字典配置saveOrUpdateStoreConfig
+根据code获取所有门店的字典配置getAllStoreDictByCode
+获取公司配置getCompanyStoreConfig
+获取公司所有配置getAllCompanyConfig
+更新公司配置updateCompanyStoreConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">StoreConfigServiceImpl
+获取店铺配置getStoreConfig
+获取公司配置getCompanyStoreConfig
+获取公司所有配置getAllCompanyConfig
+获取店铺配置列表getStoreConfigList
+保存或者更新字典配置saveOrUpdateStoreConfig
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>更新公司配置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>updateCompanyStoreConfig
+根据code获取所有门店的字典配置getAllStoreDictByCode</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/api/v1/company/126</t>
+  </si>
+  <si>
+    <t>{"code":2000,"message":"ok","msg":"ok","data":{"createDate":1703340457000,"updateDate":1746762852000,"status":1,"name":"上海趣数体育","id":126,"address":"上海市闵行区吴中路588号","legalName":"蔡琦华","brandName":"趣数体育","brandLogo":"exercise/1736587431060.png","provinceId":5,"cityId":8,"regionId":41,"tel":"15000699768","companyType":1,"businessLicense":null,"miniAppPayId":"wxe267b90015e11ac8","miniAppId":"wxe267b90015e11ac8","mpAppId":"wx70ab1f1bc531436f","beforeBookingMinutes":1,"vipAgreementTemplate":null,"gradeAgreementTemplate":"tm_ke_le.docx","invoiceContents":"场地费,羽毛球服务,乒乓服务,体育活动组织","cancelGradeMinutes":60,"fieldBookNums":4,"balance":100.00,"huiFuId":"6666000167528359","huiFuFieldId":"6666000167003324","payType":"hf","appointmentCoachLimit":0,"cancelBookingDays":1}}</t>
+  </si>
+  <si>
+    <t>/api/api/v1/message/menu-number/874</t>
+  </si>
+  <si>
+    <t>{"code":2000,"message":"ok","msg":"ok","data":{}}</t>
+  </si>
+  <si>
+    <t>/api/api/v1/company/getUserValidCompanys/15001812602</t>
+  </si>
+  <si>
+    <t>{"code":2000,"message":"ok","msg":"ok","data":[{"id":126,"name":"上海趣数体育","status":1,"createDate":"2023-12-23 22:07:37","address":"上海市闵行区吴中路588号"},{"id":127,"name":"上海跃动城邦体育管理有限公司","status":1,"createDate":"2024-09-25 12:54:15","address":"上海市闵行区吴中路588号"}]}</t>
+  </si>
+  <si>
+    <t>获取店铺配置getByDictCodeAndStoreId
+获取店铺配置列表getStoreConfigList
+保存或者更新字典配置saveOneSysDict
+获取公司配置getCompanyStoreConfig
+获取公司所有配置getAllCompanyConfig
+更新公司配置updateCompanyStoreConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/api/v1/companyStoreUser/userAll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/api/v1/company/getUserValidCompanys/*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/api/v1/company/*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/api/v1/store-config/category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web管理端，生成临时趣数演示账号，供客户使用
+1.新增演示账号列表 'sport_company_store_user‘
+store_id 关联’sport_user‘
+2.字段： name，username，phone，账号有效期，
+创建时间
+3.右下角增加：新增按钮
+4.点击新增，弹窗弹出直接生成临时账号：用户名+密码
+账号的有效期1天
+5.昵称：临时账户
+username：随机字符串，长度6个字符
+密码：随机，长度6个字符，密码只回显一次
+手机号码：00开头的随机11位数字
+6.账号生成后，自动添加高级管理员角色
+’sport_role_user‘
+7.自动添加授权店铺
+’sport_company_store_user‘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.商户前端，设置-系统设置-店铺设置，公司设置
+2.sport_sys_config，增加店铺设置
+3.根据消息设置一样，查出来，返回前端
+4.点到具体某个设置，点进数字类型，value回显上去，用户可以改，后端返回,弹窗标题，调保存接口，integer，数字
+5.布尔值，下拉框，string类型，输入框
+6.设置描述的展示，针对设置是干什么用的
+7.后端接口：查询，更新实现，Apifox接口汇总
+8.权限授权：系统前端，创建权限，创建菜单，角色更新
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sport_role_user  授权表
+id
+user_id
+role_code
+store_id
+company_id
+status
+create_date
+update_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sport_company_store_user   用户表
+id
+user_id
+company_id
+store_id
+status
+create_date
+update_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">sport_user 演示账号列表
+id
+name
+username
+password
+head
+introduction
+open_id
+union_id
+country
+phone
+province
+city
+gender
+permissions
+status
+account_expired_time
+credentials_expired
+create_date
+update_date
+recommend_code
+total_balance
+total_income
+integral
+balance
+creator_id
+mail
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_user   SysUser
+sport_company_store_user---CompanyStoreUser
+sport_role_user---RoleUser
+sport_user--User</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoleController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saveRole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getUserByCreatorId
+userService
+sport_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userServiceImpl
+        List&lt;Store&gt; stores = storeService.getByAPPId("wxe267b90015e11ac8");
+        Store store = stores.stream()
+                .findFirst()  // 取第一个元素
+                .orElseThrow(() -&gt; new RuntimeException("店铺未找到"));
+//        BeanUtils.copyProperties(stores.get(0), store);  // 复制同名属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称：趣数小程序临时用户
+编号：web-user-manager-temp-account-list
+路径：temp-account-list
+优先级：2
+组件名称：user/temp-list
+元信息：{"icon":"list","title":"趣数临时用户列表"}
+菜单类型：web管理端菜单
+【系统前端】创建临时账户【0.2】</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9279,7 +9662,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="48">
+  <fonts count="49">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9588,6 +9971,15 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -9633,7 +10025,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -9719,6 +10111,86 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -9728,7 +10200,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9975,6 +10447,9 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -9997,6 +10472,33 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -11275,8 +11777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4DD480B-9CAA-4BD4-88D4-BD5D910FB9FC}">
   <dimension ref="A1:L316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11300,7 +11802,7 @@
         <v>46</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>2312</v>
+        <v>2308</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>124</v>
@@ -11324,7 +11826,7 @@
         <v>1712</v>
       </c>
       <c r="C2" s="70" t="s">
-        <v>2315</v>
+        <v>2311</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>1731</v>
@@ -11349,7 +11851,7 @@
         <v>1732</v>
       </c>
       <c r="C3" s="70" t="s">
-        <v>2315</v>
+        <v>2311</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>1733</v>
@@ -11374,7 +11876,7 @@
         <v>1734</v>
       </c>
       <c r="C4" s="76" t="s">
-        <v>2313</v>
+        <v>2309</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>1735</v>
@@ -11399,7 +11901,7 @@
         <v>1736</v>
       </c>
       <c r="C5" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>1737</v>
@@ -11417,7 +11919,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="75" t="s">
-        <v>2350</v>
+        <v>2346</v>
       </c>
       <c r="J5" s="75"/>
     </row>
@@ -11429,7 +11931,7 @@
         <v>1738</v>
       </c>
       <c r="C6" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>1739</v>
@@ -11447,7 +11949,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="75" t="s">
-        <v>2349</v>
+        <v>2345</v>
       </c>
       <c r="J6" s="75"/>
     </row>
@@ -11459,13 +11961,13 @@
         <v>1740</v>
       </c>
       <c r="C7" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>1741</v>
       </c>
       <c r="E7" s="81" t="s">
-        <v>2347</v>
+        <v>2343</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>1729</v>
@@ -11477,7 +11979,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="75" t="s">
-        <v>2348</v>
+        <v>2344</v>
       </c>
       <c r="J7" s="75"/>
     </row>
@@ -11489,7 +11991,7 @@
         <v>1742</v>
       </c>
       <c r="C8" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>1743</v>
@@ -11514,7 +12016,7 @@
         <v>1744</v>
       </c>
       <c r="C9" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>1745</v>
@@ -11539,13 +12041,13 @@
         <v>1746</v>
       </c>
       <c r="C10" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>2316</v>
+        <v>2312</v>
       </c>
       <c r="E10" s="81" t="s">
-        <v>2351</v>
+        <v>2347</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>1729</v>
@@ -11557,7 +12059,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="75" t="s">
-        <v>2318</v>
+        <v>2314</v>
       </c>
       <c r="J10" s="75"/>
     </row>
@@ -11569,7 +12071,7 @@
         <v>1747</v>
       </c>
       <c r="C11" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>1748</v>
@@ -11584,7 +12086,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="75" t="s">
-        <v>2319</v>
+        <v>2315</v>
       </c>
       <c r="J11" s="75"/>
     </row>
@@ -11596,7 +12098,7 @@
         <v>1749</v>
       </c>
       <c r="C12" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>1750</v>
@@ -11614,7 +12116,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="75" t="s">
-        <v>2343</v>
+        <v>2339</v>
       </c>
       <c r="J12" s="75"/>
     </row>
@@ -11626,13 +12128,13 @@
         <v>1751</v>
       </c>
       <c r="C13" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>1752</v>
       </c>
       <c r="E13" s="81" t="s">
-        <v>2331</v>
+        <v>2327</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>1729</v>
@@ -11644,7 +12146,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="75" t="s">
-        <v>2320</v>
+        <v>2316</v>
       </c>
       <c r="J13" s="75"/>
     </row>
@@ -11656,7 +12158,7 @@
         <v>1753</v>
       </c>
       <c r="C14" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>1754</v>
@@ -11681,7 +12183,7 @@
         <v>1755</v>
       </c>
       <c r="C15" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>1756</v>
@@ -11702,11 +12204,11 @@
       <c r="A16" s="10">
         <v>16</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="8" t="s">
         <v>1757</v>
       </c>
       <c r="C16" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>1758</v>
@@ -11728,16 +12230,16 @@
         <v>17</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>2321</v>
+        <v>2317</v>
       </c>
       <c r="C17" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>1759</v>
       </c>
       <c r="E17" s="81" t="s">
-        <v>2333</v>
+        <v>2329</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>1729</v>
@@ -11749,7 +12251,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="75" t="s">
-        <v>2334</v>
+        <v>2330</v>
       </c>
       <c r="J17" s="75"/>
     </row>
@@ -11761,13 +12263,13 @@
         <v>1760</v>
       </c>
       <c r="C18" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>1761</v>
       </c>
       <c r="E18" s="81" t="s">
-        <v>2338</v>
+        <v>2334</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>1729</v>
@@ -11779,7 +12281,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="75" t="s">
-        <v>2327</v>
+        <v>2323</v>
       </c>
       <c r="J18" s="75"/>
     </row>
@@ -11791,13 +12293,13 @@
         <v>1707</v>
       </c>
       <c r="C19" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>1762</v>
       </c>
       <c r="E19" s="81" t="s">
-        <v>2336</v>
+        <v>2332</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>1729</v>
@@ -11809,7 +12311,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="75" t="s">
-        <v>2337</v>
+        <v>2333</v>
       </c>
       <c r="J19" s="75"/>
     </row>
@@ -11821,13 +12323,13 @@
         <v>1763</v>
       </c>
       <c r="C20" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>1764</v>
       </c>
       <c r="E20" s="81" t="s">
-        <v>2344</v>
+        <v>2340</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>1729</v>
@@ -11839,7 +12341,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="81" t="s">
-        <v>2327</v>
+        <v>2323</v>
       </c>
       <c r="J20" s="75"/>
     </row>
@@ -11851,7 +12353,7 @@
         <v>1765</v>
       </c>
       <c r="C21" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>1766</v>
@@ -11876,13 +12378,13 @@
         <v>1767</v>
       </c>
       <c r="C22" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>1768</v>
       </c>
       <c r="E22" s="81" t="s">
-        <v>2352</v>
+        <v>2348</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>1729</v>
@@ -11894,7 +12396,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="75" t="s">
-        <v>2323</v>
+        <v>2319</v>
       </c>
       <c r="J22" s="75"/>
     </row>
@@ -11906,7 +12408,7 @@
         <v>1769</v>
       </c>
       <c r="C23" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>1770</v>
@@ -11931,13 +12433,13 @@
         <v>1771</v>
       </c>
       <c r="C24" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>1772</v>
       </c>
       <c r="E24" s="81" t="s">
-        <v>2339</v>
+        <v>2335</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>1729</v>
@@ -11949,7 +12451,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="75" t="s">
-        <v>2323</v>
+        <v>2319</v>
       </c>
       <c r="J24" s="75"/>
     </row>
@@ -11961,7 +12463,7 @@
         <v>1773</v>
       </c>
       <c r="C25" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>1774</v>
@@ -11986,13 +12488,13 @@
         <v>1775</v>
       </c>
       <c r="C26" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>1776</v>
       </c>
       <c r="E26" s="81" t="s">
-        <v>2366</v>
+        <v>2362</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>1729</v>
@@ -12004,7 +12506,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="75" t="s">
-        <v>2355</v>
+        <v>2351</v>
       </c>
       <c r="J26" s="75"/>
     </row>
@@ -12016,13 +12518,13 @@
         <v>1777</v>
       </c>
       <c r="C27" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D27" s="66" t="s">
-        <v>2317</v>
+        <v>2313</v>
       </c>
       <c r="E27" s="81" t="s">
-        <v>2345</v>
+        <v>2341</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>1729</v>
@@ -12034,7 +12536,7 @@
         <v>1</v>
       </c>
       <c r="I27" s="75" t="s">
-        <v>2346</v>
+        <v>2342</v>
       </c>
       <c r="J27" s="75"/>
     </row>
@@ -12046,7 +12548,7 @@
         <v>1704</v>
       </c>
       <c r="C28" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>1778</v>
@@ -12071,7 +12573,7 @@
         <v>1779</v>
       </c>
       <c r="C29" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>1780</v>
@@ -12096,7 +12598,7 @@
         <v>1781</v>
       </c>
       <c r="C30" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>1782</v>
@@ -12121,7 +12623,7 @@
         <v>1784</v>
       </c>
       <c r="C31" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>1785</v>
@@ -12146,13 +12648,13 @@
         <v>1786</v>
       </c>
       <c r="C32" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>1787</v>
       </c>
       <c r="E32" s="81" t="s">
-        <v>2341</v>
+        <v>2337</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>1729</v>
@@ -12164,7 +12666,7 @@
         <v>1</v>
       </c>
       <c r="I32" s="75" t="s">
-        <v>2342</v>
+        <v>2338</v>
       </c>
       <c r="J32" s="75"/>
     </row>
@@ -12176,7 +12678,7 @@
         <v>1788</v>
       </c>
       <c r="C33" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>1789</v>
@@ -12194,7 +12696,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="75" t="s">
-        <v>2353</v>
+        <v>2349</v>
       </c>
       <c r="J33" s="75"/>
     </row>
@@ -12206,13 +12708,13 @@
         <v>1790</v>
       </c>
       <c r="C34" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>1791</v>
       </c>
       <c r="E34" s="81" t="s">
-        <v>2340</v>
+        <v>2336</v>
       </c>
       <c r="F34" s="33" t="s">
         <v>1783</v>
@@ -12224,7 +12726,7 @@
         <v>1</v>
       </c>
       <c r="I34" s="75" t="s">
-        <v>2335</v>
+        <v>2331</v>
       </c>
       <c r="J34" s="75"/>
     </row>
@@ -12236,7 +12738,7 @@
         <v>1792</v>
       </c>
       <c r="C35" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>1793</v>
@@ -12257,14 +12759,17 @@
       <c r="A36" s="10">
         <v>44</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="8" t="s">
         <v>1794</v>
       </c>
       <c r="C36" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>1795</v>
+        <v>2423</v>
+      </c>
+      <c r="E36" s="81" t="s">
+        <v>2419</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>1729</v>
@@ -12275,7 +12780,9 @@
       <c r="H36" s="7">
         <v>1</v>
       </c>
-      <c r="I36" s="75"/>
+      <c r="I36" s="75" t="s">
+        <v>2420</v>
+      </c>
       <c r="J36" s="75"/>
     </row>
     <row r="37" spans="1:10">
@@ -12283,13 +12790,13 @@
         <v>45</v>
       </c>
       <c r="B37" s="33" t="s">
+        <v>1795</v>
+      </c>
+      <c r="C37" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>1796</v>
-      </c>
-      <c r="C37" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>1797</v>
       </c>
       <c r="E37" s="81"/>
       <c r="F37" s="7" t="s">
@@ -12309,13 +12816,13 @@
         <v>46</v>
       </c>
       <c r="B38" s="7" t="s">
+        <v>1797</v>
+      </c>
+      <c r="C38" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>1798</v>
-      </c>
-      <c r="C38" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>1799</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>1729</v>
@@ -12334,13 +12841,13 @@
         <v>47</v>
       </c>
       <c r="B39" s="7" t="s">
+        <v>1799</v>
+      </c>
+      <c r="C39" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>1800</v>
-      </c>
-      <c r="C39" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>1801</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>1729</v>
@@ -12359,13 +12866,13 @@
         <v>48</v>
       </c>
       <c r="B40" s="7" t="s">
+        <v>1801</v>
+      </c>
+      <c r="C40" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>1802</v>
-      </c>
-      <c r="C40" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>1803</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>1729</v>
@@ -12384,13 +12891,13 @@
         <v>51</v>
       </c>
       <c r="B41" s="7" t="s">
+        <v>1803</v>
+      </c>
+      <c r="C41" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>1804</v>
-      </c>
-      <c r="C41" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>1805</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>1729</v>
@@ -12409,13 +12916,13 @@
         <v>52</v>
       </c>
       <c r="B42" s="7" t="s">
+        <v>1805</v>
+      </c>
+      <c r="C42" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>1806</v>
-      </c>
-      <c r="C42" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>1807</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>1729</v>
@@ -12434,13 +12941,13 @@
         <v>53</v>
       </c>
       <c r="B43" s="7" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C43" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>1808</v>
-      </c>
-      <c r="C43" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>1809</v>
       </c>
       <c r="F43" s="30" t="s">
         <v>1725</v>
@@ -12459,13 +12966,13 @@
         <v>54</v>
       </c>
       <c r="B44" s="7" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C44" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>1810</v>
-      </c>
-      <c r="C44" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>1811</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>1729</v>
@@ -12484,13 +12991,13 @@
         <v>55</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="C45" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="F45" s="30" t="s">
         <v>1725</v>
@@ -12509,13 +13016,13 @@
         <v>56</v>
       </c>
       <c r="B46" s="7" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C46" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D46" s="7" t="s">
         <v>1813</v>
-      </c>
-      <c r="C46" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>1814</v>
       </c>
       <c r="F46" s="33" t="s">
         <v>1783</v>
@@ -12534,16 +13041,16 @@
         <v>57</v>
       </c>
       <c r="B47" s="7" t="s">
+        <v>1814</v>
+      </c>
+      <c r="C47" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F47" s="77" t="s">
         <v>1815</v>
-      </c>
-      <c r="C47" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>1811</v>
-      </c>
-      <c r="F47" s="77" t="s">
-        <v>1816</v>
       </c>
       <c r="G47" s="7">
         <v>1</v>
@@ -12559,13 +13066,13 @@
         <v>58</v>
       </c>
       <c r="B48" s="7" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C48" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D48" s="7" t="s">
         <v>1817</v>
-      </c>
-      <c r="C48" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>1818</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>1729</v>
@@ -12584,13 +13091,13 @@
         <v>60</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="C49" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="F49" s="30" t="s">
         <v>1725</v>
@@ -12609,13 +13116,13 @@
         <v>61</v>
       </c>
       <c r="B50" s="7" t="s">
+        <v>1819</v>
+      </c>
+      <c r="C50" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D50" s="7" t="s">
         <v>1820</v>
-      </c>
-      <c r="C50" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>1821</v>
       </c>
       <c r="F50" s="33" t="s">
         <v>1783</v>
@@ -12634,13 +13141,13 @@
         <v>62</v>
       </c>
       <c r="B51" s="7" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C51" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D51" s="7" t="s">
         <v>1822</v>
-      </c>
-      <c r="C51" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>1823</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>1729</v>
@@ -12659,13 +13166,13 @@
         <v>63</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="C52" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="F52" s="30" t="s">
         <v>1725</v>
@@ -12684,16 +13191,16 @@
         <v>64</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="C53" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="F53" s="77" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="G53" s="7">
         <v>1</v>
@@ -12709,13 +13216,13 @@
         <v>65</v>
       </c>
       <c r="B54" s="7" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C54" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D54" s="7" t="s">
         <v>1826</v>
-      </c>
-      <c r="C54" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>1827</v>
       </c>
       <c r="F54" s="33" t="s">
         <v>1783</v>
@@ -12734,13 +13241,13 @@
         <v>66</v>
       </c>
       <c r="B55" s="7" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C55" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D55" s="7" t="s">
         <v>1828</v>
-      </c>
-      <c r="C55" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>1829</v>
       </c>
       <c r="F55" s="30" t="s">
         <v>1725</v>
@@ -12759,13 +13266,13 @@
         <v>67</v>
       </c>
       <c r="B56" s="7" t="s">
+        <v>1829</v>
+      </c>
+      <c r="C56" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D56" s="7" t="s">
         <v>1830</v>
-      </c>
-      <c r="C56" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>1831</v>
       </c>
       <c r="F56" s="30" t="s">
         <v>1725</v>
@@ -12784,13 +13291,13 @@
         <v>68</v>
       </c>
       <c r="B57" s="7" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C57" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D57" s="7" t="s">
         <v>1832</v>
-      </c>
-      <c r="C57" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>1833</v>
       </c>
       <c r="F57" s="30" t="s">
         <v>1725</v>
@@ -12809,13 +13316,13 @@
         <v>69</v>
       </c>
       <c r="B58" s="7" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C58" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D58" s="7" t="s">
         <v>1834</v>
-      </c>
-      <c r="C58" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>1835</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>1729</v>
@@ -12834,13 +13341,13 @@
         <v>70</v>
       </c>
       <c r="B59" s="7" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C59" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D59" s="7" t="s">
         <v>1836</v>
-      </c>
-      <c r="C59" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>1837</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>1729</v>
@@ -12859,13 +13366,13 @@
         <v>71</v>
       </c>
       <c r="B60" s="7" t="s">
+        <v>1837</v>
+      </c>
+      <c r="C60" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D60" s="7" t="s">
         <v>1838</v>
-      </c>
-      <c r="C60" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>1839</v>
       </c>
       <c r="F60" s="7" t="s">
         <v>1729</v>
@@ -12884,13 +13391,13 @@
         <v>72</v>
       </c>
       <c r="B61" s="7" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C61" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D61" s="7" t="s">
         <v>1840</v>
-      </c>
-      <c r="C61" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>1841</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>1729</v>
@@ -12909,13 +13416,13 @@
         <v>73</v>
       </c>
       <c r="B62" s="7" t="s">
+        <v>1841</v>
+      </c>
+      <c r="C62" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D62" s="7" t="s">
         <v>1842</v>
-      </c>
-      <c r="C62" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>1843</v>
       </c>
       <c r="F62" s="7" t="s">
         <v>1729</v>
@@ -12934,13 +13441,13 @@
         <v>74</v>
       </c>
       <c r="B63" s="7" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C63" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D63" s="7" t="s">
         <v>1844</v>
-      </c>
-      <c r="C63" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>1845</v>
       </c>
       <c r="F63" s="30" t="s">
         <v>1725</v>
@@ -12959,13 +13466,13 @@
         <v>75</v>
       </c>
       <c r="B64" s="7" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C64" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D64" s="7" t="s">
         <v>1846</v>
-      </c>
-      <c r="C64" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>1847</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>1729</v>
@@ -12984,13 +13491,13 @@
         <v>78</v>
       </c>
       <c r="B65" s="7" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C65" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D65" s="7" t="s">
         <v>1848</v>
-      </c>
-      <c r="C65" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>1849</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>1729</v>
@@ -13009,13 +13516,13 @@
         <v>79</v>
       </c>
       <c r="B66" s="7" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C66" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D66" s="7" t="s">
         <v>1850</v>
-      </c>
-      <c r="C66" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>1851</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>1729</v>
@@ -13034,13 +13541,13 @@
         <v>82</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="C67" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="F67" s="33" t="s">
         <v>1783</v>
@@ -13059,13 +13566,13 @@
         <v>83</v>
       </c>
       <c r="B68" s="7" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C68" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D68" s="7" t="s">
         <v>1853</v>
-      </c>
-      <c r="C68" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>1854</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>1729</v>
@@ -13084,13 +13591,13 @@
         <v>84</v>
       </c>
       <c r="B69" s="7" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C69" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D69" s="7" t="s">
         <v>1855</v>
-      </c>
-      <c r="C69" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>1856</v>
       </c>
       <c r="F69" s="30" t="s">
         <v>1725</v>
@@ -13109,13 +13616,13 @@
         <v>85</v>
       </c>
       <c r="B70" s="33" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C70" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D70" s="7" t="s">
         <v>1857</v>
-      </c>
-      <c r="C70" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>1858</v>
       </c>
       <c r="F70" s="7" t="s">
         <v>1729</v>
@@ -13134,16 +13641,16 @@
         <v>87</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="C71" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="F71" s="77" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="G71" s="7">
         <v>1</v>
@@ -13159,13 +13666,13 @@
         <v>88</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="C72" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>1729</v>
@@ -13184,13 +13691,13 @@
         <v>89</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="C73" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="F73" s="30" t="s">
         <v>1725</v>
@@ -13209,16 +13716,16 @@
         <v>90</v>
       </c>
       <c r="B74" s="33" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C74" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D74" s="7" t="s">
         <v>1862</v>
       </c>
-      <c r="C74" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>1863</v>
-      </c>
       <c r="E74" s="81" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="F74" s="30" t="s">
         <v>1725</v>
@@ -13230,10 +13737,10 @@
         <v>1</v>
       </c>
       <c r="I74" s="75" t="s">
-        <v>2357</v>
+        <v>2353</v>
       </c>
       <c r="J74" s="81" t="s">
-        <v>2356</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -13241,13 +13748,13 @@
         <v>91</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="C75" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="F75" s="30" t="s">
         <v>1725</v>
@@ -13266,13 +13773,13 @@
         <v>92</v>
       </c>
       <c r="B76" s="7" t="s">
+        <v>1864</v>
+      </c>
+      <c r="C76" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D76" s="7" t="s">
         <v>1865</v>
-      </c>
-      <c r="C76" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>1866</v>
       </c>
       <c r="F76" s="7" t="s">
         <v>1729</v>
@@ -13291,16 +13798,16 @@
         <v>93</v>
       </c>
       <c r="B77" s="7" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C77" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D77" s="7" t="s">
         <v>1867</v>
       </c>
-      <c r="C77" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>1868</v>
-      </c>
       <c r="F77" s="77" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="G77" s="7">
         <v>1</v>
@@ -13316,16 +13823,16 @@
         <v>94</v>
       </c>
       <c r="B78" s="7" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C78" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D78" s="7" t="s">
         <v>1869</v>
       </c>
-      <c r="C78" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>1870</v>
-      </c>
       <c r="F78" s="77" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="G78" s="7">
         <v>1</v>
@@ -13341,13 +13848,13 @@
         <v>95</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="C79" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="F79" s="30" t="s">
         <v>1725</v>
@@ -13366,13 +13873,13 @@
         <v>96</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="C80" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="F80" s="33" t="s">
         <v>1783</v>
@@ -13391,13 +13898,13 @@
         <v>98</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="C81" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="F81" s="33" t="s">
         <v>1783</v>
@@ -13416,13 +13923,13 @@
         <v>99</v>
       </c>
       <c r="B82" s="7" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C82" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D82" s="7" t="s">
         <v>1874</v>
-      </c>
-      <c r="C82" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>1875</v>
       </c>
       <c r="F82" s="7" t="s">
         <v>1729</v>
@@ -13441,13 +13948,13 @@
         <v>104</v>
       </c>
       <c r="B83" s="7" t="s">
+        <v>1875</v>
+      </c>
+      <c r="C83" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D83" s="7" t="s">
         <v>1876</v>
-      </c>
-      <c r="C83" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>1877</v>
       </c>
       <c r="F83" s="33" t="s">
         <v>1783</v>
@@ -13466,16 +13973,16 @@
         <v>105</v>
       </c>
       <c r="B84" s="7" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C84" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D84" s="7" t="s">
         <v>1878</v>
       </c>
-      <c r="C84" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>1879</v>
-      </c>
       <c r="F84" s="77" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="G84" s="7">
         <v>1</v>
@@ -13491,13 +13998,13 @@
         <v>106</v>
       </c>
       <c r="B85" s="7" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C85" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D85" s="7" t="s">
         <v>1880</v>
-      </c>
-      <c r="C85" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>1881</v>
       </c>
       <c r="F85" s="30" t="s">
         <v>1725</v>
@@ -13516,13 +14023,13 @@
         <v>107</v>
       </c>
       <c r="B86" s="7" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C86" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D86" s="7" t="s">
         <v>1882</v>
-      </c>
-      <c r="C86" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>1883</v>
       </c>
       <c r="F86" s="7" t="s">
         <v>1729</v>
@@ -13541,13 +14048,13 @@
         <v>108</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="C87" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="F87" s="33" t="s">
         <v>1783</v>
@@ -13566,13 +14073,13 @@
         <v>109</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="C88" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="F88" s="7" t="s">
         <v>1729</v>
@@ -13591,13 +14098,13 @@
         <v>110</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="C89" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="F89" s="7" t="s">
         <v>1729</v>
@@ -13616,13 +14123,13 @@
         <v>115</v>
       </c>
       <c r="B90" s="7" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C90" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D90" s="7" t="s">
         <v>1887</v>
-      </c>
-      <c r="C90" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>1888</v>
       </c>
       <c r="F90" s="7" t="s">
         <v>1729</v>
@@ -13641,13 +14148,13 @@
         <v>116</v>
       </c>
       <c r="B91" s="7" t="s">
+        <v>1888</v>
+      </c>
+      <c r="C91" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D91" s="7" t="s">
         <v>1889</v>
-      </c>
-      <c r="C91" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>1890</v>
       </c>
       <c r="F91" s="7" t="s">
         <v>1729</v>
@@ -13666,13 +14173,13 @@
         <v>117</v>
       </c>
       <c r="B92" s="7" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C92" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D92" s="7" t="s">
         <v>1891</v>
-      </c>
-      <c r="C92" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>1892</v>
       </c>
       <c r="F92" s="30" t="s">
         <v>1725</v>
@@ -13691,13 +14198,13 @@
         <v>118</v>
       </c>
       <c r="B93" s="7" t="s">
+        <v>1892</v>
+      </c>
+      <c r="C93" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D93" s="7" t="s">
         <v>1893</v>
-      </c>
-      <c r="C93" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>1894</v>
       </c>
       <c r="F93" s="30" t="s">
         <v>1725</v>
@@ -13716,13 +14223,13 @@
         <v>119</v>
       </c>
       <c r="B94" s="7" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C94" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D94" s="7" t="s">
         <v>1895</v>
-      </c>
-      <c r="C94" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>1896</v>
       </c>
       <c r="F94" s="7" t="s">
         <v>1729</v>
@@ -13741,13 +14248,13 @@
         <v>120</v>
       </c>
       <c r="B95" s="7" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C95" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D95" s="7" t="s">
         <v>1897</v>
-      </c>
-      <c r="C95" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>1898</v>
       </c>
       <c r="F95" s="7" t="s">
         <v>1729</v>
@@ -13766,13 +14273,13 @@
         <v>121</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="C96" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="F96" s="30" t="s">
         <v>1725</v>
@@ -13791,13 +14298,13 @@
         <v>122</v>
       </c>
       <c r="B97" s="7" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C97" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D97" s="7" t="s">
         <v>1900</v>
-      </c>
-      <c r="C97" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D97" s="7" t="s">
-        <v>1901</v>
       </c>
       <c r="F97" s="7" t="s">
         <v>1729</v>
@@ -13816,13 +14323,13 @@
         <v>123</v>
       </c>
       <c r="B98" s="7" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C98" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D98" s="7" t="s">
         <v>1902</v>
-      </c>
-      <c r="C98" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D98" s="7" t="s">
-        <v>1903</v>
       </c>
       <c r="F98" s="7" t="s">
         <v>1729</v>
@@ -13841,13 +14348,13 @@
         <v>124</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="C99" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="F99" s="33" t="s">
         <v>1783</v>
@@ -13866,13 +14373,13 @@
         <v>125</v>
       </c>
       <c r="B100" s="7" t="s">
+        <v>1904</v>
+      </c>
+      <c r="C100" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D100" s="7" t="s">
         <v>1905</v>
-      </c>
-      <c r="C100" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D100" s="7" t="s">
-        <v>1906</v>
       </c>
       <c r="F100" s="7" t="s">
         <v>1729</v>
@@ -13891,13 +14398,13 @@
         <v>126</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="C101" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="F101" s="30" t="s">
         <v>1725</v>
@@ -13916,13 +14423,13 @@
         <v>127</v>
       </c>
       <c r="B102" s="7" t="s">
+        <v>1907</v>
+      </c>
+      <c r="C102" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D102" s="7" t="s">
         <v>1908</v>
-      </c>
-      <c r="C102" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D102" s="7" t="s">
-        <v>1909</v>
       </c>
       <c r="F102" s="7" t="s">
         <v>1729</v>
@@ -13941,13 +14448,13 @@
         <v>128</v>
       </c>
       <c r="B103" s="7" t="s">
+        <v>1909</v>
+      </c>
+      <c r="C103" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D103" s="7" t="s">
         <v>1910</v>
-      </c>
-      <c r="C103" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D103" s="7" t="s">
-        <v>1911</v>
       </c>
       <c r="F103" s="7" t="s">
         <v>1729</v>
@@ -13966,13 +14473,13 @@
         <v>129</v>
       </c>
       <c r="B104" s="7" t="s">
+        <v>1911</v>
+      </c>
+      <c r="C104" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D104" s="7" t="s">
         <v>1912</v>
-      </c>
-      <c r="C104" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D104" s="7" t="s">
-        <v>1913</v>
       </c>
       <c r="F104" s="30" t="s">
         <v>1725</v>
@@ -13991,13 +14498,13 @@
         <v>130</v>
       </c>
       <c r="B105" s="7" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C105" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D105" s="7" t="s">
         <v>1914</v>
-      </c>
-      <c r="C105" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D105" s="7" t="s">
-        <v>1915</v>
       </c>
       <c r="F105" s="30" t="s">
         <v>1725</v>
@@ -14016,13 +14523,13 @@
         <v>131</v>
       </c>
       <c r="B106" s="7" t="s">
+        <v>1915</v>
+      </c>
+      <c r="C106" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D106" s="7" t="s">
         <v>1916</v>
-      </c>
-      <c r="C106" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D106" s="7" t="s">
-        <v>1917</v>
       </c>
       <c r="F106" s="33" t="s">
         <v>1783</v>
@@ -14041,13 +14548,13 @@
         <v>132</v>
       </c>
       <c r="B107" s="7" t="s">
+        <v>1917</v>
+      </c>
+      <c r="C107" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D107" s="7" t="s">
         <v>1918</v>
-      </c>
-      <c r="C107" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D107" s="7" t="s">
-        <v>1919</v>
       </c>
       <c r="F107" s="7" t="s">
         <v>1729</v>
@@ -14066,13 +14573,13 @@
         <v>133</v>
       </c>
       <c r="B108" s="7" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C108" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D108" s="7" t="s">
         <v>1920</v>
-      </c>
-      <c r="C108" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D108" s="7" t="s">
-        <v>1921</v>
       </c>
       <c r="F108" s="33" t="s">
         <v>1783</v>
@@ -14091,13 +14598,13 @@
         <v>134</v>
       </c>
       <c r="B109" s="7" t="s">
+        <v>1921</v>
+      </c>
+      <c r="C109" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D109" s="7" t="s">
         <v>1922</v>
-      </c>
-      <c r="C109" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D109" s="7" t="s">
-        <v>1923</v>
       </c>
       <c r="F109" s="30" t="s">
         <v>1725</v>
@@ -14116,13 +14623,13 @@
         <v>135</v>
       </c>
       <c r="B110" s="7" t="s">
+        <v>1923</v>
+      </c>
+      <c r="C110" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D110" s="7" t="s">
         <v>1924</v>
-      </c>
-      <c r="C110" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D110" s="7" t="s">
-        <v>1925</v>
       </c>
       <c r="F110" s="30" t="s">
         <v>1725</v>
@@ -14141,13 +14648,13 @@
         <v>136</v>
       </c>
       <c r="B111" s="7" t="s">
+        <v>1925</v>
+      </c>
+      <c r="C111" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D111" s="7" t="s">
         <v>1926</v>
-      </c>
-      <c r="C111" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D111" s="7" t="s">
-        <v>1927</v>
       </c>
       <c r="F111" s="7" t="s">
         <v>1729</v>
@@ -14166,13 +14673,13 @@
         <v>137</v>
       </c>
       <c r="B112" s="7" t="s">
+        <v>1927</v>
+      </c>
+      <c r="C112" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D112" s="7" t="s">
         <v>1928</v>
-      </c>
-      <c r="C112" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D112" s="7" t="s">
-        <v>1929</v>
       </c>
       <c r="F112" s="33" t="s">
         <v>1783</v>
@@ -14191,13 +14698,13 @@
         <v>138</v>
       </c>
       <c r="B113" s="7" t="s">
+        <v>1929</v>
+      </c>
+      <c r="C113" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D113" s="7" t="s">
         <v>1930</v>
-      </c>
-      <c r="C113" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D113" s="7" t="s">
-        <v>1931</v>
       </c>
       <c r="F113" s="7" t="s">
         <v>1729</v>
@@ -14216,13 +14723,13 @@
         <v>139</v>
       </c>
       <c r="B114" s="7" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C114" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D114" s="7" t="s">
         <v>1932</v>
-      </c>
-      <c r="C114" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D114" s="7" t="s">
-        <v>1933</v>
       </c>
       <c r="F114" s="30" t="s">
         <v>1725</v>
@@ -14241,13 +14748,13 @@
         <v>140</v>
       </c>
       <c r="B115" s="7" t="s">
+        <v>1933</v>
+      </c>
+      <c r="C115" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D115" s="7" t="s">
         <v>1934</v>
-      </c>
-      <c r="C115" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D115" s="7" t="s">
-        <v>1935</v>
       </c>
       <c r="F115" s="7" t="s">
         <v>1729</v>
@@ -14266,13 +14773,13 @@
         <v>141</v>
       </c>
       <c r="B116" s="7" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C116" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D116" s="7" t="s">
         <v>1936</v>
-      </c>
-      <c r="C116" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D116" s="7" t="s">
-        <v>1937</v>
       </c>
       <c r="F116" s="7" t="s">
         <v>1729</v>
@@ -14291,13 +14798,13 @@
         <v>142</v>
       </c>
       <c r="B117" s="7" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C117" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D117" s="7" t="s">
         <v>1938</v>
-      </c>
-      <c r="C117" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D117" s="7" t="s">
-        <v>1939</v>
       </c>
       <c r="F117" s="7" t="s">
         <v>1729</v>
@@ -14316,13 +14823,13 @@
         <v>143</v>
       </c>
       <c r="B118" s="7" t="s">
+        <v>1939</v>
+      </c>
+      <c r="C118" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D118" s="7" t="s">
         <v>1940</v>
-      </c>
-      <c r="C118" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D118" s="7" t="s">
-        <v>1941</v>
       </c>
       <c r="F118" s="30" t="s">
         <v>1725</v>
@@ -14341,13 +14848,13 @@
         <v>144</v>
       </c>
       <c r="B119" s="7" t="s">
+        <v>1941</v>
+      </c>
+      <c r="C119" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D119" s="7" t="s">
         <v>1942</v>
-      </c>
-      <c r="C119" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D119" s="7" t="s">
-        <v>1943</v>
       </c>
       <c r="F119" s="7" t="s">
         <v>1729</v>
@@ -14366,13 +14873,13 @@
         <v>145</v>
       </c>
       <c r="B120" s="7" t="s">
+        <v>1943</v>
+      </c>
+      <c r="C120" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D120" s="7" t="s">
         <v>1944</v>
-      </c>
-      <c r="C120" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D120" s="7" t="s">
-        <v>1945</v>
       </c>
       <c r="F120" s="30" t="s">
         <v>1725</v>
@@ -14394,10 +14901,10 @@
         <v>1775</v>
       </c>
       <c r="C121" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="F121" s="7" t="s">
         <v>1729</v>
@@ -14416,13 +14923,13 @@
         <v>147</v>
       </c>
       <c r="B122" s="7" t="s">
+        <v>1946</v>
+      </c>
+      <c r="C122" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D122" s="7" t="s">
         <v>1947</v>
-      </c>
-      <c r="C122" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D122" s="7" t="s">
-        <v>1948</v>
       </c>
       <c r="F122" s="7" t="s">
         <v>1729</v>
@@ -14441,13 +14948,13 @@
         <v>148</v>
       </c>
       <c r="B123" s="7" t="s">
+        <v>1948</v>
+      </c>
+      <c r="C123" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D123" s="7" t="s">
         <v>1949</v>
-      </c>
-      <c r="C123" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D123" s="7" t="s">
-        <v>1950</v>
       </c>
       <c r="F123" s="30" t="s">
         <v>1725</v>
@@ -14466,13 +14973,13 @@
         <v>149</v>
       </c>
       <c r="B124" s="7" t="s">
+        <v>1950</v>
+      </c>
+      <c r="C124" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D124" s="7" t="s">
         <v>1951</v>
-      </c>
-      <c r="C124" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D124" s="7" t="s">
-        <v>1952</v>
       </c>
       <c r="F124" s="30" t="s">
         <v>1725</v>
@@ -14491,13 +14998,13 @@
         <v>150</v>
       </c>
       <c r="B125" s="7" t="s">
+        <v>1952</v>
+      </c>
+      <c r="C125" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D125" s="7" t="s">
         <v>1953</v>
-      </c>
-      <c r="C125" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D125" s="7" t="s">
-        <v>1954</v>
       </c>
       <c r="F125" s="30" t="s">
         <v>1725</v>
@@ -14516,13 +15023,13 @@
         <v>151</v>
       </c>
       <c r="B126" s="7" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C126" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D126" s="7" t="s">
         <v>1955</v>
-      </c>
-      <c r="C126" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D126" s="7" t="s">
-        <v>1956</v>
       </c>
       <c r="F126" s="30" t="s">
         <v>1725</v>
@@ -14541,13 +15048,13 @@
         <v>154</v>
       </c>
       <c r="B127" s="7" t="s">
+        <v>1956</v>
+      </c>
+      <c r="C127" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D127" s="7" t="s">
         <v>1957</v>
-      </c>
-      <c r="C127" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D127" s="7" t="s">
-        <v>1958</v>
       </c>
       <c r="F127" s="30" t="s">
         <v>1725</v>
@@ -14566,13 +15073,13 @@
         <v>155</v>
       </c>
       <c r="B128" s="7" t="s">
+        <v>1958</v>
+      </c>
+      <c r="C128" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D128" s="7" t="s">
         <v>1959</v>
-      </c>
-      <c r="C128" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D128" s="7" t="s">
-        <v>1960</v>
       </c>
       <c r="F128" s="30" t="s">
         <v>1725</v>
@@ -14591,13 +15098,13 @@
         <v>156</v>
       </c>
       <c r="B129" s="7" t="s">
+        <v>1960</v>
+      </c>
+      <c r="C129" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D129" s="7" t="s">
         <v>1961</v>
-      </c>
-      <c r="C129" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D129" s="7" t="s">
-        <v>1962</v>
       </c>
       <c r="F129" s="30" t="s">
         <v>1725</v>
@@ -14616,13 +15123,13 @@
         <v>157</v>
       </c>
       <c r="B130" s="7" t="s">
+        <v>1962</v>
+      </c>
+      <c r="C130" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D130" s="7" t="s">
         <v>1963</v>
-      </c>
-      <c r="C130" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D130" s="7" t="s">
-        <v>1964</v>
       </c>
       <c r="F130" s="30" t="s">
         <v>1725</v>
@@ -14641,13 +15148,13 @@
         <v>158</v>
       </c>
       <c r="B131" s="7" t="s">
+        <v>1964</v>
+      </c>
+      <c r="C131" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D131" s="7" t="s">
         <v>1965</v>
-      </c>
-      <c r="C131" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D131" s="7" t="s">
-        <v>1966</v>
       </c>
       <c r="F131" s="30" t="s">
         <v>1725</v>
@@ -14666,13 +15173,13 @@
         <v>159</v>
       </c>
       <c r="B132" s="7" t="s">
+        <v>1966</v>
+      </c>
+      <c r="C132" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D132" s="7" t="s">
         <v>1967</v>
-      </c>
-      <c r="C132" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D132" s="7" t="s">
-        <v>1968</v>
       </c>
       <c r="F132" s="7" t="s">
         <v>1729</v>
@@ -14691,16 +15198,16 @@
         <v>160</v>
       </c>
       <c r="B133" s="7" t="s">
+        <v>1968</v>
+      </c>
+      <c r="C133" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D133" s="7" t="s">
         <v>1969</v>
       </c>
-      <c r="C133" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D133" s="7" t="s">
-        <v>1970</v>
-      </c>
       <c r="F133" s="77" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="G133" s="7">
         <v>1</v>
@@ -14719,10 +15226,10 @@
         <v>278</v>
       </c>
       <c r="C134" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="F134" s="30" t="s">
         <v>1725</v>
@@ -14741,13 +15248,13 @@
         <v>162</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="C135" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="F135" s="7" t="s">
         <v>1729</v>
@@ -14766,13 +15273,13 @@
         <v>163</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="C136" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="F136" s="33" t="s">
         <v>1783</v>
@@ -14791,13 +15298,13 @@
         <v>164</v>
       </c>
       <c r="B137" s="7" t="s">
+        <v>1973</v>
+      </c>
+      <c r="C137" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D137" s="7" t="s">
         <v>1974</v>
-      </c>
-      <c r="C137" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D137" s="7" t="s">
-        <v>1975</v>
       </c>
       <c r="F137" s="7" t="s">
         <v>1729</v>
@@ -14816,13 +15323,13 @@
         <v>165</v>
       </c>
       <c r="B138" s="7" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C138" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D138" s="7" t="s">
         <v>1976</v>
-      </c>
-      <c r="C138" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D138" s="7" t="s">
-        <v>1977</v>
       </c>
       <c r="F138" s="7" t="s">
         <v>1729</v>
@@ -14841,13 +15348,13 @@
         <v>166</v>
       </c>
       <c r="B139" s="7" t="s">
+        <v>1977</v>
+      </c>
+      <c r="C139" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D139" s="7" t="s">
         <v>1978</v>
-      </c>
-      <c r="C139" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D139" s="7" t="s">
-        <v>1979</v>
       </c>
       <c r="F139" s="30" t="s">
         <v>1725</v>
@@ -14866,13 +15373,13 @@
         <v>167</v>
       </c>
       <c r="B140" s="7" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C140" s="76" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D140" s="7" t="s">
         <v>1980</v>
-      </c>
-      <c r="C140" s="76" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D140" s="7" t="s">
-        <v>1981</v>
       </c>
       <c r="F140" s="7" t="s">
         <v>1729</v>
@@ -14891,13 +15398,13 @@
         <v>168</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="C141" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>1983</v>
+        <v>2422</v>
       </c>
       <c r="F141" s="7" t="s">
         <v>1729</v>
@@ -14916,13 +15423,13 @@
         <v>169</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="C142" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="F142" s="30" t="s">
         <v>1725</v>
@@ -14941,13 +15448,13 @@
         <v>170</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="C143" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="F143" s="7" t="s">
         <v>1729</v>
@@ -14966,13 +15473,13 @@
         <v>172</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="C144" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="F144" s="7" t="s">
         <v>1729</v>
@@ -14991,13 +15498,13 @@
         <v>173</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="C145" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="F145" s="7" t="s">
         <v>1729</v>
@@ -15016,13 +15523,13 @@
         <v>174</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="C146" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="F146" s="30" t="s">
         <v>1725</v>
@@ -15041,16 +15548,16 @@
         <v>175</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="C147" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="F147" s="77" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="G147" s="7">
         <v>1</v>
@@ -15065,14 +15572,17 @@
       <c r="A148" s="10">
         <v>176</v>
       </c>
-      <c r="B148" s="7" t="s">
-        <v>1996</v>
+      <c r="B148" s="8" t="s">
+        <v>1994</v>
       </c>
       <c r="C148" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>1997</v>
+        <v>2424</v>
+      </c>
+      <c r="E148" s="81" t="s">
+        <v>2415</v>
       </c>
       <c r="F148" s="7" t="s">
         <v>1729</v>
@@ -15083,21 +15593,26 @@
       <c r="H148" s="7">
         <v>1</v>
       </c>
-      <c r="I148" s="75"/>
+      <c r="I148" s="75" t="s">
+        <v>2416</v>
+      </c>
       <c r="J148" s="75"/>
     </row>
     <row r="149" spans="1:10">
       <c r="A149" s="10">
         <v>177</v>
       </c>
-      <c r="B149" s="7" t="s">
-        <v>1998</v>
+      <c r="B149" s="8" t="s">
+        <v>1995</v>
       </c>
       <c r="C149" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>1999</v>
+        <v>1996</v>
+      </c>
+      <c r="E149" s="81" t="s">
+        <v>1996</v>
       </c>
       <c r="F149" s="33" t="s">
         <v>1783</v>
@@ -15108,7 +15623,9 @@
       <c r="H149" s="7">
         <v>1</v>
       </c>
-      <c r="I149" s="75"/>
+      <c r="I149" s="75" t="s">
+        <v>2331</v>
+      </c>
       <c r="J149" s="75"/>
     </row>
     <row r="150" spans="1:10">
@@ -15116,13 +15633,13 @@
         <v>178</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="C150" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="F150" s="30" t="s">
         <v>1725</v>
@@ -15141,13 +15658,13 @@
         <v>179</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>2002</v>
+        <v>1999</v>
       </c>
       <c r="C151" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="F151" s="7" t="s">
         <v>1729</v>
@@ -15166,13 +15683,13 @@
         <v>180</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="C152" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="F152" s="30" t="s">
         <v>1725</v>
@@ -15191,13 +15708,13 @@
         <v>181</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="C153" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="F153" s="7" t="s">
         <v>1729</v>
@@ -15216,13 +15733,13 @@
         <v>182</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="C154" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="F154" s="30" t="s">
         <v>1725</v>
@@ -15241,13 +15758,13 @@
         <v>183</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="C155" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="F155" s="7" t="s">
         <v>1729</v>
@@ -15266,13 +15783,13 @@
         <v>184</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="C156" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="F156" s="30" t="s">
         <v>1725</v>
@@ -15291,13 +15808,13 @@
         <v>185</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="C157" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="F157" s="30" t="s">
         <v>1725</v>
@@ -15316,13 +15833,13 @@
         <v>186</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="C158" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="F158" s="30" t="s">
         <v>1725</v>
@@ -15341,13 +15858,13 @@
         <v>187</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="C159" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="F159" s="7" t="s">
         <v>1729</v>
@@ -15366,13 +15883,13 @@
         <v>188</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="C160" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="F160" s="7" t="s">
         <v>1729</v>
@@ -15391,13 +15908,13 @@
         <v>192</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="C161" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="F161" s="7" t="s">
         <v>1729</v>
@@ -15416,16 +15933,16 @@
         <v>193</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="C162" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="F162" s="77" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="G162" s="7">
         <v>1</v>
@@ -15441,13 +15958,13 @@
         <v>194</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C163" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="F163" s="33" t="s">
         <v>1783</v>
@@ -15466,13 +15983,13 @@
         <v>195</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="C164" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="F164" s="33" t="s">
         <v>1783</v>
@@ -15491,13 +16008,13 @@
         <v>196</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>2026</v>
+        <v>2023</v>
       </c>
       <c r="C165" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>2027</v>
+        <v>2024</v>
       </c>
       <c r="F165" s="7" t="s">
         <v>1729</v>
@@ -15516,16 +16033,16 @@
         <v>197</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>2028</v>
+        <v>2025</v>
       </c>
       <c r="C166" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>2027</v>
+        <v>2024</v>
       </c>
       <c r="F166" s="77" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="G166" s="7">
         <v>1</v>
@@ -15541,13 +16058,13 @@
         <v>198</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>2029</v>
+        <v>2026</v>
       </c>
       <c r="C167" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>2030</v>
+        <v>2027</v>
       </c>
       <c r="F167" s="7" t="s">
         <v>1729</v>
@@ -15566,13 +16083,13 @@
         <v>199</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>2031</v>
+        <v>2028</v>
       </c>
       <c r="C168" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="F168" s="33" t="s">
         <v>1783</v>
@@ -15591,16 +16108,16 @@
         <v>200</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>2032</v>
+        <v>2029</v>
       </c>
       <c r="C169" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>2030</v>
+        <v>2027</v>
       </c>
       <c r="F169" s="77" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="G169" s="7">
         <v>1</v>
@@ -15616,13 +16133,13 @@
         <v>201</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>2033</v>
+        <v>2030</v>
       </c>
       <c r="C170" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="F170" s="33" t="s">
         <v>1783</v>
@@ -15641,13 +16158,13 @@
         <v>202</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>2034</v>
+        <v>2031</v>
       </c>
       <c r="C171" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>2035</v>
+        <v>2032</v>
       </c>
       <c r="F171" s="7" t="s">
         <v>1729</v>
@@ -15666,13 +16183,13 @@
         <v>203</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>2036</v>
+        <v>2033</v>
       </c>
       <c r="C172" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="F172" s="30" t="s">
         <v>1725</v>
@@ -15691,13 +16208,13 @@
         <v>204</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>2038</v>
+        <v>2035</v>
       </c>
       <c r="C173" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>2035</v>
+        <v>2032</v>
       </c>
       <c r="F173" s="30" t="s">
         <v>1725</v>
@@ -15716,16 +16233,16 @@
         <v>205</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>2039</v>
+        <v>2036</v>
       </c>
       <c r="C174" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>2040</v>
+        <v>2037</v>
       </c>
       <c r="F174" s="77" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="G174" s="7">
         <v>1</v>
@@ -15741,16 +16258,16 @@
         <v>206</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>2041</v>
+        <v>2038</v>
       </c>
       <c r="C175" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>2042</v>
+        <v>2039</v>
       </c>
       <c r="F175" s="77" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="G175" s="7">
         <v>1</v>
@@ -15766,13 +16283,13 @@
         <v>207</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>2043</v>
+        <v>2040</v>
       </c>
       <c r="C176" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D176" s="7" t="s">
-        <v>2044</v>
+        <v>2041</v>
       </c>
       <c r="F176" s="7" t="s">
         <v>1729</v>
@@ -15791,13 +16308,13 @@
         <v>208</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>2045</v>
+        <v>2042</v>
       </c>
       <c r="C177" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D177" s="7" t="s">
-        <v>2046</v>
+        <v>2043</v>
       </c>
       <c r="F177" s="30" t="s">
         <v>1725</v>
@@ -15816,16 +16333,16 @@
         <v>209</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>2047</v>
+        <v>2044</v>
       </c>
       <c r="C178" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D178" s="7" t="s">
-        <v>2046</v>
+        <v>2043</v>
       </c>
       <c r="F178" s="77" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="G178" s="7">
         <v>1</v>
@@ -15841,13 +16358,13 @@
         <v>211</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>2048</v>
+        <v>2045</v>
       </c>
       <c r="C179" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>2049</v>
+        <v>2046</v>
       </c>
       <c r="F179" s="7" t="s">
         <v>1729</v>
@@ -15866,13 +16383,13 @@
         <v>212</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>2050</v>
+        <v>2047</v>
       </c>
       <c r="C180" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D180" s="7" t="s">
-        <v>2049</v>
+        <v>2046</v>
       </c>
       <c r="F180" s="33" t="s">
         <v>1783</v>
@@ -15891,13 +16408,13 @@
         <v>213</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>2051</v>
+        <v>2048</v>
       </c>
       <c r="C181" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D181" s="7" t="s">
-        <v>2052</v>
+        <v>2049</v>
       </c>
       <c r="F181" s="7" t="s">
         <v>1729</v>
@@ -15916,13 +16433,13 @@
         <v>214</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>2053</v>
+        <v>2050</v>
       </c>
       <c r="C182" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D182" s="7" t="s">
-        <v>2054</v>
+        <v>2051</v>
       </c>
       <c r="F182" s="33" t="s">
         <v>1783</v>
@@ -15941,13 +16458,13 @@
         <v>215</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>2055</v>
+        <v>2052</v>
       </c>
       <c r="C183" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>2056</v>
+        <v>2053</v>
       </c>
       <c r="F183" s="7" t="s">
         <v>1729</v>
@@ -15966,13 +16483,13 @@
         <v>216</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>2057</v>
+        <v>2054</v>
       </c>
       <c r="C184" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D184" s="7" t="s">
-        <v>2052</v>
+        <v>2049</v>
       </c>
       <c r="F184" s="33" t="s">
         <v>1783</v>
@@ -15991,13 +16508,13 @@
         <v>217</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>2058</v>
+        <v>2055</v>
       </c>
       <c r="C185" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>2059</v>
+        <v>2056</v>
       </c>
       <c r="F185" s="33" t="s">
         <v>1783</v>
@@ -16016,13 +16533,13 @@
         <v>218</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>2060</v>
+        <v>2057</v>
       </c>
       <c r="C186" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D186" s="7" t="s">
-        <v>2061</v>
+        <v>2058</v>
       </c>
       <c r="F186" s="7" t="s">
         <v>1729</v>
@@ -16041,13 +16558,13 @@
         <v>219</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>2062</v>
+        <v>2059</v>
       </c>
       <c r="C187" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D187" s="7" t="s">
-        <v>2063</v>
+        <v>2060</v>
       </c>
       <c r="F187" s="30" t="s">
         <v>1725</v>
@@ -16066,13 +16583,13 @@
         <v>220</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>2064</v>
+        <v>2061</v>
       </c>
       <c r="C188" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D188" s="7" t="s">
-        <v>2063</v>
+        <v>2060</v>
       </c>
       <c r="F188" s="33" t="s">
         <v>1783</v>
@@ -16091,16 +16608,16 @@
         <v>221</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>2065</v>
+        <v>2062</v>
       </c>
       <c r="C189" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>2056</v>
+        <v>2053</v>
       </c>
       <c r="F189" s="77" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="G189" s="7">
         <v>1</v>
@@ -16116,13 +16633,13 @@
         <v>222</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>2066</v>
+        <v>2063</v>
       </c>
       <c r="C190" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D190" s="7" t="s">
-        <v>2067</v>
+        <v>2064</v>
       </c>
       <c r="F190" s="33" t="s">
         <v>1783</v>
@@ -16141,13 +16658,13 @@
         <v>225</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>2068</v>
+        <v>2065</v>
       </c>
       <c r="C191" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>2069</v>
+        <v>2066</v>
       </c>
       <c r="F191" s="7" t="s">
         <v>1729</v>
@@ -16166,13 +16683,13 @@
         <v>226</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>2070</v>
+        <v>2067</v>
       </c>
       <c r="C192" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D192" s="7" t="s">
-        <v>2071</v>
+        <v>2068</v>
       </c>
       <c r="F192" s="30" t="s">
         <v>1725</v>
@@ -16191,13 +16708,13 @@
         <v>228</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>2072</v>
+        <v>2069</v>
       </c>
       <c r="C193" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>2073</v>
+        <v>2070</v>
       </c>
       <c r="F193" s="7" t="s">
         <v>1729</v>
@@ -16216,13 +16733,13 @@
         <v>229</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>2074</v>
+        <v>2071</v>
       </c>
       <c r="C194" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D194" s="7" t="s">
-        <v>2075</v>
+        <v>2072</v>
       </c>
       <c r="F194" s="33" t="s">
         <v>1783</v>
@@ -16241,13 +16758,13 @@
         <v>230</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>2076</v>
+        <v>2073</v>
       </c>
       <c r="C195" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D195" s="7" t="s">
-        <v>2077</v>
+        <v>2074</v>
       </c>
       <c r="F195" s="33" t="s">
         <v>1783</v>
@@ -16266,13 +16783,13 @@
         <v>231</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>2078</v>
+        <v>2075</v>
       </c>
       <c r="C196" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D196" s="7" t="s">
-        <v>2079</v>
+        <v>2076</v>
       </c>
       <c r="F196" s="7" t="s">
         <v>1729</v>
@@ -16291,13 +16808,13 @@
         <v>232</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>2080</v>
+        <v>2077</v>
       </c>
       <c r="C197" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D197" s="7" t="s">
-        <v>2081</v>
+        <v>2078</v>
       </c>
       <c r="F197" s="30" t="s">
         <v>1725</v>
@@ -16316,13 +16833,13 @@
         <v>233</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>2082</v>
+        <v>2079</v>
       </c>
       <c r="C198" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D198" s="7" t="s">
-        <v>2083</v>
+        <v>2080</v>
       </c>
       <c r="F198" s="30" t="s">
         <v>1725</v>
@@ -16341,13 +16858,13 @@
         <v>234</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>2084</v>
+        <v>2081</v>
       </c>
       <c r="C199" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D199" s="7" t="s">
-        <v>2085</v>
+        <v>2082</v>
       </c>
       <c r="F199" s="7" t="s">
         <v>1729</v>
@@ -16366,13 +16883,13 @@
         <v>236</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>2086</v>
+        <v>2083</v>
       </c>
       <c r="C200" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D200" s="7" t="s">
-        <v>2087</v>
+        <v>2084</v>
       </c>
       <c r="F200" s="30" t="s">
         <v>1725</v>
@@ -16391,13 +16908,13 @@
         <v>237</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>2088</v>
+        <v>2085</v>
       </c>
       <c r="C201" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>2089</v>
+        <v>2086</v>
       </c>
       <c r="F201" s="7" t="s">
         <v>1729</v>
@@ -16416,13 +16933,13 @@
         <v>238</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>2090</v>
+        <v>2087</v>
       </c>
       <c r="C202" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D202" s="7" t="s">
-        <v>2091</v>
+        <v>2088</v>
       </c>
       <c r="F202" s="7" t="s">
         <v>1729</v>
@@ -16441,13 +16958,13 @@
         <v>239</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>2092</v>
+        <v>2089</v>
       </c>
       <c r="C203" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D203" s="7" t="s">
-        <v>2093</v>
+        <v>2090</v>
       </c>
       <c r="F203" s="33" t="s">
         <v>1783</v>
@@ -16466,13 +16983,13 @@
         <v>240</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>2094</v>
+        <v>2091</v>
       </c>
       <c r="C204" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D204" s="7" t="s">
-        <v>2095</v>
+        <v>2092</v>
       </c>
       <c r="F204" s="7" t="s">
         <v>1729</v>
@@ -16491,13 +17008,13 @@
         <v>241</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>2096</v>
+        <v>2093</v>
       </c>
       <c r="C205" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D205" s="7" t="s">
-        <v>2097</v>
+        <v>2094</v>
       </c>
       <c r="F205" s="33" t="s">
         <v>1783</v>
@@ -16516,13 +17033,13 @@
         <v>242</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>2098</v>
+        <v>2095</v>
       </c>
       <c r="C206" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D206" s="7" t="s">
-        <v>2099</v>
+        <v>2096</v>
       </c>
       <c r="F206" s="7" t="s">
         <v>1729</v>
@@ -16541,13 +17058,13 @@
         <v>243</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>2100</v>
+        <v>2097</v>
       </c>
       <c r="C207" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D207" s="7" t="s">
-        <v>2101</v>
+        <v>2098</v>
       </c>
       <c r="F207" s="7" t="s">
         <v>1729</v>
@@ -16566,13 +17083,13 @@
         <v>244</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>2102</v>
+        <v>2099</v>
       </c>
       <c r="C208" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D208" s="7" t="s">
-        <v>2103</v>
+        <v>2100</v>
       </c>
       <c r="F208" s="7" t="s">
         <v>1729</v>
@@ -16591,13 +17108,13 @@
         <v>245</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>2104</v>
+        <v>2101</v>
       </c>
       <c r="C209" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D209" s="7" t="s">
-        <v>2105</v>
+        <v>2102</v>
       </c>
       <c r="F209" s="30" t="s">
         <v>1725</v>
@@ -16616,13 +17133,13 @@
         <v>246</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>2106</v>
+        <v>2103</v>
       </c>
       <c r="C210" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D210" s="7" t="s">
-        <v>2107</v>
+        <v>2104</v>
       </c>
       <c r="F210" s="30" t="s">
         <v>1725</v>
@@ -16641,13 +17158,13 @@
         <v>247</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
       <c r="C211" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="F211" s="7" t="s">
         <v>1729</v>
@@ -16666,16 +17183,16 @@
         <v>248</v>
       </c>
       <c r="B212" s="33" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
       <c r="C212" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D212" s="7" t="s">
-        <v>2111</v>
+        <v>2108</v>
       </c>
       <c r="E212" s="81" t="s">
-        <v>2360</v>
+        <v>2356</v>
       </c>
       <c r="F212" s="7" t="s">
         <v>1729</v>
@@ -16687,7 +17204,7 @@
         <v>1</v>
       </c>
       <c r="I212" s="75" t="s">
-        <v>2323</v>
+        <v>2319</v>
       </c>
       <c r="J212" s="75"/>
     </row>
@@ -16696,13 +17213,13 @@
         <v>249</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>2112</v>
+        <v>2109</v>
       </c>
       <c r="C213" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D213" s="7" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
       <c r="F213" s="7" t="s">
         <v>1729</v>
@@ -16721,13 +17238,13 @@
         <v>250</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>2114</v>
+        <v>2111</v>
       </c>
       <c r="C214" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
       <c r="F214" s="7" t="s">
         <v>1729</v>
@@ -16746,16 +17263,16 @@
         <v>252</v>
       </c>
       <c r="B215" s="33" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
       <c r="C215" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D215" s="7" t="s">
-        <v>2117</v>
+        <v>2114</v>
       </c>
       <c r="E215" s="80" t="s">
-        <v>2322</v>
+        <v>2318</v>
       </c>
       <c r="F215" s="7" t="s">
         <v>1729</v>
@@ -16767,7 +17284,7 @@
         <v>1</v>
       </c>
       <c r="I215" s="75" t="s">
-        <v>2323</v>
+        <v>2319</v>
       </c>
       <c r="J215" s="75"/>
     </row>
@@ -16776,16 +17293,16 @@
         <v>253</v>
       </c>
       <c r="B216" s="33" t="s">
-        <v>2118</v>
+        <v>2115</v>
       </c>
       <c r="C216" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D216" s="7" t="s">
-        <v>2119</v>
+        <v>2116</v>
       </c>
       <c r="E216" s="81" t="s">
-        <v>2324</v>
+        <v>2320</v>
       </c>
       <c r="F216" s="7" t="s">
         <v>1729</v>
@@ -16797,7 +17314,7 @@
         <v>1</v>
       </c>
       <c r="I216" s="7" t="s">
-        <v>2325</v>
+        <v>2321</v>
       </c>
       <c r="J216" s="75"/>
     </row>
@@ -16806,16 +17323,16 @@
         <v>254</v>
       </c>
       <c r="B217" s="33" t="s">
-        <v>2120</v>
+        <v>2117</v>
       </c>
       <c r="C217" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D217" s="7" t="s">
-        <v>2121</v>
+        <v>2118</v>
       </c>
       <c r="E217" s="7" t="s">
-        <v>2121</v>
+        <v>2118</v>
       </c>
       <c r="F217" s="30" t="s">
         <v>1725</v>
@@ -16827,7 +17344,7 @@
         <v>1</v>
       </c>
       <c r="I217" s="75" t="s">
-        <v>2328</v>
+        <v>2324</v>
       </c>
       <c r="J217" s="75"/>
     </row>
@@ -16836,16 +17353,16 @@
         <v>255</v>
       </c>
       <c r="B218" s="33" t="s">
-        <v>2122</v>
+        <v>2119</v>
       </c>
       <c r="C218" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D218" s="7" t="s">
-        <v>2123</v>
+        <v>2120</v>
       </c>
       <c r="E218" s="81" t="s">
-        <v>2332</v>
+        <v>2328</v>
       </c>
       <c r="F218" s="33" t="s">
         <v>1783</v>
@@ -16864,13 +17381,13 @@
         <v>256</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>2124</v>
+        <v>2121</v>
       </c>
       <c r="C219" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D219" s="7" t="s">
-        <v>2125</v>
+        <v>2122</v>
       </c>
       <c r="F219" s="7" t="s">
         <v>1729</v>
@@ -16889,13 +17406,13 @@
         <v>257</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>2126</v>
+        <v>2123</v>
       </c>
       <c r="C220" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D220" s="7" t="s">
-        <v>2127</v>
+        <v>2124</v>
       </c>
       <c r="F220" s="7" t="s">
         <v>1729</v>
@@ -16914,13 +17431,13 @@
         <v>258</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>2128</v>
+        <v>2125</v>
       </c>
       <c r="C221" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D221" s="7" t="s">
-        <v>2129</v>
+        <v>2126</v>
       </c>
       <c r="F221" s="30" t="s">
         <v>1725</v>
@@ -16942,10 +17459,10 @@
         <v>1769</v>
       </c>
       <c r="C222" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D222" s="7" t="s">
-        <v>2130</v>
+        <v>2127</v>
       </c>
       <c r="F222" s="7" t="s">
         <v>1729</v>
@@ -16964,16 +17481,16 @@
         <v>263</v>
       </c>
       <c r="B223" s="33" t="s">
-        <v>2131</v>
+        <v>2128</v>
       </c>
       <c r="C223" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D223" s="7" t="s">
-        <v>2132</v>
+        <v>2129</v>
       </c>
       <c r="E223" s="80" t="s">
-        <v>2329</v>
+        <v>2325</v>
       </c>
       <c r="F223" s="7" t="s">
         <v>1729</v>
@@ -16985,7 +17502,7 @@
         <v>1</v>
       </c>
       <c r="I223" s="75" t="s">
-        <v>2330</v>
+        <v>2326</v>
       </c>
       <c r="J223" s="75"/>
     </row>
@@ -16994,16 +17511,16 @@
         <v>264</v>
       </c>
       <c r="B224" s="33" t="s">
-        <v>2133</v>
+        <v>2130</v>
       </c>
       <c r="C224" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D224" s="7" t="s">
-        <v>2134</v>
+        <v>2131</v>
       </c>
       <c r="E224" s="81" t="s">
-        <v>2364</v>
+        <v>2360</v>
       </c>
       <c r="F224" s="7" t="s">
         <v>1729</v>
@@ -17015,7 +17532,7 @@
         <v>1</v>
       </c>
       <c r="I224" s="75" t="s">
-        <v>2365</v>
+        <v>2361</v>
       </c>
       <c r="J224" s="75"/>
     </row>
@@ -17024,16 +17541,16 @@
         <v>265</v>
       </c>
       <c r="B225" s="33" t="s">
-        <v>2135</v>
+        <v>2132</v>
       </c>
       <c r="C225" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>2136</v>
+        <v>2133</v>
       </c>
       <c r="E225" s="80" t="s">
-        <v>2136</v>
+        <v>2133</v>
       </c>
       <c r="F225" s="30" t="s">
         <v>1725</v>
@@ -17045,10 +17562,10 @@
         <v>1</v>
       </c>
       <c r="I225" s="75" t="s">
-        <v>2335</v>
+        <v>2331</v>
       </c>
       <c r="J225" s="75" t="s">
-        <v>2363</v>
+        <v>2359</v>
       </c>
       <c r="L225" s="78"/>
     </row>
@@ -17057,16 +17574,16 @@
         <v>266</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>2137</v>
+        <v>2134</v>
       </c>
       <c r="C226" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D226" s="7" t="s">
-        <v>2138</v>
+        <v>2135</v>
       </c>
       <c r="F226" s="77" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="G226" s="7">
         <v>1</v>
@@ -17082,16 +17599,16 @@
         <v>267</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>2139</v>
+        <v>2136</v>
       </c>
       <c r="C227" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D227" s="7" t="s">
-        <v>2140</v>
+        <v>2137</v>
       </c>
       <c r="F227" s="77" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="G227" s="7">
         <v>1</v>
@@ -17107,16 +17624,16 @@
         <v>268</v>
       </c>
       <c r="B228" s="33" t="s">
-        <v>2141</v>
+        <v>2138</v>
       </c>
       <c r="C228" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D228" s="7" t="s">
-        <v>2142</v>
+        <v>2139</v>
       </c>
       <c r="E228" s="81" t="s">
-        <v>2358</v>
+        <v>2354</v>
       </c>
       <c r="F228" s="7" t="s">
         <v>1729</v>
@@ -17128,7 +17645,7 @@
         <v>1</v>
       </c>
       <c r="I228" s="75" t="s">
-        <v>2359</v>
+        <v>2355</v>
       </c>
       <c r="J228" s="75"/>
     </row>
@@ -17140,13 +17657,13 @@
         <v>1280</v>
       </c>
       <c r="C229" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D229" s="7" t="s">
-        <v>2143</v>
+        <v>2140</v>
       </c>
       <c r="E229" s="81" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="F229" s="7" t="s">
         <v>1729</v>
@@ -17158,7 +17675,7 @@
         <v>1</v>
       </c>
       <c r="I229" s="75" t="s">
-        <v>2362</v>
+        <v>2358</v>
       </c>
       <c r="J229" s="75"/>
     </row>
@@ -17167,13 +17684,13 @@
         <v>270</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>2144</v>
+        <v>2141</v>
       </c>
       <c r="C230" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D230" s="7" t="s">
-        <v>2145</v>
+        <v>2142</v>
       </c>
       <c r="F230" s="7" t="s">
         <v>1729</v>
@@ -17192,16 +17709,16 @@
         <v>271</v>
       </c>
       <c r="B231" s="33" t="s">
-        <v>2146</v>
+        <v>2143</v>
       </c>
       <c r="C231" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D231" s="7" t="s">
-        <v>2147</v>
+        <v>2144</v>
       </c>
       <c r="E231" s="7" t="s">
-        <v>2147</v>
+        <v>2144</v>
       </c>
       <c r="F231" s="30" t="s">
         <v>1725</v>
@@ -17213,7 +17730,7 @@
         <v>1</v>
       </c>
       <c r="I231" s="75" t="s">
-        <v>2335</v>
+        <v>2331</v>
       </c>
       <c r="J231" s="75"/>
     </row>
@@ -17222,13 +17739,13 @@
         <v>272</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>2148</v>
+        <v>2145</v>
       </c>
       <c r="C232" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D232" s="7" t="s">
-        <v>2149</v>
+        <v>2146</v>
       </c>
       <c r="F232" s="33" t="s">
         <v>1783</v>
@@ -17247,16 +17764,16 @@
         <v>273</v>
       </c>
       <c r="B233" s="33" t="s">
-        <v>2150</v>
+        <v>2147</v>
       </c>
       <c r="C233" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D233" s="7" t="s">
-        <v>2151</v>
+        <v>2148</v>
       </c>
       <c r="E233" s="81" t="s">
-        <v>2354</v>
+        <v>2350</v>
       </c>
       <c r="F233" s="33" t="s">
         <v>1783</v>
@@ -17268,7 +17785,7 @@
         <v>1</v>
       </c>
       <c r="I233" s="75" t="s">
-        <v>2335</v>
+        <v>2331</v>
       </c>
       <c r="J233" s="75"/>
     </row>
@@ -17277,13 +17794,13 @@
         <v>275</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>2152</v>
+        <v>2149</v>
       </c>
       <c r="C234" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D234" s="7" t="s">
-        <v>2153</v>
+        <v>2150</v>
       </c>
       <c r="F234" s="30" t="s">
         <v>1725</v>
@@ -17302,13 +17819,13 @@
         <v>276</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>2154</v>
+        <v>2151</v>
       </c>
       <c r="C235" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D235" s="7" t="s">
-        <v>2155</v>
+        <v>2152</v>
       </c>
       <c r="F235" s="30" t="s">
         <v>1725</v>
@@ -17327,13 +17844,13 @@
         <v>277</v>
       </c>
       <c r="B236" s="7" t="s">
-        <v>2156</v>
+        <v>2153</v>
       </c>
       <c r="C236" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D236" s="7" t="s">
-        <v>2157</v>
+        <v>2154</v>
       </c>
       <c r="F236" s="30" t="s">
         <v>1725</v>
@@ -17352,13 +17869,13 @@
         <v>278</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>2158</v>
+        <v>2155</v>
       </c>
       <c r="C237" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D237" s="7" t="s">
-        <v>2159</v>
+        <v>2156</v>
       </c>
       <c r="F237" s="30" t="s">
         <v>1725</v>
@@ -17377,13 +17894,13 @@
         <v>279</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>2160</v>
+        <v>2157</v>
       </c>
       <c r="C238" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D238" s="7" t="s">
-        <v>2161</v>
+        <v>2158</v>
       </c>
       <c r="F238" s="7" t="s">
         <v>1729</v>
@@ -17402,13 +17919,13 @@
         <v>280</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>2162</v>
+        <v>2159</v>
       </c>
       <c r="C239" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D239" s="7" t="s">
-        <v>2163</v>
+        <v>2160</v>
       </c>
       <c r="F239" s="30" t="s">
         <v>1725</v>
@@ -17427,13 +17944,13 @@
         <v>281</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>2164</v>
+        <v>2161</v>
       </c>
       <c r="C240" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D240" s="7" t="s">
-        <v>2165</v>
+        <v>2162</v>
       </c>
       <c r="F240" s="7" t="s">
         <v>1729</v>
@@ -17452,16 +17969,16 @@
         <v>282</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>2166</v>
+        <v>2163</v>
       </c>
       <c r="C241" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D241" s="7" t="s">
-        <v>2134</v>
+        <v>2131</v>
       </c>
       <c r="F241" s="77" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="G241" s="7">
         <v>1</v>
@@ -17477,13 +17994,13 @@
         <v>283</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>2167</v>
+        <v>2164</v>
       </c>
       <c r="C242" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D242" s="7" t="s">
-        <v>2168</v>
+        <v>2165</v>
       </c>
       <c r="F242" s="33" t="s">
         <v>1783</v>
@@ -17502,13 +18019,13 @@
         <v>284</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>2169</v>
+        <v>2166</v>
       </c>
       <c r="C243" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D243" s="7" t="s">
-        <v>2170</v>
+        <v>2167</v>
       </c>
       <c r="F243" s="30" t="s">
         <v>1725</v>
@@ -17527,13 +18044,13 @@
         <v>286</v>
       </c>
       <c r="B244" s="7" t="s">
-        <v>2171</v>
+        <v>2168</v>
       </c>
       <c r="C244" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D244" s="7" t="s">
-        <v>2172</v>
+        <v>2169</v>
       </c>
       <c r="F244" s="33" t="s">
         <v>1783</v>
@@ -17552,13 +18069,13 @@
         <v>287</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>2173</v>
+        <v>2170</v>
       </c>
       <c r="C245" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D245" s="7" t="s">
-        <v>2174</v>
+        <v>2171</v>
       </c>
       <c r="F245" s="30" t="s">
         <v>1725</v>
@@ -17577,13 +18094,13 @@
         <v>288</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>2175</v>
+        <v>2172</v>
       </c>
       <c r="C246" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D246" s="7" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="F246" s="33" t="s">
         <v>1783</v>
@@ -17602,13 +18119,13 @@
         <v>290</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>2176</v>
+        <v>2173</v>
       </c>
       <c r="C247" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D247" s="7" t="s">
-        <v>2177</v>
+        <v>2174</v>
       </c>
       <c r="F247" s="7" t="s">
         <v>1729</v>
@@ -17627,13 +18144,13 @@
         <v>291</v>
       </c>
       <c r="B248" s="7" t="s">
-        <v>2178</v>
+        <v>2175</v>
       </c>
       <c r="C248" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D248" s="7" t="s">
-        <v>2179</v>
+        <v>2176</v>
       </c>
       <c r="F248" s="33" t="s">
         <v>1783</v>
@@ -17652,13 +18169,13 @@
         <v>292</v>
       </c>
       <c r="B249" s="7" t="s">
-        <v>2180</v>
+        <v>2177</v>
       </c>
       <c r="C249" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D249" s="7" t="s">
-        <v>2181</v>
+        <v>2178</v>
       </c>
       <c r="F249" s="7" t="s">
         <v>1729</v>
@@ -17677,13 +18194,13 @@
         <v>293</v>
       </c>
       <c r="B250" s="7" t="s">
-        <v>2182</v>
+        <v>2179</v>
       </c>
       <c r="C250" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D250" s="7" t="s">
-        <v>2183</v>
+        <v>2180</v>
       </c>
       <c r="F250" s="7" t="s">
         <v>1729</v>
@@ -17702,13 +18219,13 @@
         <v>294</v>
       </c>
       <c r="B251" s="7" t="s">
-        <v>2184</v>
+        <v>2181</v>
       </c>
       <c r="C251" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D251" s="7" t="s">
-        <v>2185</v>
+        <v>2182</v>
       </c>
       <c r="F251" s="7" t="s">
         <v>1729</v>
@@ -17727,13 +18244,13 @@
         <v>295</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>2186</v>
+        <v>2183</v>
       </c>
       <c r="C252" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D252" s="7" t="s">
-        <v>2185</v>
+        <v>2182</v>
       </c>
       <c r="F252" s="30" t="s">
         <v>1725</v>
@@ -17752,13 +18269,13 @@
         <v>297</v>
       </c>
       <c r="B253" s="7" t="s">
-        <v>2187</v>
+        <v>2184</v>
       </c>
       <c r="C253" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D253" s="7" t="s">
-        <v>2188</v>
+        <v>2185</v>
       </c>
       <c r="F253" s="30" t="s">
         <v>1725</v>
@@ -17777,13 +18294,13 @@
         <v>298</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>2189</v>
+        <v>2186</v>
       </c>
       <c r="C254" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D254" s="7" t="s">
-        <v>2190</v>
+        <v>2187</v>
       </c>
       <c r="F254" s="7" t="s">
         <v>1729</v>
@@ -17802,13 +18319,13 @@
         <v>299</v>
       </c>
       <c r="B255" s="7" t="s">
-        <v>2191</v>
+        <v>2188</v>
       </c>
       <c r="C255" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D255" s="7" t="s">
-        <v>2190</v>
+        <v>2187</v>
       </c>
       <c r="F255" s="30" t="s">
         <v>1725</v>
@@ -17827,13 +18344,13 @@
         <v>300</v>
       </c>
       <c r="B256" s="7" t="s">
-        <v>2192</v>
+        <v>2189</v>
       </c>
       <c r="C256" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D256" s="7" t="s">
-        <v>2193</v>
+        <v>2190</v>
       </c>
       <c r="F256" s="30" t="s">
         <v>1725</v>
@@ -17852,13 +18369,13 @@
         <v>301</v>
       </c>
       <c r="B257" s="7" t="s">
-        <v>2194</v>
+        <v>2191</v>
       </c>
       <c r="C257" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D257" s="7" t="s">
-        <v>2195</v>
+        <v>2192</v>
       </c>
       <c r="F257" s="30" t="s">
         <v>1725</v>
@@ -17877,13 +18394,13 @@
         <v>302</v>
       </c>
       <c r="B258" s="7" t="s">
-        <v>2196</v>
+        <v>2193</v>
       </c>
       <c r="C258" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D258" s="7" t="s">
-        <v>2197</v>
+        <v>2194</v>
       </c>
       <c r="F258" s="33" t="s">
         <v>1783</v>
@@ -17905,10 +18422,10 @@
         <v>1471</v>
       </c>
       <c r="C259" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D259" s="7" t="s">
-        <v>2198</v>
+        <v>2195</v>
       </c>
       <c r="F259" s="30" t="s">
         <v>1725</v>
@@ -17927,13 +18444,13 @@
         <v>304</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>2199</v>
+        <v>2196</v>
       </c>
       <c r="C260" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D260" s="7" t="s">
-        <v>2200</v>
+        <v>2197</v>
       </c>
       <c r="F260" s="30" t="s">
         <v>1725</v>
@@ -17952,13 +18469,13 @@
         <v>305</v>
       </c>
       <c r="B261" s="7" t="s">
-        <v>2201</v>
+        <v>2198</v>
       </c>
       <c r="C261" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D261" s="7" t="s">
-        <v>2202</v>
+        <v>2199</v>
       </c>
       <c r="F261" s="7" t="s">
         <v>1729</v>
@@ -17977,13 +18494,13 @@
         <v>306</v>
       </c>
       <c r="B262" s="7" t="s">
-        <v>2203</v>
+        <v>2200</v>
       </c>
       <c r="C262" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D262" s="7" t="s">
-        <v>2204</v>
+        <v>2201</v>
       </c>
       <c r="F262" s="7" t="s">
         <v>1729</v>
@@ -18002,13 +18519,13 @@
         <v>307</v>
       </c>
       <c r="B263" s="7" t="s">
-        <v>2205</v>
+        <v>2202</v>
       </c>
       <c r="C263" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D263" s="7" t="s">
-        <v>2206</v>
+        <v>2203</v>
       </c>
       <c r="F263" s="30" t="s">
         <v>1725</v>
@@ -18027,13 +18544,13 @@
         <v>312</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>2207</v>
+        <v>2204</v>
       </c>
       <c r="C264" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D264" s="7" t="s">
-        <v>2208</v>
+        <v>2205</v>
       </c>
       <c r="F264" s="33" t="s">
         <v>1783</v>
@@ -18051,14 +18568,17 @@
       <c r="A265" s="10">
         <v>313</v>
       </c>
-      <c r="B265" s="7" t="s">
-        <v>2209</v>
+      <c r="B265" s="8" t="s">
+        <v>2206</v>
       </c>
       <c r="C265" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D265" s="7" t="s">
-        <v>2210</v>
+        <v>2207</v>
+      </c>
+      <c r="E265" s="80" t="s">
+        <v>2417</v>
       </c>
       <c r="F265" s="30" t="s">
         <v>1725</v>
@@ -18069,7 +18589,9 @@
       <c r="H265" s="7">
         <v>1</v>
       </c>
-      <c r="I265" s="75"/>
+      <c r="I265" s="75" t="s">
+        <v>2418</v>
+      </c>
       <c r="J265" s="75"/>
     </row>
     <row r="266" spans="1:10">
@@ -18077,13 +18599,13 @@
         <v>314</v>
       </c>
       <c r="B266" s="7" t="s">
-        <v>2211</v>
+        <v>2208</v>
       </c>
       <c r="C266" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D266" s="7" t="s">
-        <v>2212</v>
+        <v>2209</v>
       </c>
       <c r="F266" s="7" t="s">
         <v>1729</v>
@@ -18102,13 +18624,13 @@
         <v>315</v>
       </c>
       <c r="B267" s="7" t="s">
-        <v>2213</v>
+        <v>2210</v>
       </c>
       <c r="C267" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D267" s="7" t="s">
-        <v>2214</v>
+        <v>2211</v>
       </c>
       <c r="F267" s="7" t="s">
         <v>1729</v>
@@ -18126,14 +18648,14 @@
       <c r="A268" s="10">
         <v>316</v>
       </c>
-      <c r="B268" s="7" t="s">
-        <v>2215</v>
+      <c r="B268" s="8" t="s">
+        <v>2212</v>
       </c>
       <c r="C268" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D268" s="7" t="s">
-        <v>2216</v>
+        <v>2425</v>
       </c>
       <c r="F268" s="7" t="s">
         <v>1729</v>
@@ -18152,13 +18674,13 @@
         <v>317</v>
       </c>
       <c r="B269" s="7" t="s">
-        <v>2217</v>
+        <v>2213</v>
       </c>
       <c r="C269" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D269" s="7" t="s">
-        <v>2218</v>
+        <v>2214</v>
       </c>
       <c r="F269" s="7" t="s">
         <v>1729</v>
@@ -18177,13 +18699,13 @@
         <v>318</v>
       </c>
       <c r="B270" s="7" t="s">
-        <v>2219</v>
+        <v>2215</v>
       </c>
       <c r="C270" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D270" s="7" t="s">
-        <v>2220</v>
+        <v>2216</v>
       </c>
       <c r="F270" s="7" t="s">
         <v>1729</v>
@@ -18201,14 +18723,17 @@
       <c r="A271" s="10">
         <v>319</v>
       </c>
-      <c r="B271" s="7" t="s">
-        <v>2221</v>
+      <c r="B271" s="8" t="s">
+        <v>2217</v>
       </c>
       <c r="C271" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D271" s="7" t="s">
-        <v>2222</v>
+        <v>2218</v>
+      </c>
+      <c r="E271" s="7" t="s">
+        <v>2218</v>
       </c>
       <c r="F271" s="7" t="s">
         <v>1729</v>
@@ -18226,14 +18751,14 @@
       <c r="A272" s="10">
         <v>320</v>
       </c>
-      <c r="B272" s="7" t="s">
-        <v>2223</v>
+      <c r="B272" s="8" t="s">
+        <v>2219</v>
       </c>
       <c r="C272" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D272" s="7" t="s">
-        <v>2224</v>
+        <v>2220</v>
       </c>
       <c r="F272" s="30" t="s">
         <v>1725</v>
@@ -18252,13 +18777,13 @@
         <v>321</v>
       </c>
       <c r="B273" s="7" t="s">
-        <v>2225</v>
+        <v>2221</v>
       </c>
       <c r="C273" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D273" s="7" t="s">
-        <v>2226</v>
+        <v>2222</v>
       </c>
       <c r="F273" s="7" t="s">
         <v>1729</v>
@@ -18277,13 +18802,13 @@
         <v>322</v>
       </c>
       <c r="B274" s="7" t="s">
-        <v>2227</v>
+        <v>2223</v>
       </c>
       <c r="C274" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D274" s="7" t="s">
-        <v>2228</v>
+        <v>2224</v>
       </c>
       <c r="F274" s="30" t="s">
         <v>1725</v>
@@ -18302,13 +18827,13 @@
         <v>323</v>
       </c>
       <c r="B275" s="7" t="s">
-        <v>2229</v>
+        <v>2225</v>
       </c>
       <c r="C275" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D275" s="7" t="s">
-        <v>2230</v>
+        <v>2226</v>
       </c>
       <c r="F275" s="30" t="s">
         <v>1725</v>
@@ -18327,16 +18852,16 @@
         <v>324</v>
       </c>
       <c r="B276" s="33" t="s">
-        <v>2231</v>
+        <v>2227</v>
       </c>
       <c r="C276" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D276" s="7" t="s">
-        <v>2232</v>
+        <v>2228</v>
       </c>
       <c r="E276" s="80" t="s">
-        <v>2326</v>
+        <v>2322</v>
       </c>
       <c r="F276" s="7" t="s">
         <v>1729</v>
@@ -18348,7 +18873,7 @@
         <v>1</v>
       </c>
       <c r="I276" s="75" t="s">
-        <v>2327</v>
+        <v>2323</v>
       </c>
       <c r="J276" s="75"/>
     </row>
@@ -18357,13 +18882,13 @@
         <v>325</v>
       </c>
       <c r="B277" s="7" t="s">
-        <v>2233</v>
+        <v>2229</v>
       </c>
       <c r="C277" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D277" s="7" t="s">
-        <v>2234</v>
+        <v>2230</v>
       </c>
       <c r="F277" s="33" t="s">
         <v>1783</v>
@@ -18382,13 +18907,13 @@
         <v>326</v>
       </c>
       <c r="B278" s="7" t="s">
-        <v>2235</v>
+        <v>2231</v>
       </c>
       <c r="C278" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D278" s="7" t="s">
-        <v>2236</v>
+        <v>2232</v>
       </c>
       <c r="F278" s="7" t="s">
         <v>1729</v>
@@ -18407,13 +18932,13 @@
         <v>327</v>
       </c>
       <c r="B279" s="7" t="s">
-        <v>2237</v>
+        <v>2233</v>
       </c>
       <c r="C279" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D279" s="7" t="s">
-        <v>2238</v>
+        <v>2234</v>
       </c>
       <c r="F279" s="7" t="s">
         <v>1729</v>
@@ -18432,13 +18957,13 @@
         <v>328</v>
       </c>
       <c r="B280" s="7" t="s">
-        <v>2239</v>
+        <v>2235</v>
       </c>
       <c r="C280" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D280" s="7" t="s">
-        <v>2240</v>
+        <v>2236</v>
       </c>
       <c r="F280" s="7" t="s">
         <v>1729</v>
@@ -18457,13 +18982,13 @@
         <v>329</v>
       </c>
       <c r="B281" s="7" t="s">
-        <v>2241</v>
+        <v>2237</v>
       </c>
       <c r="C281" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D281" s="7" t="s">
-        <v>2242</v>
+        <v>2238</v>
       </c>
       <c r="F281" s="7" t="s">
         <v>1729</v>
@@ -18482,13 +19007,13 @@
         <v>330</v>
       </c>
       <c r="B282" s="7" t="s">
-        <v>2243</v>
+        <v>2239</v>
       </c>
       <c r="C282" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D282" s="7" t="s">
-        <v>2244</v>
+        <v>2240</v>
       </c>
       <c r="F282" s="7" t="s">
         <v>1729</v>
@@ -18507,13 +19032,13 @@
         <v>331</v>
       </c>
       <c r="B283" s="7" t="s">
-        <v>2245</v>
+        <v>2241</v>
       </c>
       <c r="C283" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D283" s="7" t="s">
-        <v>2246</v>
+        <v>2242</v>
       </c>
       <c r="F283" s="7" t="s">
         <v>1729</v>
@@ -18532,13 +19057,13 @@
         <v>332</v>
       </c>
       <c r="B284" s="7" t="s">
-        <v>2247</v>
+        <v>2243</v>
       </c>
       <c r="C284" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D284" s="7" t="s">
-        <v>2248</v>
+        <v>2244</v>
       </c>
       <c r="F284" s="7" t="s">
         <v>1729</v>
@@ -18557,13 +19082,13 @@
         <v>333</v>
       </c>
       <c r="B285" s="7" t="s">
-        <v>2249</v>
+        <v>2245</v>
       </c>
       <c r="C285" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D285" s="7" t="s">
-        <v>2250</v>
+        <v>2246</v>
       </c>
       <c r="F285" s="33" t="s">
         <v>1783</v>
@@ -18582,13 +19107,13 @@
         <v>334</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>2251</v>
+        <v>2247</v>
       </c>
       <c r="C286" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D286" s="7" t="s">
-        <v>2177</v>
+        <v>2174</v>
       </c>
       <c r="F286" s="30" t="s">
         <v>1725</v>
@@ -18607,13 +19132,13 @@
         <v>335</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>2252</v>
+        <v>2248</v>
       </c>
       <c r="C287" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D287" s="7" t="s">
-        <v>2253</v>
+        <v>2249</v>
       </c>
       <c r="F287" s="30" t="s">
         <v>1725</v>
@@ -18632,13 +19157,13 @@
         <v>336</v>
       </c>
       <c r="B288" s="7" t="s">
-        <v>2254</v>
+        <v>2250</v>
       </c>
       <c r="C288" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D288" s="7" t="s">
-        <v>2255</v>
+        <v>2251</v>
       </c>
       <c r="F288" s="7" t="s">
         <v>1729</v>
@@ -18657,13 +19182,13 @@
         <v>337</v>
       </c>
       <c r="B289" s="7" t="s">
-        <v>2256</v>
+        <v>2252</v>
       </c>
       <c r="C289" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D289" s="7" t="s">
-        <v>2257</v>
+        <v>2253</v>
       </c>
       <c r="F289" s="7" t="s">
         <v>1729</v>
@@ -18682,13 +19207,13 @@
         <v>338</v>
       </c>
       <c r="B290" s="7" t="s">
-        <v>2258</v>
+        <v>2254</v>
       </c>
       <c r="C290" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D290" s="7" t="s">
-        <v>2259</v>
+        <v>2255</v>
       </c>
       <c r="F290" s="33" t="s">
         <v>1783</v>
@@ -18707,13 +19232,13 @@
         <v>339</v>
       </c>
       <c r="B291" s="7" t="s">
-        <v>2260</v>
+        <v>2256</v>
       </c>
       <c r="C291" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D291" s="7" t="s">
-        <v>2261</v>
+        <v>2257</v>
       </c>
       <c r="F291" s="7" t="s">
         <v>1729</v>
@@ -18732,13 +19257,13 @@
         <v>340</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>2262</v>
+        <v>2258</v>
       </c>
       <c r="C292" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D292" s="7" t="s">
-        <v>2263</v>
+        <v>2259</v>
       </c>
       <c r="F292" s="7" t="s">
         <v>1729</v>
@@ -18757,13 +19282,13 @@
         <v>341</v>
       </c>
       <c r="B293" s="7" t="s">
-        <v>2264</v>
+        <v>2260</v>
       </c>
       <c r="C293" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D293" s="7" t="s">
-        <v>2265</v>
+        <v>2261</v>
       </c>
       <c r="F293" s="7" t="s">
         <v>1729</v>
@@ -18782,13 +19307,13 @@
         <v>342</v>
       </c>
       <c r="B294" s="7" t="s">
-        <v>2266</v>
+        <v>2262</v>
       </c>
       <c r="C294" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D294" s="7" t="s">
-        <v>2267</v>
+        <v>2263</v>
       </c>
       <c r="F294" s="7" t="s">
         <v>1729</v>
@@ -18807,13 +19332,13 @@
         <v>343</v>
       </c>
       <c r="B295" s="7" t="s">
-        <v>2268</v>
+        <v>2264</v>
       </c>
       <c r="C295" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D295" s="7" t="s">
-        <v>2269</v>
+        <v>2265</v>
       </c>
       <c r="F295" s="30" t="s">
         <v>1725</v>
@@ -18832,13 +19357,13 @@
         <v>344</v>
       </c>
       <c r="B296" s="7" t="s">
-        <v>2270</v>
+        <v>2266</v>
       </c>
       <c r="C296" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D296" s="7" t="s">
-        <v>2271</v>
+        <v>2267</v>
       </c>
       <c r="F296" s="7" t="s">
         <v>1729</v>
@@ -18857,13 +19382,13 @@
         <v>345</v>
       </c>
       <c r="B297" s="7" t="s">
-        <v>2272</v>
+        <v>2268</v>
       </c>
       <c r="C297" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D297" s="7" t="s">
-        <v>2273</v>
+        <v>2269</v>
       </c>
       <c r="F297" s="30" t="s">
         <v>1725</v>
@@ -18882,13 +19407,13 @@
         <v>346</v>
       </c>
       <c r="B298" s="7" t="s">
-        <v>2274</v>
+        <v>2270</v>
       </c>
       <c r="C298" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D298" s="7" t="s">
-        <v>2275</v>
+        <v>2271</v>
       </c>
       <c r="F298" s="30" t="s">
         <v>1725</v>
@@ -18907,13 +19432,13 @@
         <v>347</v>
       </c>
       <c r="B299" s="7" t="s">
-        <v>2276</v>
+        <v>2272</v>
       </c>
       <c r="C299" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D299" s="7" t="s">
-        <v>2277</v>
+        <v>2273</v>
       </c>
       <c r="F299" s="7" t="s">
         <v>1729</v>
@@ -18932,13 +19457,13 @@
         <v>348</v>
       </c>
       <c r="B300" s="7" t="s">
-        <v>2278</v>
+        <v>2274</v>
       </c>
       <c r="C300" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D300" s="7" t="s">
-        <v>2279</v>
+        <v>2275</v>
       </c>
       <c r="F300" s="7" t="s">
         <v>1729</v>
@@ -18957,13 +19482,13 @@
         <v>349</v>
       </c>
       <c r="B301" s="7" t="s">
-        <v>2280</v>
+        <v>2276</v>
       </c>
       <c r="C301" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D301" s="7" t="s">
-        <v>2281</v>
+        <v>2277</v>
       </c>
       <c r="F301" s="30" t="s">
         <v>1725</v>
@@ -18982,13 +19507,13 @@
         <v>350</v>
       </c>
       <c r="B302" s="7" t="s">
-        <v>2282</v>
+        <v>2278</v>
       </c>
       <c r="C302" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D302" s="7" t="s">
-        <v>2283</v>
+        <v>2279</v>
       </c>
       <c r="F302" s="7" t="s">
         <v>1729</v>
@@ -19007,13 +19532,13 @@
         <v>351</v>
       </c>
       <c r="B303" s="7" t="s">
-        <v>2284</v>
+        <v>2280</v>
       </c>
       <c r="C303" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D303" s="7" t="s">
-        <v>2285</v>
+        <v>2281</v>
       </c>
       <c r="F303" s="7" t="s">
         <v>1729</v>
@@ -19032,13 +19557,13 @@
         <v>352</v>
       </c>
       <c r="B304" s="7" t="s">
-        <v>2286</v>
+        <v>2282</v>
       </c>
       <c r="C304" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D304" s="7" t="s">
-        <v>2287</v>
+        <v>2283</v>
       </c>
       <c r="F304" s="7" t="s">
         <v>1729</v>
@@ -19057,13 +19582,13 @@
         <v>353</v>
       </c>
       <c r="B305" s="7" t="s">
-        <v>2288</v>
+        <v>2284</v>
       </c>
       <c r="C305" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D305" s="7" t="s">
-        <v>2289</v>
+        <v>2285</v>
       </c>
       <c r="F305" s="7" t="s">
         <v>1729</v>
@@ -19082,13 +19607,13 @@
         <v>354</v>
       </c>
       <c r="B306" s="7" t="s">
-        <v>2290</v>
+        <v>2286</v>
       </c>
       <c r="C306" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D306" s="7" t="s">
-        <v>2291</v>
+        <v>2287</v>
       </c>
       <c r="F306" s="33" t="s">
         <v>1783</v>
@@ -19107,13 +19632,13 @@
         <v>355</v>
       </c>
       <c r="B307" s="7" t="s">
-        <v>2292</v>
+        <v>2288</v>
       </c>
       <c r="C307" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D307" s="7" t="s">
-        <v>2293</v>
+        <v>2289</v>
       </c>
       <c r="F307" s="30" t="s">
         <v>1725</v>
@@ -19132,13 +19657,13 @@
         <v>356</v>
       </c>
       <c r="B308" s="7" t="s">
-        <v>2294</v>
+        <v>2290</v>
       </c>
       <c r="C308" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D308" s="7" t="s">
-        <v>2295</v>
+        <v>2291</v>
       </c>
       <c r="F308" s="30" t="s">
         <v>1725</v>
@@ -19157,13 +19682,13 @@
         <v>357</v>
       </c>
       <c r="B309" s="7" t="s">
-        <v>2296</v>
+        <v>2292</v>
       </c>
       <c r="C309" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D309" s="7" t="s">
-        <v>2297</v>
+        <v>2293</v>
       </c>
       <c r="F309" s="30" t="s">
         <v>1725</v>
@@ -19182,13 +19707,13 @@
         <v>358</v>
       </c>
       <c r="B310" s="7" t="s">
-        <v>2298</v>
+        <v>2294</v>
       </c>
       <c r="C310" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D310" s="7" t="s">
-        <v>2299</v>
+        <v>2295</v>
       </c>
       <c r="F310" s="7" t="s">
         <v>1729</v>
@@ -19207,13 +19732,13 @@
         <v>359</v>
       </c>
       <c r="B311" s="7" t="s">
-        <v>2300</v>
+        <v>2296</v>
       </c>
       <c r="C311" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D311" s="7" t="s">
-        <v>2301</v>
+        <v>2297</v>
       </c>
       <c r="F311" s="7" t="s">
         <v>1729</v>
@@ -19232,13 +19757,13 @@
         <v>360</v>
       </c>
       <c r="B312" s="7" t="s">
-        <v>2302</v>
+        <v>2298</v>
       </c>
       <c r="C312" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D312" s="7" t="s">
-        <v>2303</v>
+        <v>2299</v>
       </c>
       <c r="F312" s="7" t="s">
         <v>1729</v>
@@ -19257,13 +19782,13 @@
         <v>361</v>
       </c>
       <c r="B313" s="7" t="s">
-        <v>2304</v>
+        <v>2300</v>
       </c>
       <c r="C313" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D313" s="7" t="s">
-        <v>2305</v>
+        <v>2301</v>
       </c>
       <c r="F313" s="30" t="s">
         <v>1725</v>
@@ -19282,13 +19807,13 @@
         <v>362</v>
       </c>
       <c r="B314" s="7" t="s">
-        <v>2306</v>
+        <v>2302</v>
       </c>
       <c r="C314" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D314" s="7" t="s">
-        <v>2307</v>
+        <v>2303</v>
       </c>
       <c r="F314" s="33" t="s">
         <v>1783</v>
@@ -19307,13 +19832,13 @@
         <v>363</v>
       </c>
       <c r="B315" s="7" t="s">
-        <v>2308</v>
+        <v>2304</v>
       </c>
       <c r="C315" s="76" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D315" s="7" t="s">
-        <v>2309</v>
+        <v>2305</v>
       </c>
       <c r="F315" s="7" t="s">
         <v>1729</v>
@@ -19332,13 +19857,13 @@
         <v>364</v>
       </c>
       <c r="B316" s="7" t="s">
+        <v>2306</v>
+      </c>
+      <c r="C316" s="76" t="s">
         <v>2310</v>
       </c>
-      <c r="C316" s="76" t="s">
-        <v>2314</v>
-      </c>
       <c r="D316" s="7" t="s">
-        <v>2311</v>
+        <v>2307</v>
       </c>
       <c r="F316" s="7" t="s">
         <v>1729</v>
@@ -19675,6 +20200,875 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B912BEC-B91E-43AA-9CCF-A54F06B04E35}">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="2" width="11.75" style="7" customWidth="1"/>
+    <col min="3" max="3" width="13.375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="13" style="7" customWidth="1"/>
+    <col min="5" max="5" width="27.5" style="7" customWidth="1"/>
+    <col min="6" max="6" width="9" style="7"/>
+    <col min="7" max="7" width="15.125" style="7" customWidth="1"/>
+    <col min="8" max="14" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="9" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>2370</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>2366</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>2367</v>
+      </c>
+      <c r="F1" s="55" t="s">
+        <v>2368</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="B2" s="82">
+        <v>45796</v>
+      </c>
+      <c r="C2" s="82">
+        <v>45796</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA9F9E16-4597-4C7A-956B-21C707B2DF30}">
+  <dimension ref="A1:J43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="30.125" customWidth="1"/>
+    <col min="4" max="4" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="23.75" customWidth="1"/>
+    <col min="7" max="7" width="34" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="20.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2396</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2402</v>
+      </c>
+      <c r="J1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>2371</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2383</v>
+      </c>
+      <c r="C2">
+        <v>126</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2401</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2408</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2397</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2403</v>
+      </c>
+      <c r="J2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>2372</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2384</v>
+      </c>
+      <c r="C3">
+        <v>126</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2401</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2409</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2398</v>
+      </c>
+      <c r="I3" t="s">
+        <v>2404</v>
+      </c>
+      <c r="J3">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>2371</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2383</v>
+      </c>
+      <c r="C4">
+        <v>128</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2401</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2410</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2399</v>
+      </c>
+      <c r="I4" t="s">
+        <v>2405</v>
+      </c>
+      <c r="J4">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>2372</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2384</v>
+      </c>
+      <c r="C5">
+        <v>128</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2401</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1734</v>
+      </c>
+      <c r="H5" t="s">
+        <v>2400</v>
+      </c>
+      <c r="I5" t="s">
+        <v>2406</v>
+      </c>
+      <c r="J5">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2385</v>
+      </c>
+      <c r="C6">
+        <v>126</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2401</v>
+      </c>
+      <c r="H6" t="s">
+        <v>2401</v>
+      </c>
+      <c r="I6" t="s">
+        <v>2407</v>
+      </c>
+      <c r="J6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>2374</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2386</v>
+      </c>
+      <c r="C7">
+        <v>126</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>2375</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2387</v>
+      </c>
+      <c r="C8">
+        <v>126</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>2376</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2388</v>
+      </c>
+      <c r="C9">
+        <v>126</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>2377</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2389</v>
+      </c>
+      <c r="C10">
+        <v>126</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>2378</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2390</v>
+      </c>
+      <c r="C11">
+        <v>126</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>2379</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2391</v>
+      </c>
+      <c r="C12">
+        <v>128</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>2380</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2392</v>
+      </c>
+      <c r="C13">
+        <v>128</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>2381</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2393</v>
+      </c>
+      <c r="C14">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>2382</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2394</v>
+      </c>
+      <c r="C15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="E17" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="E18" t="s">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="E19" t="s">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="E20" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G20" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="E21" t="s">
+        <v>2375</v>
+      </c>
+      <c r="G21" t="s">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="E22" t="s">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="E23" t="s">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="E24" t="s">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="E25" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="E26" t="s">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="E27" t="s">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" t="s">
+        <v>2411</v>
+      </c>
+      <c r="E28" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="D32" s="62"/>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" s="62"/>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" s="62"/>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="D35" s="62"/>
+    </row>
+    <row r="36" spans="4:4">
+      <c r="D36" s="62"/>
+    </row>
+    <row r="37" spans="4:4">
+      <c r="D37" s="62"/>
+    </row>
+    <row r="38" spans="4:4">
+      <c r="D38" s="62"/>
+    </row>
+    <row r="39" spans="4:4">
+      <c r="D39" s="62"/>
+    </row>
+    <row r="40" spans="4:4">
+      <c r="D40" s="62"/>
+    </row>
+    <row r="41" spans="4:4">
+      <c r="D41" s="62"/>
+    </row>
+    <row r="42" spans="4:4">
+      <c r="D42" s="62"/>
+    </row>
+    <row r="43" spans="4:4">
+      <c r="D43" s="62"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78DC3B4-7666-4C99-8AC7-EE7667219C12}">
+  <dimension ref="A1:K30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="91" t="s">
+        <v>2437</v>
+      </c>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="93"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="94"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="96"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="94"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="96"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="94"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="96"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="94"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="96"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="94"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="96"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="94"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="96"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="94"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="96"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="94"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="96"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="94"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="96"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="94"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="96"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="94"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="96"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="94"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="96"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="94"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="96"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="94"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="96"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="94"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="95"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="96"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="94"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="95"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="96"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="94"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="95"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="96"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="94"/>
+      <c r="B19" s="95"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="95"/>
+      <c r="J19" s="95"/>
+      <c r="K19" s="96"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="94"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="96"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="94"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="96"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="94"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="95"/>
+      <c r="J22" s="95"/>
+      <c r="K22" s="96"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="94"/>
+      <c r="B23" s="95"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="95"/>
+      <c r="H23" s="95"/>
+      <c r="I23" s="95"/>
+      <c r="J23" s="95"/>
+      <c r="K23" s="96"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="94"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="95"/>
+      <c r="H24" s="95"/>
+      <c r="I24" s="95"/>
+      <c r="J24" s="95"/>
+      <c r="K24" s="96"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="94"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="95"/>
+      <c r="G25" s="95"/>
+      <c r="H25" s="95"/>
+      <c r="I25" s="95"/>
+      <c r="J25" s="95"/>
+      <c r="K25" s="96"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="94"/>
+      <c r="B26" s="95"/>
+      <c r="C26" s="95"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="95"/>
+      <c r="H26" s="95"/>
+      <c r="I26" s="95"/>
+      <c r="J26" s="95"/>
+      <c r="K26" s="96"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="94"/>
+      <c r="B27" s="95"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="95"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="95"/>
+      <c r="J27" s="95"/>
+      <c r="K27" s="96"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="94"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="95"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="95"/>
+      <c r="G28" s="95"/>
+      <c r="H28" s="95"/>
+      <c r="I28" s="95"/>
+      <c r="J28" s="95"/>
+      <c r="K28" s="96"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="94"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="95"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="95"/>
+      <c r="H29" s="95"/>
+      <c r="I29" s="95"/>
+      <c r="J29" s="95"/>
+      <c r="K29" s="96"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="97"/>
+      <c r="B30" s="98"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="98"/>
+      <c r="F30" s="98"/>
+      <c r="G30" s="98"/>
+      <c r="H30" s="98"/>
+      <c r="I30" s="98"/>
+      <c r="J30" s="98"/>
+      <c r="K30" s="99"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K30"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F390C0-45A8-4742-B8CA-5BFD6B9B07C6}">
   <dimension ref="A1"/>
@@ -38265,8 +39659,8 @@
   <dimension ref="A1:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T4" sqref="T4"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -38279,16 +39673,18 @@
     <col min="7" max="7" width="7.875" style="48" customWidth="1"/>
     <col min="8" max="8" width="29.25" style="50" customWidth="1"/>
     <col min="9" max="9" width="13" style="48" customWidth="1"/>
-    <col min="10" max="10" width="19.25" style="48" customWidth="1"/>
-    <col min="11" max="11" width="29.125" style="48" customWidth="1"/>
-    <col min="12" max="12" width="48.375" style="51" customWidth="1"/>
-    <col min="13" max="13" width="44.75" style="48" customWidth="1"/>
-    <col min="14" max="14" width="43.5" style="48" customWidth="1"/>
+    <col min="10" max="10" width="41.125" style="48" customWidth="1"/>
+    <col min="11" max="11" width="22.5" style="48" customWidth="1"/>
+    <col min="12" max="12" width="54.625" style="51" customWidth="1"/>
+    <col min="13" max="13" width="17" style="48" customWidth="1"/>
+    <col min="14" max="14" width="25.375" style="48" customWidth="1"/>
     <col min="15" max="15" width="58" style="48" customWidth="1"/>
     <col min="16" max="16" width="63.875" style="48" customWidth="1"/>
     <col min="17" max="17" width="19.125" style="48" customWidth="1"/>
     <col min="18" max="18" width="10" style="48" customWidth="1"/>
-    <col min="19" max="21" width="24.5" style="48" customWidth="1"/>
+    <col min="19" max="19" width="46.875" style="48" customWidth="1"/>
+    <col min="20" max="20" width="32.875" style="48" customWidth="1"/>
+    <col min="21" max="21" width="24.5" style="48" customWidth="1"/>
     <col min="22" max="16384" width="9" style="52"/>
   </cols>
   <sheetData>
@@ -38355,7 +39751,7 @@
       </c>
       <c r="U1" s="55"/>
     </row>
-    <row r="2" spans="1:21" ht="30">
+    <row r="2" spans="1:21" ht="71.25">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -38496,8 +39892,8 @@
         <v>45793</v>
       </c>
       <c r="C5" s="31"/>
-      <c r="D5" s="10" t="s">
-        <v>1620</v>
+      <c r="D5" s="64" t="s">
+        <v>1589</v>
       </c>
       <c r="E5" s="49" t="s">
         <v>1696</v>
@@ -38533,14 +39929,29 @@
       </c>
       <c r="U5" s="44"/>
     </row>
-    <row r="6" spans="1:21" ht="15">
+    <row r="6" spans="1:21" ht="99.75">
       <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
+      <c r="B6" s="31">
+        <v>45796</v>
+      </c>
+      <c r="C6" s="31">
+        <v>45796</v>
+      </c>
+      <c r="D6" s="64" t="s">
+        <v>1589</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>2365</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>2363</v>
+      </c>
       <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
+      <c r="H6" s="44" t="s">
+        <v>2364</v>
+      </c>
       <c r="I6" s="44"/>
       <c r="J6" s="44"/>
       <c r="K6" s="44"/>
@@ -38555,12 +39966,22 @@
       <c r="T6" s="44"/>
       <c r="U6" s="44"/>
     </row>
-    <row r="7" spans="1:21" ht="15">
+    <row r="7" spans="1:21" ht="85.5">
       <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
+      <c r="B7" s="31">
+        <v>45797</v>
+      </c>
+      <c r="C7" s="31">
+        <v>45797</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>1589</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>2395</v>
+      </c>
       <c r="G7" s="44"/>
       <c r="H7" s="44"/>
       <c r="I7" s="44"/>
@@ -38577,50 +39998,89 @@
       <c r="T7" s="44"/>
       <c r="U7" s="44"/>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" ht="185.25">
       <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="31"/>
+      <c r="B8" s="31">
+        <v>45797</v>
+      </c>
       <c r="C8" s="31"/>
+      <c r="D8" s="64" t="s">
+        <v>1589</v>
+      </c>
+      <c r="E8" s="49" t="s">
+        <v>2428</v>
+      </c>
       <c r="G8" s="44"/>
       <c r="H8" s="44"/>
       <c r="I8" s="44"/>
       <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="50"/>
+      <c r="K8" s="44" t="s">
+        <v>2412</v>
+      </c>
+      <c r="L8" s="49" t="s">
+        <v>2421</v>
+      </c>
       <c r="M8" s="44"/>
       <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
+      <c r="O8" s="45" t="s">
+        <v>2413</v>
+      </c>
+      <c r="P8" s="45" t="s">
+        <v>2414</v>
+      </c>
       <c r="Q8" s="44"/>
       <c r="R8" s="44"/>
       <c r="S8" s="44"/>
       <c r="T8" s="44"/>
       <c r="U8" s="44"/>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" ht="409.5">
       <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="31"/>
+      <c r="B9" s="31">
+        <v>45797</v>
+      </c>
       <c r="C9" s="31"/>
-      <c r="E9" s="49"/>
+      <c r="D9" s="9" t="s">
+        <v>2426</v>
+      </c>
+      <c r="E9" s="49" t="s">
+        <v>2427</v>
+      </c>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
       <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="50"/>
+      <c r="J9" s="45" t="s">
+        <v>2432</v>
+      </c>
+      <c r="K9" s="44" t="s">
+        <v>2433</v>
+      </c>
+      <c r="L9" s="50" t="s">
+        <v>2434</v>
+      </c>
       <c r="M9" s="44"/>
       <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
+      <c r="O9" s="45" t="s">
+        <v>2435</v>
+      </c>
+      <c r="P9" s="45" t="s">
+        <v>2436</v>
+      </c>
       <c r="Q9" s="44"/>
       <c r="R9" s="44"/>
-      <c r="S9" s="44"/>
-      <c r="T9" s="44"/>
-      <c r="U9" s="44"/>
+      <c r="S9" s="45" t="s">
+        <v>2431</v>
+      </c>
+      <c r="T9" s="49" t="s">
+        <v>2430</v>
+      </c>
+      <c r="U9" s="45" t="s">
+        <v>2429</v>
+      </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="10">
@@ -39136,10 +40596,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="7"/>
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="83" t="s">
         <v>1645</v>
       </c>
-      <c r="C8" s="86" t="s">
+      <c r="C8" s="87" t="s">
         <v>1663</v>
       </c>
       <c r="D8" t="s">
@@ -39151,8 +40611,8 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="7"/>
-      <c r="B9" s="83"/>
-      <c r="C9" s="84"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="85"/>
       <c r="D9" s="7" t="s">
         <v>1643</v>
       </c>
@@ -39160,7 +40620,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="7"/>
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="83" t="s">
         <v>1640</v>
       </c>
       <c r="C10" s="7"/>
@@ -39171,7 +40631,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="7"/>
-      <c r="B11" s="84"/>
+      <c r="B11" s="85"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7" t="s">
         <v>1634</v>
@@ -39269,10 +40729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="7"/>
-      <c r="B20" s="85" t="s">
+      <c r="B20" s="86" t="s">
         <v>1645</v>
       </c>
-      <c r="C20" s="87" t="s">
+      <c r="C20" s="88" t="s">
         <v>1644</v>
       </c>
       <c r="D20" s="33" t="s">
@@ -39284,8 +40744,8 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="7"/>
-      <c r="B21" s="85"/>
-      <c r="C21" s="85"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="86"/>
       <c r="D21" s="33" t="s">
         <v>370</v>
       </c>
@@ -39293,8 +40753,8 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="7"/>
-      <c r="B22" s="85"/>
-      <c r="C22" s="85"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="86"/>
       <c r="D22" s="33" t="s">
         <v>1641</v>
       </c>
@@ -39302,7 +40762,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="7"/>
-      <c r="B23" s="82" t="s">
+      <c r="B23" s="83" t="s">
         <v>1640</v>
       </c>
       <c r="C23" s="32"/>
@@ -39313,7 +40773,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="7"/>
-      <c r="B24" s="83"/>
+      <c r="B24" s="84"/>
       <c r="C24" s="32"/>
       <c r="D24" s="33" t="s">
         <v>1638</v>
@@ -39324,7 +40784,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="7"/>
-      <c r="B25" s="83"/>
+      <c r="B25" s="84"/>
       <c r="C25" s="32"/>
       <c r="D25" s="33" t="s">
         <v>1636</v>
@@ -39335,7 +40795,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="7"/>
-      <c r="B26" s="84"/>
+      <c r="B26" s="85"/>
       <c r="C26" s="7"/>
       <c r="D26" s="33" t="s">
         <v>1634</v>
@@ -39418,11 +40878,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="23" width="9" style="89"/>
+    <col min="1" max="23" width="9" style="90"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="89" t="s">
         <v>1701</v>
       </c>
     </row>
